--- a/◆At_Coder_メモ帳◆.xlsx
+++ b/◆At_Coder_メモ帳◆.xlsx
@@ -763,7 +763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,20 +792,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,6 +803,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -1009,12 +1003,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1025,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1439,18 +1433,18 @@
       </c>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1467,18 +1461,18 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="6"/>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
@@ -1551,236 +1545,236 @@
       <c r="BC9" s="9"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="22"/>
-      <c r="AD10" s="20" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="20"/>
+      <c r="AD10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="21"/>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="21"/>
-      <c r="AP10" s="21"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="21"/>
-      <c r="AZ10" s="21"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="22"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="20"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="22"/>
-      <c r="AD11" s="20" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="20"/>
+      <c r="AD11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="22"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="20"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="22"/>
-      <c r="AD12" s="20" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="20"/>
+      <c r="AD12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="21"/>
-      <c r="AV12" s="21"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="21"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="22"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="20"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="22"/>
-      <c r="AD13" s="20" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="20"/>
+      <c r="AD13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="21"/>
-      <c r="AP13" s="21"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="22"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="20"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C14" s="13" t="s">
@@ -1811,62 +1805,62 @@
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
       <c r="AB14" s="15"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="21"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="22"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="20"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="22"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="20"/>
       <c r="AD15" s="13" t="s">
         <v>70</v>
       </c>
@@ -1897,181 +1891,181 @@
       <c r="BC15" s="15"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="22"/>
-      <c r="AD16" s="20" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="20"/>
+      <c r="AD16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="22"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="20"/>
     </row>
     <row r="17" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="22"/>
-      <c r="AD17" s="20" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="20"/>
+      <c r="AD17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="22"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="20"/>
     </row>
     <row r="18" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="22"/>
-      <c r="AD18" s="20" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="20"/>
+      <c r="AD18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
-      <c r="BC18" s="22"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="20"/>
     </row>
     <row r="19" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>82</v>
       </c>
       <c r="D19" s="14"/>
@@ -2099,121 +2093,121 @@
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="15"/>
-      <c r="AD19" s="20" t="s">
+      <c r="AD19" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="22"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="20"/>
     </row>
     <row r="20" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="22"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="21"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="21"/>
-      <c r="AQ20" s="21"/>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="21"/>
-      <c r="AT20" s="21"/>
-      <c r="AU20" s="21"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="21"/>
-      <c r="BA20" s="21"/>
-      <c r="BB20" s="21"/>
-      <c r="BC20" s="22"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="20"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="20"/>
     </row>
     <row r="21" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="22"/>
-      <c r="AD21" s="20" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="20"/>
+      <c r="AD21" s="18" t="s">
         <v>74</v>
       </c>
       <c r="AE21" s="14"/>
@@ -2243,68 +2237,68 @@
       <c r="BC21" s="15"/>
     </row>
     <row r="22" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="22"/>
-      <c r="AD22" s="20" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="20"/>
+      <c r="AD22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="22"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="20"/>
     </row>
     <row r="23" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -2329,126 +2323,126 @@
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
       <c r="AB23" s="17"/>
-      <c r="AD23" s="20" t="s">
+      <c r="AD23" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="22"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="20"/>
     </row>
     <row r="24" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="22"/>
-      <c r="AD24" s="20" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="20"/>
+      <c r="AD24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="22"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="20"/>
     </row>
     <row r="25" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="22"/>
-      <c r="AD25" s="20" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="20"/>
+      <c r="AD25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AE25" s="21"/>
+      <c r="AE25" s="19"/>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
@@ -2475,7 +2469,7 @@
       <c r="BC25" s="17"/>
     </row>
     <row r="26" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="16"/>
@@ -2503,208 +2497,208 @@
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
       <c r="AB26" s="17"/>
-      <c r="AD26" s="20" t="s">
+      <c r="AD26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AE26" s="21"/>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="21"/>
-      <c r="AJ26" s="21"/>
-      <c r="AK26" s="21"/>
-      <c r="AL26" s="21"/>
-      <c r="AM26" s="21"/>
-      <c r="AN26" s="21"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="21"/>
-      <c r="AQ26" s="21"/>
-      <c r="AR26" s="21"/>
-      <c r="AS26" s="21"/>
-      <c r="AT26" s="21"/>
-      <c r="AU26" s="21"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="21"/>
-      <c r="AY26" s="21"/>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="21"/>
-      <c r="BB26" s="21"/>
-      <c r="BC26" s="22"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="20"/>
     </row>
     <row r="27" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="22"/>
-      <c r="AD27" s="20" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="20"/>
+      <c r="AD27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="21"/>
-      <c r="AL27" s="21"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="21"/>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="21"/>
-      <c r="AQ27" s="21"/>
-      <c r="AR27" s="21"/>
-      <c r="AS27" s="21"/>
-      <c r="AT27" s="21"/>
-      <c r="AU27" s="21"/>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="21"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="22"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="20"/>
     </row>
     <row r="28" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="22"/>
-      <c r="AD28" s="20" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="20"/>
+      <c r="AD28" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="21"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="21"/>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="21"/>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="21"/>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="21"/>
-      <c r="BC28" s="22"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="20"/>
     </row>
     <row r="29" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="22"/>
-      <c r="AD29" s="20" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="20"/>
+      <c r="AD29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="21"/>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="21"/>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="21"/>
-      <c r="AQ29" s="21"/>
-      <c r="AR29" s="21"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="21"/>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="21"/>
-      <c r="BC29" s="22"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
+      <c r="BA29" s="19"/>
+      <c r="BB29" s="19"/>
+      <c r="BC29" s="20"/>
     </row>
     <row r="30" spans="3:55" x14ac:dyDescent="0.15">
       <c r="C30" s="10"/>
@@ -3498,18 +3492,18 @@
       </c>
     </row>
     <row r="83" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -3526,18 +3520,18 @@
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
       <c r="AB83" s="6"/>
-      <c r="AD83" s="18" t="s">
+      <c r="AD83" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AE83" s="19"/>
-      <c r="AF83" s="19"/>
-      <c r="AG83" s="19"/>
-      <c r="AH83" s="19"/>
-      <c r="AI83" s="19"/>
-      <c r="AJ83" s="19"/>
-      <c r="AK83" s="19"/>
-      <c r="AL83" s="19"/>
-      <c r="AM83" s="19"/>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="27"/>
+      <c r="AH83" s="27"/>
+      <c r="AI83" s="27"/>
+      <c r="AJ83" s="27"/>
+      <c r="AK83" s="27"/>
+      <c r="AL83" s="27"/>
+      <c r="AM83" s="27"/>
       <c r="AN83" s="5"/>
       <c r="AO83" s="5"/>
       <c r="AP83" s="5"/>
@@ -4827,18 +4821,18 @@
       </c>
     </row>
     <row r="112" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
@@ -4855,18 +4849,18 @@
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
       <c r="AB112" s="6"/>
-      <c r="AD112" s="18" t="s">
+      <c r="AD112" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AE112" s="19"/>
-      <c r="AF112" s="19"/>
-      <c r="AG112" s="19"/>
-      <c r="AH112" s="19"/>
-      <c r="AI112" s="19"/>
-      <c r="AJ112" s="19"/>
-      <c r="AK112" s="19"/>
-      <c r="AL112" s="19"/>
-      <c r="AM112" s="19"/>
+      <c r="AE112" s="27"/>
+      <c r="AF112" s="27"/>
+      <c r="AG112" s="27"/>
+      <c r="AH112" s="27"/>
+      <c r="AI112" s="27"/>
+      <c r="AJ112" s="27"/>
+      <c r="AK112" s="27"/>
+      <c r="AL112" s="27"/>
+      <c r="AM112" s="27"/>
       <c r="AN112" s="5"/>
       <c r="AO112" s="5"/>
       <c r="AP112" s="5"/>
@@ -4939,290 +4933,290 @@
       <c r="BC113" s="9"/>
     </row>
     <row r="114" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="21"/>
-      <c r="L114" s="21"/>
-      <c r="M114" s="21"/>
-      <c r="N114" s="21"/>
-      <c r="O114" s="21"/>
-      <c r="P114" s="21"/>
-      <c r="Q114" s="21"/>
-      <c r="R114" s="21"/>
-      <c r="S114" s="21"/>
-      <c r="T114" s="21"/>
-      <c r="U114" s="21"/>
-      <c r="V114" s="21"/>
-      <c r="W114" s="21"/>
-      <c r="X114" s="21"/>
-      <c r="Y114" s="21"/>
-      <c r="Z114" s="21"/>
-      <c r="AA114" s="21"/>
-      <c r="AB114" s="22"/>
-      <c r="AD114" s="20" t="s">
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="19"/>
+      <c r="V114" s="19"/>
+      <c r="W114" s="19"/>
+      <c r="X114" s="19"/>
+      <c r="Y114" s="19"/>
+      <c r="Z114" s="19"/>
+      <c r="AA114" s="19"/>
+      <c r="AB114" s="20"/>
+      <c r="AD114" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AE114" s="21"/>
-      <c r="AF114" s="21"/>
-      <c r="AG114" s="21"/>
-      <c r="AH114" s="21"/>
-      <c r="AI114" s="21"/>
-      <c r="AJ114" s="21"/>
-      <c r="AK114" s="21"/>
-      <c r="AL114" s="21"/>
-      <c r="AM114" s="21"/>
-      <c r="AN114" s="21"/>
-      <c r="AO114" s="21"/>
-      <c r="AP114" s="21"/>
-      <c r="AQ114" s="21"/>
-      <c r="AR114" s="21"/>
-      <c r="AS114" s="21"/>
-      <c r="AT114" s="21"/>
-      <c r="AU114" s="21"/>
-      <c r="AV114" s="21"/>
-      <c r="AW114" s="21"/>
-      <c r="AX114" s="21"/>
-      <c r="AY114" s="21"/>
-      <c r="AZ114" s="21"/>
-      <c r="BA114" s="21"/>
-      <c r="BB114" s="21"/>
-      <c r="BC114" s="22"/>
+      <c r="AE114" s="19"/>
+      <c r="AF114" s="19"/>
+      <c r="AG114" s="19"/>
+      <c r="AH114" s="19"/>
+      <c r="AI114" s="19"/>
+      <c r="AJ114" s="19"/>
+      <c r="AK114" s="19"/>
+      <c r="AL114" s="19"/>
+      <c r="AM114" s="19"/>
+      <c r="AN114" s="19"/>
+      <c r="AO114" s="19"/>
+      <c r="AP114" s="19"/>
+      <c r="AQ114" s="19"/>
+      <c r="AR114" s="19"/>
+      <c r="AS114" s="19"/>
+      <c r="AT114" s="19"/>
+      <c r="AU114" s="19"/>
+      <c r="AV114" s="19"/>
+      <c r="AW114" s="19"/>
+      <c r="AX114" s="19"/>
+      <c r="AY114" s="19"/>
+      <c r="AZ114" s="19"/>
+      <c r="BA114" s="19"/>
+      <c r="BB114" s="19"/>
+      <c r="BC114" s="20"/>
     </row>
     <row r="115" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
-      <c r="M115" s="21"/>
-      <c r="N115" s="21"/>
-      <c r="O115" s="21"/>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21"/>
-      <c r="V115" s="21"/>
-      <c r="W115" s="21"/>
-      <c r="X115" s="21"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="21"/>
-      <c r="AA115" s="21"/>
-      <c r="AB115" s="22"/>
-      <c r="AD115" s="20" t="s">
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="19"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="19"/>
+      <c r="X115" s="19"/>
+      <c r="Y115" s="19"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="19"/>
+      <c r="AB115" s="20"/>
+      <c r="AD115" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AE115" s="21"/>
-      <c r="AF115" s="21"/>
-      <c r="AG115" s="21"/>
-      <c r="AH115" s="21"/>
-      <c r="AI115" s="21"/>
-      <c r="AJ115" s="21"/>
-      <c r="AK115" s="21"/>
-      <c r="AL115" s="21"/>
-      <c r="AM115" s="21"/>
-      <c r="AN115" s="21"/>
-      <c r="AO115" s="21"/>
-      <c r="AP115" s="21"/>
-      <c r="AQ115" s="21"/>
-      <c r="AR115" s="21"/>
-      <c r="AS115" s="21"/>
-      <c r="AT115" s="21"/>
-      <c r="AU115" s="21"/>
-      <c r="AV115" s="21"/>
-      <c r="AW115" s="21"/>
-      <c r="AX115" s="21"/>
-      <c r="AY115" s="21"/>
-      <c r="AZ115" s="21"/>
-      <c r="BA115" s="21"/>
-      <c r="BB115" s="21"/>
-      <c r="BC115" s="22"/>
+      <c r="AE115" s="19"/>
+      <c r="AF115" s="19"/>
+      <c r="AG115" s="19"/>
+      <c r="AH115" s="19"/>
+      <c r="AI115" s="19"/>
+      <c r="AJ115" s="19"/>
+      <c r="AK115" s="19"/>
+      <c r="AL115" s="19"/>
+      <c r="AM115" s="19"/>
+      <c r="AN115" s="19"/>
+      <c r="AO115" s="19"/>
+      <c r="AP115" s="19"/>
+      <c r="AQ115" s="19"/>
+      <c r="AR115" s="19"/>
+      <c r="AS115" s="19"/>
+      <c r="AT115" s="19"/>
+      <c r="AU115" s="19"/>
+      <c r="AV115" s="19"/>
+      <c r="AW115" s="19"/>
+      <c r="AX115" s="19"/>
+      <c r="AY115" s="19"/>
+      <c r="AZ115" s="19"/>
+      <c r="BA115" s="19"/>
+      <c r="BB115" s="19"/>
+      <c r="BC115" s="20"/>
     </row>
     <row r="116" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D116" s="21"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-      <c r="I116" s="21"/>
-      <c r="J116" s="21"/>
-      <c r="K116" s="21"/>
-      <c r="L116" s="21"/>
-      <c r="M116" s="21"/>
-      <c r="N116" s="21"/>
-      <c r="O116" s="21"/>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="21"/>
-      <c r="S116" s="21"/>
-      <c r="T116" s="21"/>
-      <c r="U116" s="21"/>
-      <c r="V116" s="21"/>
-      <c r="W116" s="21"/>
-      <c r="X116" s="21"/>
-      <c r="Y116" s="21"/>
-      <c r="Z116" s="21"/>
-      <c r="AA116" s="21"/>
-      <c r="AB116" s="22"/>
-      <c r="AD116" s="20" t="s">
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="19"/>
+      <c r="V116" s="19"/>
+      <c r="W116" s="19"/>
+      <c r="X116" s="19"/>
+      <c r="Y116" s="19"/>
+      <c r="Z116" s="19"/>
+      <c r="AA116" s="19"/>
+      <c r="AB116" s="20"/>
+      <c r="AD116" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AE116" s="21"/>
-      <c r="AF116" s="21"/>
-      <c r="AG116" s="21"/>
-      <c r="AH116" s="21"/>
-      <c r="AI116" s="21"/>
-      <c r="AJ116" s="21"/>
-      <c r="AK116" s="21"/>
-      <c r="AL116" s="21"/>
-      <c r="AM116" s="21"/>
-      <c r="AN116" s="21"/>
-      <c r="AO116" s="21"/>
-      <c r="AP116" s="21"/>
-      <c r="AQ116" s="21"/>
-      <c r="AR116" s="21"/>
-      <c r="AS116" s="21"/>
-      <c r="AT116" s="21"/>
-      <c r="AU116" s="21"/>
-      <c r="AV116" s="21"/>
-      <c r="AW116" s="21"/>
-      <c r="AX116" s="21"/>
-      <c r="AY116" s="21"/>
-      <c r="AZ116" s="21"/>
-      <c r="BA116" s="21"/>
-      <c r="BB116" s="21"/>
-      <c r="BC116" s="22"/>
+      <c r="AE116" s="19"/>
+      <c r="AF116" s="19"/>
+      <c r="AG116" s="19"/>
+      <c r="AH116" s="19"/>
+      <c r="AI116" s="19"/>
+      <c r="AJ116" s="19"/>
+      <c r="AK116" s="19"/>
+      <c r="AL116" s="19"/>
+      <c r="AM116" s="19"/>
+      <c r="AN116" s="19"/>
+      <c r="AO116" s="19"/>
+      <c r="AP116" s="19"/>
+      <c r="AQ116" s="19"/>
+      <c r="AR116" s="19"/>
+      <c r="AS116" s="19"/>
+      <c r="AT116" s="19"/>
+      <c r="AU116" s="19"/>
+      <c r="AV116" s="19"/>
+      <c r="AW116" s="19"/>
+      <c r="AX116" s="19"/>
+      <c r="AY116" s="19"/>
+      <c r="AZ116" s="19"/>
+      <c r="BA116" s="19"/>
+      <c r="BB116" s="19"/>
+      <c r="BC116" s="20"/>
     </row>
     <row r="117" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="21"/>
-      <c r="J117" s="21"/>
-      <c r="K117" s="21"/>
-      <c r="L117" s="21"/>
-      <c r="M117" s="21"/>
-      <c r="N117" s="21"/>
-      <c r="O117" s="21"/>
-      <c r="P117" s="21"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="21"/>
-      <c r="S117" s="21"/>
-      <c r="T117" s="21"/>
-      <c r="U117" s="21"/>
-      <c r="V117" s="21"/>
-      <c r="W117" s="21"/>
-      <c r="X117" s="21"/>
-      <c r="Y117" s="21"/>
-      <c r="Z117" s="21"/>
-      <c r="AA117" s="21"/>
-      <c r="AB117" s="22"/>
-      <c r="AD117" s="20" t="s">
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="19"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="19"/>
+      <c r="X117" s="19"/>
+      <c r="Y117" s="19"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="19"/>
+      <c r="AB117" s="20"/>
+      <c r="AD117" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AE117" s="21"/>
-      <c r="AF117" s="21"/>
-      <c r="AG117" s="21"/>
-      <c r="AH117" s="21"/>
-      <c r="AI117" s="21"/>
-      <c r="AJ117" s="21"/>
-      <c r="AK117" s="21"/>
-      <c r="AL117" s="21"/>
-      <c r="AM117" s="21"/>
-      <c r="AN117" s="21"/>
-      <c r="AO117" s="21"/>
-      <c r="AP117" s="21"/>
-      <c r="AQ117" s="21"/>
-      <c r="AR117" s="21"/>
-      <c r="AS117" s="21"/>
-      <c r="AT117" s="21"/>
-      <c r="AU117" s="21"/>
-      <c r="AV117" s="21"/>
-      <c r="AW117" s="21"/>
-      <c r="AX117" s="21"/>
-      <c r="AY117" s="21"/>
-      <c r="AZ117" s="21"/>
-      <c r="BA117" s="21"/>
-      <c r="BB117" s="21"/>
-      <c r="BC117" s="22"/>
+      <c r="AE117" s="19"/>
+      <c r="AF117" s="19"/>
+      <c r="AG117" s="19"/>
+      <c r="AH117" s="19"/>
+      <c r="AI117" s="19"/>
+      <c r="AJ117" s="19"/>
+      <c r="AK117" s="19"/>
+      <c r="AL117" s="19"/>
+      <c r="AM117" s="19"/>
+      <c r="AN117" s="19"/>
+      <c r="AO117" s="19"/>
+      <c r="AP117" s="19"/>
+      <c r="AQ117" s="19"/>
+      <c r="AR117" s="19"/>
+      <c r="AS117" s="19"/>
+      <c r="AT117" s="19"/>
+      <c r="AU117" s="19"/>
+      <c r="AV117" s="19"/>
+      <c r="AW117" s="19"/>
+      <c r="AX117" s="19"/>
+      <c r="AY117" s="19"/>
+      <c r="AZ117" s="19"/>
+      <c r="BA117" s="19"/>
+      <c r="BB117" s="19"/>
+      <c r="BC117" s="20"/>
     </row>
     <row r="118" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C118" s="20"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
-      <c r="T118" s="21"/>
-      <c r="U118" s="21"/>
-      <c r="V118" s="21"/>
-      <c r="W118" s="21"/>
-      <c r="X118" s="21"/>
-      <c r="Y118" s="21"/>
-      <c r="Z118" s="21"/>
-      <c r="AA118" s="21"/>
-      <c r="AB118" s="22"/>
-      <c r="AD118" s="20"/>
-      <c r="AE118" s="21"/>
-      <c r="AF118" s="21"/>
-      <c r="AG118" s="21"/>
-      <c r="AH118" s="21"/>
-      <c r="AI118" s="21"/>
-      <c r="AJ118" s="21"/>
-      <c r="AK118" s="21"/>
-      <c r="AL118" s="21"/>
-      <c r="AM118" s="21"/>
-      <c r="AN118" s="21"/>
-      <c r="AO118" s="21"/>
-      <c r="AP118" s="21"/>
-      <c r="AQ118" s="21"/>
-      <c r="AR118" s="21"/>
-      <c r="AS118" s="21"/>
-      <c r="AT118" s="21"/>
-      <c r="AU118" s="21"/>
-      <c r="AV118" s="21"/>
-      <c r="AW118" s="21"/>
-      <c r="AX118" s="21"/>
-      <c r="AY118" s="21"/>
-      <c r="AZ118" s="21"/>
-      <c r="BA118" s="21"/>
-      <c r="BB118" s="21"/>
-      <c r="BC118" s="22"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
+      <c r="T118" s="19"/>
+      <c r="U118" s="19"/>
+      <c r="V118" s="19"/>
+      <c r="W118" s="19"/>
+      <c r="X118" s="19"/>
+      <c r="Y118" s="19"/>
+      <c r="Z118" s="19"/>
+      <c r="AA118" s="19"/>
+      <c r="AB118" s="20"/>
+      <c r="AD118" s="18"/>
+      <c r="AE118" s="19"/>
+      <c r="AF118" s="19"/>
+      <c r="AG118" s="19"/>
+      <c r="AH118" s="19"/>
+      <c r="AI118" s="19"/>
+      <c r="AJ118" s="19"/>
+      <c r="AK118" s="19"/>
+      <c r="AL118" s="19"/>
+      <c r="AM118" s="19"/>
+      <c r="AN118" s="19"/>
+      <c r="AO118" s="19"/>
+      <c r="AP118" s="19"/>
+      <c r="AQ118" s="19"/>
+      <c r="AR118" s="19"/>
+      <c r="AS118" s="19"/>
+      <c r="AT118" s="19"/>
+      <c r="AU118" s="19"/>
+      <c r="AV118" s="19"/>
+      <c r="AW118" s="19"/>
+      <c r="AX118" s="19"/>
+      <c r="AY118" s="19"/>
+      <c r="AZ118" s="19"/>
+      <c r="BA118" s="19"/>
+      <c r="BB118" s="19"/>
+      <c r="BC118" s="20"/>
     </row>
     <row r="119" spans="3:55" x14ac:dyDescent="0.15">
       <c r="C119" s="13" t="s">
@@ -5283,123 +5277,123 @@
       <c r="BC119" s="15"/>
     </row>
     <row r="120" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="21"/>
-      <c r="E120" s="21"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="21"/>
-      <c r="L120" s="21"/>
-      <c r="M120" s="21"/>
-      <c r="N120" s="21"/>
-      <c r="O120" s="21"/>
-      <c r="P120" s="21"/>
-      <c r="Q120" s="21"/>
-      <c r="R120" s="21"/>
-      <c r="S120" s="21"/>
-      <c r="T120" s="21"/>
-      <c r="U120" s="21"/>
-      <c r="V120" s="21"/>
-      <c r="W120" s="21"/>
-      <c r="X120" s="21"/>
-      <c r="Y120" s="21"/>
-      <c r="Z120" s="21"/>
-      <c r="AA120" s="21"/>
-      <c r="AB120" s="22"/>
-      <c r="AD120" s="20" t="s">
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="19"/>
+      <c r="U120" s="19"/>
+      <c r="V120" s="19"/>
+      <c r="W120" s="19"/>
+      <c r="X120" s="19"/>
+      <c r="Y120" s="19"/>
+      <c r="Z120" s="19"/>
+      <c r="AA120" s="19"/>
+      <c r="AB120" s="20"/>
+      <c r="AD120" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AE120" s="21"/>
-      <c r="AF120" s="21"/>
-      <c r="AG120" s="21"/>
-      <c r="AH120" s="21"/>
-      <c r="AI120" s="21"/>
-      <c r="AJ120" s="21"/>
-      <c r="AK120" s="21"/>
-      <c r="AL120" s="21"/>
-      <c r="AM120" s="21"/>
-      <c r="AN120" s="21"/>
-      <c r="AO120" s="21"/>
-      <c r="AP120" s="21"/>
-      <c r="AQ120" s="21"/>
-      <c r="AR120" s="21"/>
-      <c r="AS120" s="21"/>
-      <c r="AT120" s="21"/>
-      <c r="AU120" s="21"/>
-      <c r="AV120" s="21"/>
-      <c r="AW120" s="21"/>
-      <c r="AX120" s="21"/>
-      <c r="AY120" s="21"/>
-      <c r="AZ120" s="21"/>
-      <c r="BA120" s="21"/>
-      <c r="BB120" s="21"/>
-      <c r="BC120" s="22"/>
+      <c r="AE120" s="19"/>
+      <c r="AF120" s="19"/>
+      <c r="AG120" s="19"/>
+      <c r="AH120" s="19"/>
+      <c r="AI120" s="19"/>
+      <c r="AJ120" s="19"/>
+      <c r="AK120" s="19"/>
+      <c r="AL120" s="19"/>
+      <c r="AM120" s="19"/>
+      <c r="AN120" s="19"/>
+      <c r="AO120" s="19"/>
+      <c r="AP120" s="19"/>
+      <c r="AQ120" s="19"/>
+      <c r="AR120" s="19"/>
+      <c r="AS120" s="19"/>
+      <c r="AT120" s="19"/>
+      <c r="AU120" s="19"/>
+      <c r="AV120" s="19"/>
+      <c r="AW120" s="19"/>
+      <c r="AX120" s="19"/>
+      <c r="AY120" s="19"/>
+      <c r="AZ120" s="19"/>
+      <c r="BA120" s="19"/>
+      <c r="BB120" s="19"/>
+      <c r="BC120" s="20"/>
     </row>
     <row r="121" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="21"/>
-      <c r="M121" s="21"/>
-      <c r="N121" s="21"/>
-      <c r="O121" s="21"/>
-      <c r="P121" s="21"/>
-      <c r="Q121" s="21"/>
-      <c r="R121" s="21"/>
-      <c r="S121" s="21"/>
-      <c r="T121" s="21"/>
-      <c r="U121" s="21"/>
-      <c r="V121" s="21"/>
-      <c r="W121" s="21"/>
-      <c r="X121" s="21"/>
-      <c r="Y121" s="21"/>
-      <c r="Z121" s="21"/>
-      <c r="AA121" s="21"/>
-      <c r="AB121" s="22"/>
-      <c r="AD121" s="20" t="s">
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
+      <c r="S121" s="19"/>
+      <c r="T121" s="19"/>
+      <c r="U121" s="19"/>
+      <c r="V121" s="19"/>
+      <c r="W121" s="19"/>
+      <c r="X121" s="19"/>
+      <c r="Y121" s="19"/>
+      <c r="Z121" s="19"/>
+      <c r="AA121" s="19"/>
+      <c r="AB121" s="20"/>
+      <c r="AD121" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AE121" s="21"/>
-      <c r="AF121" s="21"/>
-      <c r="AG121" s="21"/>
-      <c r="AH121" s="21"/>
-      <c r="AI121" s="21"/>
-      <c r="AJ121" s="21"/>
-      <c r="AK121" s="21"/>
-      <c r="AL121" s="21"/>
-      <c r="AM121" s="21"/>
-      <c r="AN121" s="21"/>
-      <c r="AO121" s="21"/>
-      <c r="AP121" s="21"/>
-      <c r="AQ121" s="21"/>
-      <c r="AR121" s="21"/>
-      <c r="AS121" s="21"/>
-      <c r="AT121" s="21"/>
-      <c r="AU121" s="21"/>
-      <c r="AV121" s="21"/>
-      <c r="AW121" s="21"/>
-      <c r="AX121" s="21"/>
-      <c r="AY121" s="21"/>
-      <c r="AZ121" s="21"/>
-      <c r="BA121" s="21"/>
-      <c r="BB121" s="21"/>
-      <c r="BC121" s="22"/>
+      <c r="AE121" s="19"/>
+      <c r="AF121" s="19"/>
+      <c r="AG121" s="19"/>
+      <c r="AH121" s="19"/>
+      <c r="AI121" s="19"/>
+      <c r="AJ121" s="19"/>
+      <c r="AK121" s="19"/>
+      <c r="AL121" s="19"/>
+      <c r="AM121" s="19"/>
+      <c r="AN121" s="19"/>
+      <c r="AO121" s="19"/>
+      <c r="AP121" s="19"/>
+      <c r="AQ121" s="19"/>
+      <c r="AR121" s="19"/>
+      <c r="AS121" s="19"/>
+      <c r="AT121" s="19"/>
+      <c r="AU121" s="19"/>
+      <c r="AV121" s="19"/>
+      <c r="AW121" s="19"/>
+      <c r="AX121" s="19"/>
+      <c r="AY121" s="19"/>
+      <c r="AZ121" s="19"/>
+      <c r="BA121" s="19"/>
+      <c r="BB121" s="19"/>
+      <c r="BC121" s="20"/>
     </row>
     <row r="122" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D122" s="14"/>
@@ -5427,121 +5421,121 @@
       <c r="Z122" s="14"/>
       <c r="AA122" s="14"/>
       <c r="AB122" s="15"/>
-      <c r="AD122" s="20"/>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="21"/>
-      <c r="AI122" s="21"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="21"/>
-      <c r="AL122" s="21"/>
-      <c r="AM122" s="21"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="21"/>
-      <c r="AP122" s="21"/>
-      <c r="AQ122" s="21"/>
-      <c r="AR122" s="21"/>
-      <c r="AS122" s="21"/>
-      <c r="AT122" s="21"/>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="21"/>
-      <c r="AW122" s="21"/>
-      <c r="AX122" s="21"/>
-      <c r="AY122" s="21"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="21"/>
-      <c r="BB122" s="21"/>
-      <c r="BC122" s="22"/>
+      <c r="AD122" s="18"/>
+      <c r="AE122" s="19"/>
+      <c r="AF122" s="19"/>
+      <c r="AG122" s="19"/>
+      <c r="AH122" s="19"/>
+      <c r="AI122" s="19"/>
+      <c r="AJ122" s="19"/>
+      <c r="AK122" s="19"/>
+      <c r="AL122" s="19"/>
+      <c r="AM122" s="19"/>
+      <c r="AN122" s="19"/>
+      <c r="AO122" s="19"/>
+      <c r="AP122" s="19"/>
+      <c r="AQ122" s="19"/>
+      <c r="AR122" s="19"/>
+      <c r="AS122" s="19"/>
+      <c r="AT122" s="19"/>
+      <c r="AU122" s="19"/>
+      <c r="AV122" s="19"/>
+      <c r="AW122" s="19"/>
+      <c r="AX122" s="19"/>
+      <c r="AY122" s="19"/>
+      <c r="AZ122" s="19"/>
+      <c r="BA122" s="19"/>
+      <c r="BB122" s="19"/>
+      <c r="BC122" s="20"/>
     </row>
     <row r="123" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
-      <c r="O123" s="21"/>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="22"/>
-      <c r="AD123" s="20" t="s">
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19"/>
+      <c r="S123" s="19"/>
+      <c r="T123" s="19"/>
+      <c r="U123" s="19"/>
+      <c r="V123" s="19"/>
+      <c r="W123" s="19"/>
+      <c r="X123" s="19"/>
+      <c r="Y123" s="19"/>
+      <c r="Z123" s="19"/>
+      <c r="AA123" s="19"/>
+      <c r="AB123" s="20"/>
+      <c r="AD123" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AE123" s="21"/>
-      <c r="AF123" s="21"/>
-      <c r="AG123" s="21"/>
-      <c r="AH123" s="21"/>
-      <c r="AI123" s="21"/>
-      <c r="AJ123" s="21"/>
-      <c r="AK123" s="21"/>
-      <c r="AL123" s="21"/>
-      <c r="AM123" s="21"/>
-      <c r="AN123" s="21"/>
-      <c r="AO123" s="21"/>
-      <c r="AP123" s="21"/>
-      <c r="AQ123" s="21"/>
-      <c r="AR123" s="21"/>
-      <c r="AS123" s="21"/>
-      <c r="AT123" s="21"/>
-      <c r="AU123" s="21"/>
-      <c r="AV123" s="21"/>
-      <c r="AW123" s="21"/>
-      <c r="AX123" s="21"/>
-      <c r="AY123" s="21"/>
-      <c r="AZ123" s="21"/>
-      <c r="BA123" s="21"/>
-      <c r="BB123" s="21"/>
-      <c r="BC123" s="22"/>
+      <c r="AE123" s="19"/>
+      <c r="AF123" s="19"/>
+      <c r="AG123" s="19"/>
+      <c r="AH123" s="19"/>
+      <c r="AI123" s="19"/>
+      <c r="AJ123" s="19"/>
+      <c r="AK123" s="19"/>
+      <c r="AL123" s="19"/>
+      <c r="AM123" s="19"/>
+      <c r="AN123" s="19"/>
+      <c r="AO123" s="19"/>
+      <c r="AP123" s="19"/>
+      <c r="AQ123" s="19"/>
+      <c r="AR123" s="19"/>
+      <c r="AS123" s="19"/>
+      <c r="AT123" s="19"/>
+      <c r="AU123" s="19"/>
+      <c r="AV123" s="19"/>
+      <c r="AW123" s="19"/>
+      <c r="AX123" s="19"/>
+      <c r="AY123" s="19"/>
+      <c r="AZ123" s="19"/>
+      <c r="BA123" s="19"/>
+      <c r="BB123" s="19"/>
+      <c r="BC123" s="20"/>
     </row>
     <row r="124" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="21"/>
-      <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
-      <c r="S124" s="21"/>
-      <c r="T124" s="21"/>
-      <c r="U124" s="21"/>
-      <c r="V124" s="21"/>
-      <c r="W124" s="21"/>
-      <c r="X124" s="21"/>
-      <c r="Y124" s="21"/>
-      <c r="Z124" s="21"/>
-      <c r="AA124" s="21"/>
-      <c r="AB124" s="22"/>
-      <c r="AD124" s="20" t="s">
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
+      <c r="S124" s="19"/>
+      <c r="T124" s="19"/>
+      <c r="U124" s="19"/>
+      <c r="V124" s="19"/>
+      <c r="W124" s="19"/>
+      <c r="X124" s="19"/>
+      <c r="Y124" s="19"/>
+      <c r="Z124" s="19"/>
+      <c r="AA124" s="19"/>
+      <c r="AB124" s="20"/>
+      <c r="AD124" s="18" t="s">
         <v>33</v>
       </c>
       <c r="AE124" s="14"/>
@@ -5571,242 +5565,242 @@
       <c r="BC124" s="15"/>
     </row>
     <row r="125" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="21"/>
-      <c r="M125" s="21"/>
-      <c r="N125" s="21"/>
-      <c r="O125" s="21"/>
-      <c r="P125" s="21"/>
-      <c r="Q125" s="21"/>
-      <c r="R125" s="21"/>
-      <c r="S125" s="21"/>
-      <c r="T125" s="21"/>
-      <c r="U125" s="21"/>
-      <c r="V125" s="21"/>
-      <c r="W125" s="21"/>
-      <c r="X125" s="21"/>
-      <c r="Y125" s="21"/>
-      <c r="Z125" s="21"/>
-      <c r="AA125" s="21"/>
-      <c r="AB125" s="22"/>
-      <c r="AD125" s="20" t="s">
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
+      <c r="S125" s="19"/>
+      <c r="T125" s="19"/>
+      <c r="U125" s="19"/>
+      <c r="V125" s="19"/>
+      <c r="W125" s="19"/>
+      <c r="X125" s="19"/>
+      <c r="Y125" s="19"/>
+      <c r="Z125" s="19"/>
+      <c r="AA125" s="19"/>
+      <c r="AB125" s="20"/>
+      <c r="AD125" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AE125" s="21"/>
-      <c r="AF125" s="21"/>
-      <c r="AG125" s="21"/>
-      <c r="AH125" s="21"/>
-      <c r="AI125" s="21"/>
-      <c r="AJ125" s="21"/>
-      <c r="AK125" s="21"/>
-      <c r="AL125" s="21"/>
-      <c r="AM125" s="21"/>
-      <c r="AN125" s="21"/>
-      <c r="AO125" s="21"/>
-      <c r="AP125" s="21"/>
-      <c r="AQ125" s="21"/>
-      <c r="AR125" s="21"/>
-      <c r="AS125" s="21"/>
-      <c r="AT125" s="21"/>
-      <c r="AU125" s="21"/>
-      <c r="AV125" s="21"/>
-      <c r="AW125" s="21"/>
-      <c r="AX125" s="21"/>
-      <c r="AY125" s="21"/>
-      <c r="AZ125" s="21"/>
-      <c r="BA125" s="21"/>
-      <c r="BB125" s="21"/>
-      <c r="BC125" s="22"/>
+      <c r="AE125" s="19"/>
+      <c r="AF125" s="19"/>
+      <c r="AG125" s="19"/>
+      <c r="AH125" s="19"/>
+      <c r="AI125" s="19"/>
+      <c r="AJ125" s="19"/>
+      <c r="AK125" s="19"/>
+      <c r="AL125" s="19"/>
+      <c r="AM125" s="19"/>
+      <c r="AN125" s="19"/>
+      <c r="AO125" s="19"/>
+      <c r="AP125" s="19"/>
+      <c r="AQ125" s="19"/>
+      <c r="AR125" s="19"/>
+      <c r="AS125" s="19"/>
+      <c r="AT125" s="19"/>
+      <c r="AU125" s="19"/>
+      <c r="AV125" s="19"/>
+      <c r="AW125" s="19"/>
+      <c r="AX125" s="19"/>
+      <c r="AY125" s="19"/>
+      <c r="AZ125" s="19"/>
+      <c r="BA125" s="19"/>
+      <c r="BB125" s="19"/>
+      <c r="BC125" s="20"/>
     </row>
     <row r="126" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="21"/>
-      <c r="L126" s="21"/>
-      <c r="M126" s="21"/>
-      <c r="N126" s="21"/>
-      <c r="O126" s="21"/>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
-      <c r="R126" s="21"/>
-      <c r="S126" s="21"/>
-      <c r="T126" s="21"/>
-      <c r="U126" s="21"/>
-      <c r="V126" s="21"/>
-      <c r="W126" s="21"/>
-      <c r="X126" s="21"/>
-      <c r="Y126" s="21"/>
-      <c r="Z126" s="21"/>
-      <c r="AA126" s="21"/>
-      <c r="AB126" s="22"/>
-      <c r="AD126" s="20" t="s">
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19"/>
+      <c r="T126" s="19"/>
+      <c r="U126" s="19"/>
+      <c r="V126" s="19"/>
+      <c r="W126" s="19"/>
+      <c r="X126" s="19"/>
+      <c r="Y126" s="19"/>
+      <c r="Z126" s="19"/>
+      <c r="AA126" s="19"/>
+      <c r="AB126" s="20"/>
+      <c r="AD126" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AE126" s="21"/>
-      <c r="AF126" s="21"/>
-      <c r="AG126" s="21"/>
-      <c r="AH126" s="21"/>
-      <c r="AI126" s="21"/>
-      <c r="AJ126" s="21"/>
-      <c r="AK126" s="21"/>
-      <c r="AL126" s="21"/>
-      <c r="AM126" s="21"/>
-      <c r="AN126" s="21"/>
-      <c r="AO126" s="21"/>
-      <c r="AP126" s="21"/>
-      <c r="AQ126" s="21"/>
-      <c r="AR126" s="21"/>
-      <c r="AS126" s="21"/>
-      <c r="AT126" s="21"/>
-      <c r="AU126" s="21"/>
-      <c r="AV126" s="21"/>
-      <c r="AW126" s="21"/>
-      <c r="AX126" s="21"/>
-      <c r="AY126" s="21"/>
-      <c r="AZ126" s="21"/>
-      <c r="BA126" s="21"/>
-      <c r="BB126" s="21"/>
-      <c r="BC126" s="22"/>
+      <c r="AE126" s="19"/>
+      <c r="AF126" s="19"/>
+      <c r="AG126" s="19"/>
+      <c r="AH126" s="19"/>
+      <c r="AI126" s="19"/>
+      <c r="AJ126" s="19"/>
+      <c r="AK126" s="19"/>
+      <c r="AL126" s="19"/>
+      <c r="AM126" s="19"/>
+      <c r="AN126" s="19"/>
+      <c r="AO126" s="19"/>
+      <c r="AP126" s="19"/>
+      <c r="AQ126" s="19"/>
+      <c r="AR126" s="19"/>
+      <c r="AS126" s="19"/>
+      <c r="AT126" s="19"/>
+      <c r="AU126" s="19"/>
+      <c r="AV126" s="19"/>
+      <c r="AW126" s="19"/>
+      <c r="AX126" s="19"/>
+      <c r="AY126" s="19"/>
+      <c r="AZ126" s="19"/>
+      <c r="BA126" s="19"/>
+      <c r="BB126" s="19"/>
+      <c r="BC126" s="20"/>
     </row>
     <row r="127" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="21"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="21"/>
-      <c r="M127" s="21"/>
-      <c r="N127" s="21"/>
-      <c r="O127" s="21"/>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
-      <c r="R127" s="21"/>
-      <c r="S127" s="21"/>
-      <c r="T127" s="21"/>
-      <c r="U127" s="21"/>
-      <c r="V127" s="21"/>
-      <c r="W127" s="21"/>
-      <c r="X127" s="21"/>
-      <c r="Y127" s="21"/>
-      <c r="Z127" s="21"/>
-      <c r="AA127" s="21"/>
-      <c r="AB127" s="22"/>
-      <c r="AD127" s="20" t="s">
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
+      <c r="S127" s="19"/>
+      <c r="T127" s="19"/>
+      <c r="U127" s="19"/>
+      <c r="V127" s="19"/>
+      <c r="W127" s="19"/>
+      <c r="X127" s="19"/>
+      <c r="Y127" s="19"/>
+      <c r="Z127" s="19"/>
+      <c r="AA127" s="19"/>
+      <c r="AB127" s="20"/>
+      <c r="AD127" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AE127" s="21"/>
-      <c r="AF127" s="21"/>
-      <c r="AG127" s="21"/>
-      <c r="AH127" s="21"/>
-      <c r="AI127" s="21"/>
-      <c r="AJ127" s="21"/>
-      <c r="AK127" s="21"/>
-      <c r="AL127" s="21"/>
-      <c r="AM127" s="21"/>
-      <c r="AN127" s="21"/>
-      <c r="AO127" s="21"/>
-      <c r="AP127" s="21"/>
-      <c r="AQ127" s="21"/>
-      <c r="AR127" s="21"/>
-      <c r="AS127" s="21"/>
-      <c r="AT127" s="21"/>
-      <c r="AU127" s="21"/>
-      <c r="AV127" s="21"/>
-      <c r="AW127" s="21"/>
-      <c r="AX127" s="21"/>
-      <c r="AY127" s="21"/>
-      <c r="AZ127" s="21"/>
-      <c r="BA127" s="21"/>
-      <c r="BB127" s="21"/>
-      <c r="BC127" s="22"/>
+      <c r="AE127" s="19"/>
+      <c r="AF127" s="19"/>
+      <c r="AG127" s="19"/>
+      <c r="AH127" s="19"/>
+      <c r="AI127" s="19"/>
+      <c r="AJ127" s="19"/>
+      <c r="AK127" s="19"/>
+      <c r="AL127" s="19"/>
+      <c r="AM127" s="19"/>
+      <c r="AN127" s="19"/>
+      <c r="AO127" s="19"/>
+      <c r="AP127" s="19"/>
+      <c r="AQ127" s="19"/>
+      <c r="AR127" s="19"/>
+      <c r="AS127" s="19"/>
+      <c r="AT127" s="19"/>
+      <c r="AU127" s="19"/>
+      <c r="AV127" s="19"/>
+      <c r="AW127" s="19"/>
+      <c r="AX127" s="19"/>
+      <c r="AY127" s="19"/>
+      <c r="AZ127" s="19"/>
+      <c r="BA127" s="19"/>
+      <c r="BB127" s="19"/>
+      <c r="BC127" s="20"/>
     </row>
     <row r="128" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="21"/>
-      <c r="O128" s="21"/>
-      <c r="P128" s="21"/>
-      <c r="Q128" s="21"/>
-      <c r="R128" s="21"/>
-      <c r="S128" s="21"/>
-      <c r="T128" s="21"/>
-      <c r="U128" s="21"/>
-      <c r="V128" s="21"/>
-      <c r="W128" s="21"/>
-      <c r="X128" s="21"/>
-      <c r="Y128" s="21"/>
-      <c r="Z128" s="21"/>
-      <c r="AA128" s="21"/>
-      <c r="AB128" s="22"/>
-      <c r="AD128" s="20" t="s">
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="19"/>
+      <c r="S128" s="19"/>
+      <c r="T128" s="19"/>
+      <c r="U128" s="19"/>
+      <c r="V128" s="19"/>
+      <c r="W128" s="19"/>
+      <c r="X128" s="19"/>
+      <c r="Y128" s="19"/>
+      <c r="Z128" s="19"/>
+      <c r="AA128" s="19"/>
+      <c r="AB128" s="20"/>
+      <c r="AD128" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AE128" s="21"/>
-      <c r="AF128" s="21"/>
-      <c r="AG128" s="21"/>
-      <c r="AH128" s="21"/>
-      <c r="AI128" s="21"/>
-      <c r="AJ128" s="21"/>
-      <c r="AK128" s="21"/>
-      <c r="AL128" s="21"/>
-      <c r="AM128" s="21"/>
-      <c r="AN128" s="21"/>
-      <c r="AO128" s="21"/>
-      <c r="AP128" s="21"/>
-      <c r="AQ128" s="21"/>
-      <c r="AR128" s="21"/>
-      <c r="AS128" s="21"/>
-      <c r="AT128" s="21"/>
-      <c r="AU128" s="21"/>
-      <c r="AV128" s="21"/>
-      <c r="AW128" s="21"/>
-      <c r="AX128" s="21"/>
-      <c r="AY128" s="21"/>
-      <c r="AZ128" s="21"/>
-      <c r="BA128" s="21"/>
-      <c r="BB128" s="21"/>
-      <c r="BC128" s="22"/>
+      <c r="AE128" s="19"/>
+      <c r="AF128" s="19"/>
+      <c r="AG128" s="19"/>
+      <c r="AH128" s="19"/>
+      <c r="AI128" s="19"/>
+      <c r="AJ128" s="19"/>
+      <c r="AK128" s="19"/>
+      <c r="AL128" s="19"/>
+      <c r="AM128" s="19"/>
+      <c r="AN128" s="19"/>
+      <c r="AO128" s="19"/>
+      <c r="AP128" s="19"/>
+      <c r="AQ128" s="19"/>
+      <c r="AR128" s="19"/>
+      <c r="AS128" s="19"/>
+      <c r="AT128" s="19"/>
+      <c r="AU128" s="19"/>
+      <c r="AV128" s="19"/>
+      <c r="AW128" s="19"/>
+      <c r="AX128" s="19"/>
+      <c r="AY128" s="19"/>
+      <c r="AZ128" s="19"/>
+      <c r="BA128" s="19"/>
+      <c r="BB128" s="19"/>
+      <c r="BC128" s="20"/>
     </row>
     <row r="129" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D129" s="21"/>
+      <c r="D129" s="19"/>
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
       <c r="G129" s="16"/>
@@ -5831,124 +5825,124 @@
       <c r="Z129" s="16"/>
       <c r="AA129" s="16"/>
       <c r="AB129" s="17"/>
-      <c r="AD129" s="20" t="s">
+      <c r="AD129" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AE129" s="21"/>
-      <c r="AF129" s="21"/>
-      <c r="AG129" s="21"/>
-      <c r="AH129" s="21"/>
-      <c r="AI129" s="21"/>
-      <c r="AJ129" s="21"/>
-      <c r="AK129" s="21"/>
-      <c r="AL129" s="21"/>
-      <c r="AM129" s="21"/>
-      <c r="AN129" s="21"/>
-      <c r="AO129" s="21"/>
-      <c r="AP129" s="21"/>
-      <c r="AQ129" s="21"/>
-      <c r="AR129" s="21"/>
-      <c r="AS129" s="21"/>
-      <c r="AT129" s="21"/>
-      <c r="AU129" s="21"/>
-      <c r="AV129" s="21"/>
-      <c r="AW129" s="21"/>
-      <c r="AX129" s="21"/>
-      <c r="AY129" s="21"/>
-      <c r="AZ129" s="21"/>
-      <c r="BA129" s="21"/>
-      <c r="BB129" s="21"/>
-      <c r="BC129" s="22"/>
+      <c r="AE129" s="19"/>
+      <c r="AF129" s="19"/>
+      <c r="AG129" s="19"/>
+      <c r="AH129" s="19"/>
+      <c r="AI129" s="19"/>
+      <c r="AJ129" s="19"/>
+      <c r="AK129" s="19"/>
+      <c r="AL129" s="19"/>
+      <c r="AM129" s="19"/>
+      <c r="AN129" s="19"/>
+      <c r="AO129" s="19"/>
+      <c r="AP129" s="19"/>
+      <c r="AQ129" s="19"/>
+      <c r="AR129" s="19"/>
+      <c r="AS129" s="19"/>
+      <c r="AT129" s="19"/>
+      <c r="AU129" s="19"/>
+      <c r="AV129" s="19"/>
+      <c r="AW129" s="19"/>
+      <c r="AX129" s="19"/>
+      <c r="AY129" s="19"/>
+      <c r="AZ129" s="19"/>
+      <c r="BA129" s="19"/>
+      <c r="BB129" s="19"/>
+      <c r="BC129" s="20"/>
     </row>
     <row r="130" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C130" s="20"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="21"/>
-      <c r="L130" s="21"/>
-      <c r="M130" s="21"/>
-      <c r="N130" s="21"/>
-      <c r="O130" s="21"/>
-      <c r="P130" s="21"/>
-      <c r="Q130" s="21"/>
-      <c r="R130" s="21"/>
-      <c r="S130" s="21"/>
-      <c r="T130" s="21"/>
-      <c r="U130" s="21"/>
-      <c r="V130" s="21"/>
-      <c r="W130" s="21"/>
-      <c r="X130" s="21"/>
-      <c r="Y130" s="21"/>
-      <c r="Z130" s="21"/>
-      <c r="AA130" s="21"/>
-      <c r="AB130" s="22"/>
-      <c r="AD130" s="20" t="s">
+      <c r="C130" s="18"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
+      <c r="V130" s="19"/>
+      <c r="W130" s="19"/>
+      <c r="X130" s="19"/>
+      <c r="Y130" s="19"/>
+      <c r="Z130" s="19"/>
+      <c r="AA130" s="19"/>
+      <c r="AB130" s="20"/>
+      <c r="AD130" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AE130" s="21"/>
-      <c r="AF130" s="21"/>
-      <c r="AG130" s="21"/>
-      <c r="AH130" s="21"/>
-      <c r="AI130" s="21"/>
-      <c r="AJ130" s="21"/>
-      <c r="AK130" s="21"/>
-      <c r="AL130" s="21"/>
-      <c r="AM130" s="21"/>
-      <c r="AN130" s="21"/>
-      <c r="AO130" s="21"/>
-      <c r="AP130" s="21"/>
-      <c r="AQ130" s="21"/>
-      <c r="AR130" s="21"/>
-      <c r="AS130" s="21"/>
-      <c r="AT130" s="21"/>
-      <c r="AU130" s="21"/>
-      <c r="AV130" s="21"/>
-      <c r="AW130" s="21"/>
-      <c r="AX130" s="21"/>
-      <c r="AY130" s="21"/>
-      <c r="AZ130" s="21"/>
-      <c r="BA130" s="21"/>
-      <c r="BB130" s="21"/>
-      <c r="BC130" s="22"/>
+      <c r="AE130" s="19"/>
+      <c r="AF130" s="19"/>
+      <c r="AG130" s="19"/>
+      <c r="AH130" s="19"/>
+      <c r="AI130" s="19"/>
+      <c r="AJ130" s="19"/>
+      <c r="AK130" s="19"/>
+      <c r="AL130" s="19"/>
+      <c r="AM130" s="19"/>
+      <c r="AN130" s="19"/>
+      <c r="AO130" s="19"/>
+      <c r="AP130" s="19"/>
+      <c r="AQ130" s="19"/>
+      <c r="AR130" s="19"/>
+      <c r="AS130" s="19"/>
+      <c r="AT130" s="19"/>
+      <c r="AU130" s="19"/>
+      <c r="AV130" s="19"/>
+      <c r="AW130" s="19"/>
+      <c r="AX130" s="19"/>
+      <c r="AY130" s="19"/>
+      <c r="AZ130" s="19"/>
+      <c r="BA130" s="19"/>
+      <c r="BB130" s="19"/>
+      <c r="BC130" s="20"/>
     </row>
     <row r="131" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
-      <c r="M131" s="26"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="26"/>
-      <c r="P131" s="26"/>
-      <c r="Q131" s="26"/>
-      <c r="R131" s="26"/>
-      <c r="S131" s="26"/>
-      <c r="T131" s="26"/>
-      <c r="U131" s="26"/>
-      <c r="V131" s="26"/>
-      <c r="W131" s="26"/>
-      <c r="X131" s="26"/>
-      <c r="Y131" s="26"/>
-      <c r="Z131" s="26"/>
-      <c r="AA131" s="26"/>
-      <c r="AB131" s="27"/>
-      <c r="AD131" s="20" t="s">
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="24"/>
+      <c r="O131" s="24"/>
+      <c r="P131" s="24"/>
+      <c r="Q131" s="24"/>
+      <c r="R131" s="24"/>
+      <c r="S131" s="24"/>
+      <c r="T131" s="24"/>
+      <c r="U131" s="24"/>
+      <c r="V131" s="24"/>
+      <c r="W131" s="24"/>
+      <c r="X131" s="24"/>
+      <c r="Y131" s="24"/>
+      <c r="Z131" s="24"/>
+      <c r="AA131" s="24"/>
+      <c r="AB131" s="25"/>
+      <c r="AD131" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AE131" s="21"/>
+      <c r="AE131" s="19"/>
       <c r="AF131" s="16"/>
       <c r="AG131" s="16"/>
       <c r="AH131" s="16"/>
@@ -5975,7 +5969,7 @@
       <c r="BC131" s="17"/>
     </row>
     <row r="132" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D132" s="16"/>
@@ -6003,148 +5997,148 @@
       <c r="Z132" s="16"/>
       <c r="AA132" s="16"/>
       <c r="AB132" s="17"/>
-      <c r="AD132" s="20" t="s">
+      <c r="AD132" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AE132" s="21"/>
-      <c r="AF132" s="21"/>
-      <c r="AG132" s="21"/>
-      <c r="AH132" s="21"/>
-      <c r="AI132" s="21"/>
-      <c r="AJ132" s="21"/>
-      <c r="AK132" s="21"/>
-      <c r="AL132" s="21"/>
-      <c r="AM132" s="21"/>
-      <c r="AN132" s="21"/>
-      <c r="AO132" s="21"/>
-      <c r="AP132" s="21"/>
-      <c r="AQ132" s="21"/>
-      <c r="AR132" s="21"/>
-      <c r="AS132" s="21"/>
-      <c r="AT132" s="21"/>
-      <c r="AU132" s="21"/>
-      <c r="AV132" s="21"/>
-      <c r="AW132" s="21"/>
-      <c r="AX132" s="21"/>
-      <c r="AY132" s="21"/>
-      <c r="AZ132" s="21"/>
-      <c r="BA132" s="21"/>
-      <c r="BB132" s="21"/>
-      <c r="BC132" s="22"/>
+      <c r="AE132" s="19"/>
+      <c r="AF132" s="19"/>
+      <c r="AG132" s="19"/>
+      <c r="AH132" s="19"/>
+      <c r="AI132" s="19"/>
+      <c r="AJ132" s="19"/>
+      <c r="AK132" s="19"/>
+      <c r="AL132" s="19"/>
+      <c r="AM132" s="19"/>
+      <c r="AN132" s="19"/>
+      <c r="AO132" s="19"/>
+      <c r="AP132" s="19"/>
+      <c r="AQ132" s="19"/>
+      <c r="AR132" s="19"/>
+      <c r="AS132" s="19"/>
+      <c r="AT132" s="19"/>
+      <c r="AU132" s="19"/>
+      <c r="AV132" s="19"/>
+      <c r="AW132" s="19"/>
+      <c r="AX132" s="19"/>
+      <c r="AY132" s="19"/>
+      <c r="AZ132" s="19"/>
+      <c r="BA132" s="19"/>
+      <c r="BB132" s="19"/>
+      <c r="BC132" s="20"/>
     </row>
     <row r="133" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
-      <c r="O133" s="21"/>
-      <c r="P133" s="21"/>
-      <c r="Q133" s="21"/>
-      <c r="R133" s="21"/>
-      <c r="S133" s="21"/>
-      <c r="T133" s="21"/>
-      <c r="U133" s="21"/>
-      <c r="V133" s="21"/>
-      <c r="W133" s="21"/>
-      <c r="X133" s="21"/>
-      <c r="Y133" s="21"/>
-      <c r="Z133" s="21"/>
-      <c r="AA133" s="21"/>
-      <c r="AB133" s="22"/>
-      <c r="AD133" s="20"/>
-      <c r="AE133" s="21"/>
-      <c r="AF133" s="21"/>
-      <c r="AG133" s="21"/>
-      <c r="AH133" s="21"/>
-      <c r="AI133" s="21"/>
-      <c r="AJ133" s="21"/>
-      <c r="AK133" s="21"/>
-      <c r="AL133" s="21"/>
-      <c r="AM133" s="21"/>
-      <c r="AN133" s="21"/>
-      <c r="AO133" s="21"/>
-      <c r="AP133" s="21"/>
-      <c r="AQ133" s="21"/>
-      <c r="AR133" s="21"/>
-      <c r="AS133" s="21"/>
-      <c r="AT133" s="21"/>
-      <c r="AU133" s="21"/>
-      <c r="AV133" s="21"/>
-      <c r="AW133" s="21"/>
-      <c r="AX133" s="21"/>
-      <c r="AY133" s="21"/>
-      <c r="AZ133" s="21"/>
-      <c r="BA133" s="21"/>
-      <c r="BB133" s="21"/>
-      <c r="BC133" s="22"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="19"/>
+      <c r="U133" s="19"/>
+      <c r="V133" s="19"/>
+      <c r="W133" s="19"/>
+      <c r="X133" s="19"/>
+      <c r="Y133" s="19"/>
+      <c r="Z133" s="19"/>
+      <c r="AA133" s="19"/>
+      <c r="AB133" s="20"/>
+      <c r="AD133" s="18"/>
+      <c r="AE133" s="19"/>
+      <c r="AF133" s="19"/>
+      <c r="AG133" s="19"/>
+      <c r="AH133" s="19"/>
+      <c r="AI133" s="19"/>
+      <c r="AJ133" s="19"/>
+      <c r="AK133" s="19"/>
+      <c r="AL133" s="19"/>
+      <c r="AM133" s="19"/>
+      <c r="AN133" s="19"/>
+      <c r="AO133" s="19"/>
+      <c r="AP133" s="19"/>
+      <c r="AQ133" s="19"/>
+      <c r="AR133" s="19"/>
+      <c r="AS133" s="19"/>
+      <c r="AT133" s="19"/>
+      <c r="AU133" s="19"/>
+      <c r="AV133" s="19"/>
+      <c r="AW133" s="19"/>
+      <c r="AX133" s="19"/>
+      <c r="AY133" s="19"/>
+      <c r="AZ133" s="19"/>
+      <c r="BA133" s="19"/>
+      <c r="BB133" s="19"/>
+      <c r="BC133" s="20"/>
     </row>
     <row r="134" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="21"/>
-      <c r="N134" s="21"/>
-      <c r="O134" s="21"/>
-      <c r="P134" s="21"/>
-      <c r="Q134" s="21"/>
-      <c r="R134" s="21"/>
-      <c r="S134" s="21"/>
-      <c r="T134" s="21"/>
-      <c r="U134" s="21"/>
-      <c r="V134" s="21"/>
-      <c r="W134" s="21"/>
-      <c r="X134" s="21"/>
-      <c r="Y134" s="21"/>
-      <c r="Z134" s="21"/>
-      <c r="AA134" s="21"/>
-      <c r="AB134" s="22"/>
-      <c r="AD134" s="20" t="s">
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
+      <c r="V134" s="19"/>
+      <c r="W134" s="19"/>
+      <c r="X134" s="19"/>
+      <c r="Y134" s="19"/>
+      <c r="Z134" s="19"/>
+      <c r="AA134" s="19"/>
+      <c r="AB134" s="20"/>
+      <c r="AD134" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AE134" s="21"/>
-      <c r="AF134" s="21"/>
-      <c r="AG134" s="21"/>
-      <c r="AH134" s="21"/>
-      <c r="AI134" s="21"/>
-      <c r="AJ134" s="21"/>
-      <c r="AK134" s="21"/>
-      <c r="AL134" s="21"/>
-      <c r="AM134" s="21"/>
-      <c r="AN134" s="21"/>
-      <c r="AO134" s="21"/>
-      <c r="AP134" s="21"/>
-      <c r="AQ134" s="21"/>
-      <c r="AR134" s="21"/>
-      <c r="AS134" s="21"/>
-      <c r="AT134" s="21"/>
-      <c r="AU134" s="21"/>
-      <c r="AV134" s="21"/>
-      <c r="AW134" s="21"/>
-      <c r="AX134" s="21"/>
-      <c r="AY134" s="21"/>
-      <c r="AZ134" s="21"/>
-      <c r="BA134" s="21"/>
-      <c r="BB134" s="21"/>
-      <c r="BC134" s="22"/>
+      <c r="AE134" s="19"/>
+      <c r="AF134" s="19"/>
+      <c r="AG134" s="19"/>
+      <c r="AH134" s="19"/>
+      <c r="AI134" s="19"/>
+      <c r="AJ134" s="19"/>
+      <c r="AK134" s="19"/>
+      <c r="AL134" s="19"/>
+      <c r="AM134" s="19"/>
+      <c r="AN134" s="19"/>
+      <c r="AO134" s="19"/>
+      <c r="AP134" s="19"/>
+      <c r="AQ134" s="19"/>
+      <c r="AR134" s="19"/>
+      <c r="AS134" s="19"/>
+      <c r="AT134" s="19"/>
+      <c r="AU134" s="19"/>
+      <c r="AV134" s="19"/>
+      <c r="AW134" s="19"/>
+      <c r="AX134" s="19"/>
+      <c r="AY134" s="19"/>
+      <c r="AZ134" s="19"/>
+      <c r="BA134" s="19"/>
+      <c r="BB134" s="19"/>
+      <c r="BC134" s="20"/>
     </row>
     <row r="135" spans="3:55" x14ac:dyDescent="0.15">
       <c r="C135" s="7"/>
@@ -6173,34 +6167,34 @@
       <c r="Z135" s="8"/>
       <c r="AA135" s="8"/>
       <c r="AB135" s="9"/>
-      <c r="AD135" s="20" t="s">
+      <c r="AD135" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AE135" s="21"/>
-      <c r="AF135" s="21"/>
-      <c r="AG135" s="21"/>
-      <c r="AH135" s="21"/>
-      <c r="AI135" s="21"/>
-      <c r="AJ135" s="21"/>
-      <c r="AK135" s="21"/>
-      <c r="AL135" s="21"/>
-      <c r="AM135" s="21"/>
-      <c r="AN135" s="21"/>
-      <c r="AO135" s="21"/>
-      <c r="AP135" s="21"/>
-      <c r="AQ135" s="21"/>
-      <c r="AR135" s="21"/>
-      <c r="AS135" s="21"/>
-      <c r="AT135" s="21"/>
-      <c r="AU135" s="21"/>
-      <c r="AV135" s="21"/>
-      <c r="AW135" s="21"/>
-      <c r="AX135" s="21"/>
-      <c r="AY135" s="21"/>
-      <c r="AZ135" s="21"/>
-      <c r="BA135" s="21"/>
-      <c r="BB135" s="21"/>
-      <c r="BC135" s="22"/>
+      <c r="AE135" s="19"/>
+      <c r="AF135" s="19"/>
+      <c r="AG135" s="19"/>
+      <c r="AH135" s="19"/>
+      <c r="AI135" s="19"/>
+      <c r="AJ135" s="19"/>
+      <c r="AK135" s="19"/>
+      <c r="AL135" s="19"/>
+      <c r="AM135" s="19"/>
+      <c r="AN135" s="19"/>
+      <c r="AO135" s="19"/>
+      <c r="AP135" s="19"/>
+      <c r="AQ135" s="19"/>
+      <c r="AR135" s="19"/>
+      <c r="AS135" s="19"/>
+      <c r="AT135" s="19"/>
+      <c r="AU135" s="19"/>
+      <c r="AV135" s="19"/>
+      <c r="AW135" s="19"/>
+      <c r="AX135" s="19"/>
+      <c r="AY135" s="19"/>
+      <c r="AZ135" s="19"/>
+      <c r="BA135" s="19"/>
+      <c r="BB135" s="19"/>
+      <c r="BC135" s="20"/>
     </row>
     <row r="136" spans="3:55" x14ac:dyDescent="0.15">
       <c r="C136" s="7" t="s">
@@ -6231,32 +6225,32 @@
       <c r="Z136" s="8"/>
       <c r="AA136" s="8"/>
       <c r="AB136" s="9"/>
-      <c r="AD136" s="20"/>
-      <c r="AE136" s="21"/>
-      <c r="AF136" s="21"/>
-      <c r="AG136" s="21"/>
-      <c r="AH136" s="21"/>
-      <c r="AI136" s="21"/>
-      <c r="AJ136" s="21"/>
-      <c r="AK136" s="21"/>
-      <c r="AL136" s="21"/>
-      <c r="AM136" s="21"/>
-      <c r="AN136" s="21"/>
-      <c r="AO136" s="21"/>
-      <c r="AP136" s="21"/>
-      <c r="AQ136" s="21"/>
-      <c r="AR136" s="21"/>
-      <c r="AS136" s="21"/>
-      <c r="AT136" s="21"/>
-      <c r="AU136" s="21"/>
-      <c r="AV136" s="21"/>
-      <c r="AW136" s="21"/>
-      <c r="AX136" s="21"/>
-      <c r="AY136" s="21"/>
-      <c r="AZ136" s="21"/>
-      <c r="BA136" s="21"/>
-      <c r="BB136" s="21"/>
-      <c r="BC136" s="22"/>
+      <c r="AD136" s="18"/>
+      <c r="AE136" s="19"/>
+      <c r="AF136" s="19"/>
+      <c r="AG136" s="19"/>
+      <c r="AH136" s="19"/>
+      <c r="AI136" s="19"/>
+      <c r="AJ136" s="19"/>
+      <c r="AK136" s="19"/>
+      <c r="AL136" s="19"/>
+      <c r="AM136" s="19"/>
+      <c r="AN136" s="19"/>
+      <c r="AO136" s="19"/>
+      <c r="AP136" s="19"/>
+      <c r="AQ136" s="19"/>
+      <c r="AR136" s="19"/>
+      <c r="AS136" s="19"/>
+      <c r="AT136" s="19"/>
+      <c r="AU136" s="19"/>
+      <c r="AV136" s="19"/>
+      <c r="AW136" s="19"/>
+      <c r="AX136" s="19"/>
+      <c r="AY136" s="19"/>
+      <c r="AZ136" s="19"/>
+      <c r="BA136" s="19"/>
+      <c r="BB136" s="19"/>
+      <c r="BC136" s="20"/>
     </row>
     <row r="137" spans="3:55" x14ac:dyDescent="0.15">
       <c r="C137" s="7" t="s">
@@ -6287,32 +6281,32 @@
       <c r="Z137" s="8"/>
       <c r="AA137" s="8"/>
       <c r="AB137" s="9"/>
-      <c r="AD137" s="20"/>
-      <c r="AE137" s="21"/>
-      <c r="AF137" s="21"/>
-      <c r="AG137" s="21"/>
-      <c r="AH137" s="21"/>
-      <c r="AI137" s="21"/>
-      <c r="AJ137" s="21"/>
-      <c r="AK137" s="21"/>
-      <c r="AL137" s="21"/>
-      <c r="AM137" s="21"/>
-      <c r="AN137" s="21"/>
-      <c r="AO137" s="21"/>
-      <c r="AP137" s="21"/>
-      <c r="AQ137" s="21"/>
-      <c r="AR137" s="21"/>
-      <c r="AS137" s="21"/>
-      <c r="AT137" s="21"/>
-      <c r="AU137" s="21"/>
-      <c r="AV137" s="21"/>
-      <c r="AW137" s="21"/>
-      <c r="AX137" s="21"/>
-      <c r="AY137" s="21"/>
-      <c r="AZ137" s="21"/>
-      <c r="BA137" s="21"/>
-      <c r="BB137" s="21"/>
-      <c r="BC137" s="22"/>
+      <c r="AD137" s="18"/>
+      <c r="AE137" s="19"/>
+      <c r="AF137" s="19"/>
+      <c r="AG137" s="19"/>
+      <c r="AH137" s="19"/>
+      <c r="AI137" s="19"/>
+      <c r="AJ137" s="19"/>
+      <c r="AK137" s="19"/>
+      <c r="AL137" s="19"/>
+      <c r="AM137" s="19"/>
+      <c r="AN137" s="19"/>
+      <c r="AO137" s="19"/>
+      <c r="AP137" s="19"/>
+      <c r="AQ137" s="19"/>
+      <c r="AR137" s="19"/>
+      <c r="AS137" s="19"/>
+      <c r="AT137" s="19"/>
+      <c r="AU137" s="19"/>
+      <c r="AV137" s="19"/>
+      <c r="AW137" s="19"/>
+      <c r="AX137" s="19"/>
+      <c r="AY137" s="19"/>
+      <c r="AZ137" s="19"/>
+      <c r="BA137" s="19"/>
+      <c r="BB137" s="19"/>
+      <c r="BC137" s="20"/>
     </row>
     <row r="138" spans="3:55" x14ac:dyDescent="0.15">
       <c r="C138" s="10"/>
@@ -6341,32 +6335,32 @@
       <c r="Z138" s="11"/>
       <c r="AA138" s="11"/>
       <c r="AB138" s="12"/>
-      <c r="AD138" s="23"/>
-      <c r="AE138" s="24"/>
-      <c r="AF138" s="24"/>
-      <c r="AG138" s="24"/>
-      <c r="AH138" s="24"/>
-      <c r="AI138" s="24"/>
-      <c r="AJ138" s="24"/>
-      <c r="AK138" s="24"/>
-      <c r="AL138" s="24"/>
-      <c r="AM138" s="24"/>
-      <c r="AN138" s="24"/>
-      <c r="AO138" s="24"/>
-      <c r="AP138" s="24"/>
-      <c r="AQ138" s="24"/>
-      <c r="AR138" s="24"/>
-      <c r="AS138" s="24"/>
-      <c r="AT138" s="24"/>
-      <c r="AU138" s="24"/>
-      <c r="AV138" s="24"/>
-      <c r="AW138" s="24"/>
-      <c r="AX138" s="24"/>
-      <c r="AY138" s="24"/>
-      <c r="AZ138" s="24"/>
-      <c r="BA138" s="24"/>
-      <c r="BB138" s="24"/>
-      <c r="BC138" s="25"/>
+      <c r="AD138" s="21"/>
+      <c r="AE138" s="22"/>
+      <c r="AF138" s="22"/>
+      <c r="AG138" s="22"/>
+      <c r="AH138" s="22"/>
+      <c r="AI138" s="22"/>
+      <c r="AJ138" s="22"/>
+      <c r="AK138" s="22"/>
+      <c r="AL138" s="22"/>
+      <c r="AM138" s="22"/>
+      <c r="AN138" s="22"/>
+      <c r="AO138" s="22"/>
+      <c r="AP138" s="22"/>
+      <c r="AQ138" s="22"/>
+      <c r="AR138" s="22"/>
+      <c r="AS138" s="22"/>
+      <c r="AT138" s="22"/>
+      <c r="AU138" s="22"/>
+      <c r="AV138" s="22"/>
+      <c r="AW138" s="22"/>
+      <c r="AX138" s="22"/>
+      <c r="AY138" s="22"/>
+      <c r="AZ138" s="22"/>
+      <c r="BA138" s="22"/>
+      <c r="BB138" s="22"/>
+      <c r="BC138" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/◆At_Coder_メモ帳◆.xlsx
+++ b/◆At_Coder_メモ帳◆.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>初期化</t>
     <rPh sb="0" eb="3">
@@ -79,25 +79,10 @@
     <t xml:space="preserve">  {</t>
   </si>
   <si>
-    <t xml:space="preserve">    int nPos;</t>
-  </si>
-  <si>
     <t xml:space="preserve">    char cColor = sColor[nBgn];</t>
   </si>
   <si>
     <t xml:space="preserve">    nColorCnt++;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    for (nPos = nBgn + 1; nPos &lt; sColor.size(); nPos++)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      if (cColor != sColor[nPos]) break;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    if (nPos == sColor.size()) break;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    nBgn = nPos;</t>
   </si>
   <si>
     <t xml:space="preserve">  }</t>
@@ -120,18 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">  while (nBgn &lt; sColor.size())</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int nPos = nBgn + 1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    while (nPos &lt; sColor.size() &amp;&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           cColor == sColor[nPos] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      nPos++;</t>
   </si>
   <si>
     <t>ABC114_C_755.cpp</t>
@@ -755,6 +728,266 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④をwhile 条件にすると、</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④の while 条件判定後、次の命令は⑤であるため、⑤を行うため、③と併せる</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次に①,②の命令を行う</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④の break 条件を while 条件に変更する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    int nFoward;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int nFoward = nBgn + 1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for (nFoward = nBgn + 1; nFoward &lt; sColor.size(); nFoward++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    while (nFoward &lt; sColor.size() &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (cColor != sColor[nFoward]) break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           cColor == sColor[nFoward] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      nFoward++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (nFoward == sColor.size()) break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nBgn = nFoward;</t>
+  </si>
+  <si>
+    <t>⑤をwhile 条件にすると、</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤の break 条件を while 条件に変更する。このとき未だ nFoward 未使用のため、nBgn を使用する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤の while 条件判定後、次の命令は⑥であるが、判定を nBgn に変更したため、⑥の位置は変えなくてよい</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①,②の命令を行う</t>
+    <rPh sb="4" eb="6">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(④のネスト中の if文の break 条件を while 条件に変更する)</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④をwhile ループにし、③をそれに併せて変更する</t>
+    <rPh sb="19" eb="20">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④の return 条件を while 条件に変更する</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④の while 条件判定後、次の命令は⑤であるため、⑤を行う</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次に①,②,③の命令を行う</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1324,9 +1557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE138"/>
+  <dimension ref="A1:BE155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1421,7 +1656,7 @@
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.15">
@@ -1462,7 +1697,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="6"/>
       <c r="AD8" s="26" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE8" s="27"/>
       <c r="AF8" s="27"/>
@@ -1546,7 +1781,7 @@
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C10" s="18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -1574,7 +1809,7 @@
       <c r="AA10" s="19"/>
       <c r="AB10" s="20"/>
       <c r="AD10" s="18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
@@ -1662,7 +1897,7 @@
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.15">
       <c r="C12" s="18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -1690,7 +1925,7 @@
       <c r="AA12" s="19"/>
       <c r="AB12" s="20"/>
       <c r="AD12" s="18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
@@ -1748,7 +1983,7 @@
       <c r="AA13" s="19"/>
       <c r="AB13" s="20"/>
       <c r="AD13" s="18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
@@ -1862,7 +2097,7 @@
       <c r="AA15" s="19"/>
       <c r="AB15" s="20"/>
       <c r="AD15" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
@@ -1891,8 +2126,11 @@
       <c r="BC15" s="15"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
       <c r="C16" s="18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -1948,9 +2186,12 @@
       <c r="BB16" s="19"/>
       <c r="BC16" s="20"/>
     </row>
-    <row r="17" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
       <c r="C17" s="18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -1978,7 +2219,7 @@
       <c r="AA17" s="19"/>
       <c r="AB17" s="20"/>
       <c r="AD17" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
@@ -2006,7 +2247,7 @@
       <c r="BB17" s="19"/>
       <c r="BC17" s="20"/>
     </row>
-    <row r="18" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C18" s="18" t="s">
         <v>9</v>
       </c>
@@ -2036,7 +2277,7 @@
       <c r="AA18" s="19"/>
       <c r="AB18" s="20"/>
       <c r="AD18" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
@@ -2064,9 +2305,12 @@
       <c r="BB18" s="19"/>
       <c r="BC18" s="20"/>
     </row>
-    <row r="19" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -2094,7 +2338,7 @@
       <c r="AA19" s="14"/>
       <c r="AB19" s="15"/>
       <c r="AD19" s="18" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
@@ -2122,9 +2366,9 @@
       <c r="BB19" s="19"/>
       <c r="BC19" s="20"/>
     </row>
-    <row r="20" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C20" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -2178,9 +2422,9 @@
       <c r="BB20" s="19"/>
       <c r="BC20" s="20"/>
     </row>
-    <row r="21" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C21" s="18" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2208,7 +2452,7 @@
       <c r="AA21" s="19"/>
       <c r="AB21" s="20"/>
       <c r="AD21" s="18" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
@@ -2236,9 +2480,9 @@
       <c r="BB21" s="14"/>
       <c r="BC21" s="15"/>
     </row>
-    <row r="22" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C22" s="18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -2266,7 +2510,7 @@
       <c r="AA22" s="19"/>
       <c r="AB22" s="20"/>
       <c r="AD22" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
@@ -2294,9 +2538,9 @@
       <c r="BB22" s="19"/>
       <c r="BC22" s="20"/>
     </row>
-    <row r="23" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C23" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="16"/>
@@ -2324,7 +2568,7 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="17"/>
       <c r="AD23" s="18" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
@@ -2352,9 +2596,9 @@
       <c r="BB23" s="19"/>
       <c r="BC23" s="20"/>
     </row>
-    <row r="24" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C24" s="18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -2382,7 +2626,7 @@
       <c r="AA24" s="19"/>
       <c r="AB24" s="20"/>
       <c r="AD24" s="18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
@@ -2410,9 +2654,9 @@
       <c r="BB24" s="19"/>
       <c r="BC24" s="20"/>
     </row>
-    <row r="25" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C25" s="18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -2440,7 +2684,7 @@
       <c r="AA25" s="19"/>
       <c r="AB25" s="20"/>
       <c r="AD25" s="18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AE25" s="19"/>
       <c r="AF25" s="16"/>
@@ -2468,9 +2712,12 @@
       <c r="BB25" s="16"/>
       <c r="BC25" s="17"/>
     </row>
-    <row r="26" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
       <c r="C26" s="18" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -2498,7 +2745,7 @@
       <c r="AA26" s="16"/>
       <c r="AB26" s="17"/>
       <c r="AD26" s="18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
@@ -2526,9 +2773,12 @@
       <c r="BB26" s="19"/>
       <c r="BC26" s="20"/>
     </row>
-    <row r="27" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
       <c r="C27" s="18" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -2556,7 +2806,7 @@
       <c r="AA27" s="19"/>
       <c r="AB27" s="20"/>
       <c r="AD27" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
@@ -2584,9 +2834,9 @@
       <c r="BB27" s="19"/>
       <c r="BC27" s="20"/>
     </row>
-    <row r="28" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C28" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -2614,7 +2864,7 @@
       <c r="AA28" s="19"/>
       <c r="AB28" s="20"/>
       <c r="AD28" s="18" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
@@ -2642,9 +2892,9 @@
       <c r="BB28" s="19"/>
       <c r="BC28" s="20"/>
     </row>
-    <row r="29" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C29" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -2672,7 +2922,7 @@
       <c r="AA29" s="19"/>
       <c r="AB29" s="20"/>
       <c r="AD29" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
@@ -2700,7 +2950,7 @@
       <c r="BB29" s="19"/>
       <c r="BC29" s="20"/>
     </row>
-    <row r="30" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2754,88 +3004,30 @@
       <c r="BB30" s="11"/>
       <c r="BC30" s="12"/>
     </row>
-    <row r="33" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+    <row r="32" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="38" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2850,12 +3042,8 @@
     </row>
     <row r="39" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2868,8 +3056,12 @@
     </row>
     <row r="40" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2883,9 +3075,7 @@
     <row r="41" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2895,18 +3085,14 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="AC41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD41" s="3" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="42" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C42" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2921,9 +3107,7 @@
     <row r="43" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2936,8 +3120,12 @@
     </row>
     <row r="44" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2951,9 +3139,7 @@
     <row r="45" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2963,18 +3149,12 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="AC45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="46" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2985,15 +3165,18 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
+      <c r="AC46" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="AD46" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -3009,7 +3192,7 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -3021,12 +3204,10 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -3037,11 +3218,11 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="3" t="s">
-        <v>55</v>
+      <c r="C50" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3052,12 +3233,18 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD50" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3068,12 +3255,15 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3085,10 +3275,12 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -3099,13 +3291,11 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3117,10 +3307,12 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -3131,12 +3323,13 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3146,12 +3339,13 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -3161,12 +3355,11 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -3176,12 +3369,15 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C59" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -3190,19 +3386,12 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="AC59" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD59" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -3211,18 +3400,12 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="AD60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF60" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3233,10 +3416,12 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -3246,11 +3431,11 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -3261,11 +3446,11 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -3275,12 +3460,19 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
+      <c r="AC64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD64" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="65" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -3289,16 +3481,19 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
+      <c r="AD65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF65" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="66" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="4"/>
+        <v>83</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -3312,7 +3507,6 @@
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -3326,9 +3520,8 @@
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="4"/>
+        <v>84</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -3342,9 +3535,8 @@
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="4"/>
+        <v>14</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -3357,9 +3549,7 @@
     <row r="70" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -3372,9 +3562,11 @@
     </row>
     <row r="71" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C71" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3385,19 +3577,11 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="AC71" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD71" s="3" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="72" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -3407,18 +3591,12 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="AD72" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF72" s="3" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="73" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3433,7 +3611,9 @@
     <row r="74" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -3448,7 +3628,7 @@
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3464,7 +3644,7 @@
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3475,370 +3655,172 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+      <c r="AC76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="AD77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="1:32" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:55" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+    </row>
+    <row r="82" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="B81" t="s">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C83" s="26" t="s">
+    <row r="88" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C88" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="6"/>
-      <c r="AD83" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE83" s="27"/>
-      <c r="AF83" s="27"/>
-      <c r="AG83" s="27"/>
-      <c r="AH83" s="27"/>
-      <c r="AI83" s="27"/>
-      <c r="AJ83" s="27"/>
-      <c r="AK83" s="27"/>
-      <c r="AL83" s="27"/>
-      <c r="AM83" s="27"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
-      <c r="AS83" s="5"/>
-      <c r="AT83" s="5"/>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="5"/>
-      <c r="AZ83" s="5"/>
-      <c r="BA83" s="5"/>
-      <c r="BB83" s="5"/>
-      <c r="BC83" s="6"/>
-    </row>
-    <row r="84" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="8"/>
-      <c r="AA84" s="8"/>
-      <c r="AB84" s="9"/>
-      <c r="AD84" s="7"/>
-      <c r="AE84" s="8"/>
-      <c r="AF84" s="8"/>
-      <c r="AG84" s="8"/>
-      <c r="AH84" s="8"/>
-      <c r="AI84" s="8"/>
-      <c r="AJ84" s="8"/>
-      <c r="AK84" s="8"/>
-      <c r="AL84" s="8"/>
-      <c r="AM84" s="8"/>
-      <c r="AN84" s="8"/>
-      <c r="AO84" s="8"/>
-      <c r="AP84" s="8"/>
-      <c r="AQ84" s="8"/>
-      <c r="AR84" s="8"/>
-      <c r="AS84" s="8"/>
-      <c r="AT84" s="8"/>
-      <c r="AU84" s="8"/>
-      <c r="AV84" s="8"/>
-      <c r="AW84" s="8"/>
-      <c r="AX84" s="8"/>
-      <c r="AY84" s="8"/>
-      <c r="AZ84" s="8"/>
-      <c r="BA84" s="8"/>
-      <c r="BB84" s="8"/>
-      <c r="BC84" s="9"/>
-    </row>
-    <row r="85" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C85" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="8"/>
-      <c r="AA85" s="8"/>
-      <c r="AB85" s="9"/>
-      <c r="AD85" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE85" s="8"/>
-      <c r="AF85" s="8"/>
-      <c r="AG85" s="8"/>
-      <c r="AH85" s="8"/>
-      <c r="AI85" s="8"/>
-      <c r="AJ85" s="8"/>
-      <c r="AK85" s="8"/>
-      <c r="AL85" s="8"/>
-      <c r="AM85" s="8"/>
-      <c r="AN85" s="8"/>
-      <c r="AO85" s="8"/>
-      <c r="AP85" s="8"/>
-      <c r="AQ85" s="8"/>
-      <c r="AR85" s="8"/>
-      <c r="AS85" s="8"/>
-      <c r="AT85" s="8"/>
-      <c r="AU85" s="8"/>
-      <c r="AV85" s="8"/>
-      <c r="AW85" s="8"/>
-      <c r="AX85" s="8"/>
-      <c r="AY85" s="8"/>
-      <c r="AZ85" s="8"/>
-      <c r="BA85" s="8"/>
-      <c r="BB85" s="8"/>
-      <c r="BC85" s="9"/>
-    </row>
-    <row r="86" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C86" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="8"/>
-      <c r="AB86" s="9"/>
-      <c r="AD86" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE86" s="8"/>
-      <c r="AF86" s="8"/>
-      <c r="AG86" s="8"/>
-      <c r="AH86" s="8"/>
-      <c r="AI86" s="8"/>
-      <c r="AJ86" s="8"/>
-      <c r="AK86" s="8"/>
-      <c r="AL86" s="8"/>
-      <c r="AM86" s="8"/>
-      <c r="AN86" s="8"/>
-      <c r="AO86" s="8"/>
-      <c r="AP86" s="8"/>
-      <c r="AQ86" s="8"/>
-      <c r="AR86" s="8"/>
-      <c r="AS86" s="8"/>
-      <c r="AT86" s="8"/>
-      <c r="AU86" s="8"/>
-      <c r="AV86" s="8"/>
-      <c r="AW86" s="8"/>
-      <c r="AX86" s="8"/>
-      <c r="AY86" s="8"/>
-      <c r="AZ86" s="8"/>
-      <c r="BA86" s="8"/>
-      <c r="BB86" s="8"/>
-      <c r="BC86" s="9"/>
-    </row>
-    <row r="87" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C87" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
-      <c r="Y87" s="8"/>
-      <c r="Z87" s="8"/>
-      <c r="AA87" s="8"/>
-      <c r="AB87" s="9"/>
-      <c r="AD87" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE87" s="8"/>
-      <c r="AF87" s="8"/>
-      <c r="AG87" s="8"/>
-      <c r="AH87" s="8"/>
-      <c r="AI87" s="8"/>
-      <c r="AJ87" s="8"/>
-      <c r="AK87" s="8"/>
-      <c r="AL87" s="8"/>
-      <c r="AM87" s="8"/>
-      <c r="AN87" s="8"/>
-      <c r="AO87" s="8"/>
-      <c r="AP87" s="8"/>
-      <c r="AQ87" s="8"/>
-      <c r="AR87" s="8"/>
-      <c r="AS87" s="8"/>
-      <c r="AT87" s="8"/>
-      <c r="AU87" s="8"/>
-      <c r="AV87" s="8"/>
-      <c r="AW87" s="8"/>
-      <c r="AX87" s="8"/>
-      <c r="AY87" s="8"/>
-      <c r="AZ87" s="8"/>
-      <c r="BA87" s="8"/>
-      <c r="BB87" s="8"/>
-      <c r="BC87" s="9"/>
-    </row>
-    <row r="88" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C88" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="8"/>
-      <c r="AA88" s="8"/>
-      <c r="AB88" s="9"/>
-      <c r="AD88" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE88" s="8"/>
-      <c r="AF88" s="8"/>
-      <c r="AG88" s="8"/>
-      <c r="AH88" s="8"/>
-      <c r="AI88" s="8"/>
-      <c r="AJ88" s="8"/>
-      <c r="AK88" s="8"/>
-      <c r="AL88" s="8"/>
-      <c r="AM88" s="8"/>
-      <c r="AN88" s="8"/>
-      <c r="AO88" s="8"/>
-      <c r="AP88" s="8"/>
-      <c r="AQ88" s="8"/>
-      <c r="AR88" s="8"/>
-      <c r="AS88" s="8"/>
-      <c r="AT88" s="8"/>
-      <c r="AU88" s="8"/>
-      <c r="AV88" s="8"/>
-      <c r="AW88" s="8"/>
-      <c r="AX88" s="8"/>
-      <c r="AY88" s="8"/>
-      <c r="AZ88" s="8"/>
-      <c r="BA88" s="8"/>
-      <c r="BB88" s="8"/>
-      <c r="BC88" s="9"/>
-    </row>
-    <row r="89" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C89" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="6"/>
+      <c r="AD88" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="27"/>
+      <c r="AG88" s="27"/>
+      <c r="AH88" s="27"/>
+      <c r="AI88" s="27"/>
+      <c r="AJ88" s="27"/>
+      <c r="AK88" s="27"/>
+      <c r="AL88" s="27"/>
+      <c r="AM88" s="27"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="5"/>
+      <c r="AP88" s="5"/>
+      <c r="AQ88" s="5"/>
+      <c r="AR88" s="5"/>
+      <c r="AS88" s="5"/>
+      <c r="AT88" s="5"/>
+      <c r="AU88" s="5"/>
+      <c r="AV88" s="5"/>
+      <c r="AW88" s="5"/>
+      <c r="AX88" s="5"/>
+      <c r="AY88" s="5"/>
+      <c r="AZ88" s="5"/>
+      <c r="BA88" s="5"/>
+      <c r="BB88" s="5"/>
+      <c r="BC88" s="6"/>
+    </row>
+    <row r="89" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C89" s="7"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
@@ -3891,67 +3873,67 @@
       <c r="BB89" s="8"/>
       <c r="BC89" s="9"/>
     </row>
-    <row r="90" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C90" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="14"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="14"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="14"/>
-      <c r="Z90" s="14"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="15"/>
-      <c r="AD90" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE90" s="14"/>
-      <c r="AF90" s="14"/>
-      <c r="AG90" s="14"/>
-      <c r="AH90" s="14"/>
-      <c r="AI90" s="14"/>
-      <c r="AJ90" s="14"/>
-      <c r="AK90" s="14"/>
-      <c r="AL90" s="14"/>
-      <c r="AM90" s="14"/>
-      <c r="AN90" s="14"/>
-      <c r="AO90" s="14"/>
-      <c r="AP90" s="14"/>
-      <c r="AQ90" s="14"/>
-      <c r="AR90" s="14"/>
-      <c r="AS90" s="14"/>
-      <c r="AT90" s="14"/>
-      <c r="AU90" s="14"/>
-      <c r="AV90" s="14"/>
-      <c r="AW90" s="14"/>
-      <c r="AX90" s="14"/>
-      <c r="AY90" s="14"/>
-      <c r="AZ90" s="14"/>
-      <c r="BA90" s="14"/>
-      <c r="BB90" s="14"/>
-      <c r="BC90" s="15"/>
-    </row>
-    <row r="91" spans="2:55" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C90" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="9"/>
+      <c r="AD90" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="8"/>
+      <c r="AG90" s="8"/>
+      <c r="AH90" s="8"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="8"/>
+      <c r="AK90" s="8"/>
+      <c r="AL90" s="8"/>
+      <c r="AM90" s="8"/>
+      <c r="AN90" s="8"/>
+      <c r="AO90" s="8"/>
+      <c r="AP90" s="8"/>
+      <c r="AQ90" s="8"/>
+      <c r="AR90" s="8"/>
+      <c r="AS90" s="8"/>
+      <c r="AT90" s="8"/>
+      <c r="AU90" s="8"/>
+      <c r="AV90" s="8"/>
+      <c r="AW90" s="8"/>
+      <c r="AX90" s="8"/>
+      <c r="AY90" s="8"/>
+      <c r="AZ90" s="8"/>
+      <c r="BA90" s="8"/>
+      <c r="BB90" s="8"/>
+      <c r="BC90" s="9"/>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C91" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -3979,7 +3961,7 @@
       <c r="AA91" s="8"/>
       <c r="AB91" s="9"/>
       <c r="AD91" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE91" s="8"/>
       <c r="AF91" s="8"/>
@@ -4007,9 +3989,9 @@
       <c r="BB91" s="8"/>
       <c r="BC91" s="9"/>
     </row>
-    <row r="92" spans="2:55" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C92" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4037,7 +4019,7 @@
       <c r="AA92" s="8"/>
       <c r="AB92" s="9"/>
       <c r="AD92" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE92" s="8"/>
       <c r="AF92" s="8"/>
@@ -4065,9 +4047,9 @@
       <c r="BB92" s="8"/>
       <c r="BC92" s="9"/>
     </row>
-    <row r="93" spans="2:55" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C93" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4095,7 +4077,7 @@
       <c r="AA93" s="8"/>
       <c r="AB93" s="9"/>
       <c r="AD93" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE93" s="8"/>
       <c r="AF93" s="8"/>
@@ -4123,8 +4105,10 @@
       <c r="BB93" s="8"/>
       <c r="BC93" s="9"/>
     </row>
-    <row r="94" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C94" s="7"/>
+    <row r="94" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C94" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -4177,183 +4161,189 @@
       <c r="BB94" s="8"/>
       <c r="BC94" s="9"/>
     </row>
-    <row r="95" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C95" s="7" t="s">
+    <row r="95" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C95" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="14"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="14"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="15"/>
+      <c r="AD95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE95" s="14"/>
+      <c r="AF95" s="14"/>
+      <c r="AG95" s="14"/>
+      <c r="AH95" s="14"/>
+      <c r="AI95" s="14"/>
+      <c r="AJ95" s="14"/>
+      <c r="AK95" s="14"/>
+      <c r="AL95" s="14"/>
+      <c r="AM95" s="14"/>
+      <c r="AN95" s="14"/>
+      <c r="AO95" s="14"/>
+      <c r="AP95" s="14"/>
+      <c r="AQ95" s="14"/>
+      <c r="AR95" s="14"/>
+      <c r="AS95" s="14"/>
+      <c r="AT95" s="14"/>
+      <c r="AU95" s="14"/>
+      <c r="AV95" s="14"/>
+      <c r="AW95" s="14"/>
+      <c r="AX95" s="14"/>
+      <c r="AY95" s="14"/>
+      <c r="AZ95" s="14"/>
+      <c r="BA95" s="14"/>
+      <c r="BB95" s="14"/>
+      <c r="BC95" s="15"/>
+    </row>
+    <row r="96" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="9"/>
+      <c r="AD96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE96" s="8"/>
+      <c r="AF96" s="8"/>
+      <c r="AG96" s="8"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="8"/>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="8"/>
+      <c r="AO96" s="8"/>
+      <c r="AP96" s="8"/>
+      <c r="AQ96" s="8"/>
+      <c r="AR96" s="8"/>
+      <c r="AS96" s="8"/>
+      <c r="AT96" s="8"/>
+      <c r="AU96" s="8"/>
+      <c r="AV96" s="8"/>
+      <c r="AW96" s="8"/>
+      <c r="AX96" s="8"/>
+      <c r="AY96" s="8"/>
+      <c r="AZ96" s="8"/>
+      <c r="BA96" s="8"/>
+      <c r="BB96" s="8"/>
+      <c r="BC96" s="9"/>
+    </row>
+    <row r="97" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="8"/>
-      <c r="Y95" s="8"/>
-      <c r="Z95" s="8"/>
-      <c r="AA95" s="8"/>
-      <c r="AB95" s="9"/>
-      <c r="AD95" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE95" s="8"/>
-      <c r="AF95" s="8"/>
-      <c r="AG95" s="8"/>
-      <c r="AH95" s="8"/>
-      <c r="AI95" s="8"/>
-      <c r="AJ95" s="8"/>
-      <c r="AK95" s="8"/>
-      <c r="AL95" s="8"/>
-      <c r="AM95" s="8"/>
-      <c r="AN95" s="8"/>
-      <c r="AO95" s="8"/>
-      <c r="AP95" s="8"/>
-      <c r="AQ95" s="8"/>
-      <c r="AR95" s="8"/>
-      <c r="AS95" s="8"/>
-      <c r="AT95" s="8"/>
-      <c r="AU95" s="8"/>
-      <c r="AV95" s="8"/>
-      <c r="AW95" s="8"/>
-      <c r="AX95" s="8"/>
-      <c r="AY95" s="8"/>
-      <c r="AZ95" s="8"/>
-      <c r="BA95" s="8"/>
-      <c r="BB95" s="8"/>
-      <c r="BC95" s="9"/>
-    </row>
-    <row r="96" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C96" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="14"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="14"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="14"/>
-      <c r="Y96" s="14"/>
-      <c r="Z96" s="14"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="15"/>
-      <c r="AD96" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE96" s="14"/>
-      <c r="AF96" s="14"/>
-      <c r="AG96" s="14"/>
-      <c r="AH96" s="14"/>
-      <c r="AI96" s="14"/>
-      <c r="AJ96" s="14"/>
-      <c r="AK96" s="14"/>
-      <c r="AL96" s="14"/>
-      <c r="AM96" s="14"/>
-      <c r="AN96" s="14"/>
-      <c r="AO96" s="14"/>
-      <c r="AP96" s="14"/>
-      <c r="AQ96" s="14"/>
-      <c r="AR96" s="14"/>
-      <c r="AS96" s="14"/>
-      <c r="AT96" s="14"/>
-      <c r="AU96" s="14"/>
-      <c r="AV96" s="14"/>
-      <c r="AW96" s="14"/>
-      <c r="AX96" s="14"/>
-      <c r="AY96" s="14"/>
-      <c r="AZ96" s="14"/>
-      <c r="BA96" s="14"/>
-      <c r="BB96" s="14"/>
-      <c r="BC96" s="15"/>
-    </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C97" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D97" s="8"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="16"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-      <c r="U97" s="16"/>
-      <c r="V97" s="16"/>
-      <c r="W97" s="16"/>
-      <c r="X97" s="16"/>
-      <c r="Y97" s="16"/>
-      <c r="Z97" s="16"/>
-      <c r="AA97" s="16"/>
-      <c r="AB97" s="17"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="9"/>
       <c r="AD97" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE97" s="14"/>
-      <c r="AF97" s="14"/>
-      <c r="AG97" s="14"/>
-      <c r="AH97" s="14"/>
-      <c r="AI97" s="14"/>
-      <c r="AJ97" s="14"/>
-      <c r="AK97" s="14"/>
-      <c r="AL97" s="14"/>
-      <c r="AM97" s="14"/>
-      <c r="AN97" s="14"/>
-      <c r="AO97" s="14"/>
-      <c r="AP97" s="14"/>
-      <c r="AQ97" s="14"/>
-      <c r="AR97" s="14"/>
-      <c r="AS97" s="14"/>
-      <c r="AT97" s="14"/>
-      <c r="AU97" s="14"/>
-      <c r="AV97" s="14"/>
-      <c r="AW97" s="14"/>
-      <c r="AX97" s="14"/>
-      <c r="AY97" s="14"/>
-      <c r="AZ97" s="14"/>
-      <c r="BA97" s="14"/>
-      <c r="BB97" s="14"/>
-      <c r="BC97" s="15"/>
-    </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="AE97" s="8"/>
+      <c r="AF97" s="8"/>
+      <c r="AG97" s="8"/>
+      <c r="AH97" s="8"/>
+      <c r="AI97" s="8"/>
+      <c r="AJ97" s="8"/>
+      <c r="AK97" s="8"/>
+      <c r="AL97" s="8"/>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+      <c r="AO97" s="8"/>
+      <c r="AP97" s="8"/>
+      <c r="AQ97" s="8"/>
+      <c r="AR97" s="8"/>
+      <c r="AS97" s="8"/>
+      <c r="AT97" s="8"/>
+      <c r="AU97" s="8"/>
+      <c r="AV97" s="8"/>
+      <c r="AW97" s="8"/>
+      <c r="AX97" s="8"/>
+      <c r="AY97" s="8"/>
+      <c r="AZ97" s="8"/>
+      <c r="BA97" s="8"/>
+      <c r="BB97" s="8"/>
+      <c r="BC97" s="9"/>
+    </row>
+    <row r="98" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
       <c r="C98" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4381,7 +4371,7 @@
       <c r="AA98" s="8"/>
       <c r="AB98" s="9"/>
       <c r="AD98" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AE98" s="8"/>
       <c r="AF98" s="8"/>
@@ -4409,35 +4399,33 @@
       <c r="BB98" s="8"/>
       <c r="BC98" s="9"/>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C99" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
-      <c r="W99" s="16"/>
-      <c r="X99" s="16"/>
-      <c r="Y99" s="16"/>
-      <c r="Z99" s="16"/>
-      <c r="AA99" s="16"/>
-      <c r="AB99" s="17"/>
+    <row r="99" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+      <c r="AB99" s="9"/>
       <c r="AD99" s="7"/>
       <c r="AE99" s="8"/>
       <c r="AF99" s="8"/>
@@ -4465,9 +4453,12 @@
       <c r="BB99" s="8"/>
       <c r="BC99" s="9"/>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
       <c r="C100" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4495,7 +4486,7 @@
       <c r="AA100" s="8"/>
       <c r="AB100" s="9"/>
       <c r="AD100" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="AE100" s="8"/>
       <c r="AF100" s="8"/>
@@ -4523,123 +4514,128 @@
       <c r="BB100" s="8"/>
       <c r="BC100" s="9"/>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
       <c r="C101" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-      <c r="AA101" s="8"/>
-      <c r="AB101" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="14"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="14"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="15"/>
       <c r="AD101" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE101" s="8"/>
-      <c r="AF101" s="8"/>
-      <c r="AG101" s="8"/>
-      <c r="AH101" s="8"/>
-      <c r="AI101" s="8"/>
-      <c r="AJ101" s="8"/>
-      <c r="AK101" s="8"/>
-      <c r="AL101" s="8"/>
-      <c r="AM101" s="8"/>
-      <c r="AN101" s="8"/>
-      <c r="AO101" s="8"/>
-      <c r="AP101" s="8"/>
-      <c r="AQ101" s="8"/>
-      <c r="AR101" s="8"/>
-      <c r="AS101" s="8"/>
-      <c r="AT101" s="8"/>
-      <c r="AU101" s="8"/>
-      <c r="AV101" s="8"/>
-      <c r="AW101" s="8"/>
-      <c r="AX101" s="8"/>
-      <c r="AY101" s="8"/>
-      <c r="AZ101" s="8"/>
-      <c r="BA101" s="8"/>
-      <c r="BB101" s="8"/>
-      <c r="BC101" s="9"/>
-    </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="AE101" s="14"/>
+      <c r="AF101" s="14"/>
+      <c r="AG101" s="14"/>
+      <c r="AH101" s="14"/>
+      <c r="AI101" s="14"/>
+      <c r="AJ101" s="14"/>
+      <c r="AK101" s="14"/>
+      <c r="AL101" s="14"/>
+      <c r="AM101" s="14"/>
+      <c r="AN101" s="14"/>
+      <c r="AO101" s="14"/>
+      <c r="AP101" s="14"/>
+      <c r="AQ101" s="14"/>
+      <c r="AR101" s="14"/>
+      <c r="AS101" s="14"/>
+      <c r="AT101" s="14"/>
+      <c r="AU101" s="14"/>
+      <c r="AV101" s="14"/>
+      <c r="AW101" s="14"/>
+      <c r="AX101" s="14"/>
+      <c r="AY101" s="14"/>
+      <c r="AZ101" s="14"/>
+      <c r="BA101" s="14"/>
+      <c r="BB101" s="14"/>
+      <c r="BC101" s="15"/>
+    </row>
+    <row r="102" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C102" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+      <c r="Z102" s="16"/>
+      <c r="AA102" s="16"/>
+      <c r="AB102" s="17"/>
+      <c r="AD102" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE102" s="14"/>
+      <c r="AF102" s="14"/>
+      <c r="AG102" s="14"/>
+      <c r="AH102" s="14"/>
+      <c r="AI102" s="14"/>
+      <c r="AJ102" s="14"/>
+      <c r="AK102" s="14"/>
+      <c r="AL102" s="14"/>
+      <c r="AM102" s="14"/>
+      <c r="AN102" s="14"/>
+      <c r="AO102" s="14"/>
+      <c r="AP102" s="14"/>
+      <c r="AQ102" s="14"/>
+      <c r="AR102" s="14"/>
+      <c r="AS102" s="14"/>
+      <c r="AT102" s="14"/>
+      <c r="AU102" s="14"/>
+      <c r="AV102" s="14"/>
+      <c r="AW102" s="14"/>
+      <c r="AX102" s="14"/>
+      <c r="AY102" s="14"/>
+      <c r="AZ102" s="14"/>
+      <c r="BA102" s="14"/>
+      <c r="BB102" s="14"/>
+      <c r="BC102" s="15"/>
+    </row>
+    <row r="103" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C103" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="8"/>
-      <c r="Y102" s="8"/>
-      <c r="Z102" s="8"/>
-      <c r="AA102" s="8"/>
-      <c r="AB102" s="9"/>
-      <c r="AD102" s="7"/>
-      <c r="AE102" s="8"/>
-      <c r="AF102" s="8"/>
-      <c r="AG102" s="8"/>
-      <c r="AH102" s="8"/>
-      <c r="AI102" s="8"/>
-      <c r="AJ102" s="8"/>
-      <c r="AK102" s="8"/>
-      <c r="AL102" s="8"/>
-      <c r="AM102" s="8"/>
-      <c r="AN102" s="8"/>
-      <c r="AO102" s="8"/>
-      <c r="AP102" s="8"/>
-      <c r="AQ102" s="8"/>
-      <c r="AR102" s="8"/>
-      <c r="AS102" s="8"/>
-      <c r="AT102" s="8"/>
-      <c r="AU102" s="8"/>
-      <c r="AV102" s="8"/>
-      <c r="AW102" s="8"/>
-      <c r="AX102" s="8"/>
-      <c r="AY102" s="8"/>
-      <c r="AZ102" s="8"/>
-      <c r="BA102" s="8"/>
-      <c r="BB102" s="8"/>
-      <c r="BC102" s="9"/>
-    </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C103" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4667,7 +4663,7 @@
       <c r="AA103" s="8"/>
       <c r="AB103" s="9"/>
       <c r="AD103" s="7" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="AE103" s="8"/>
       <c r="AF103" s="8"/>
@@ -4695,38 +4691,39 @@
       <c r="BB103" s="8"/>
       <c r="BC103" s="9"/>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>97</v>
+      </c>
       <c r="C104" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="8"/>
-      <c r="X104" s="8"/>
-      <c r="Y104" s="8"/>
-      <c r="Z104" s="8"/>
-      <c r="AA104" s="8"/>
-      <c r="AB104" s="9"/>
-      <c r="AD104" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
+      <c r="X104" s="16"/>
+      <c r="Y104" s="16"/>
+      <c r="Z104" s="16"/>
+      <c r="AA104" s="16"/>
+      <c r="AB104" s="17"/>
+      <c r="AD104" s="7"/>
       <c r="AE104" s="8"/>
       <c r="AF104" s="8"/>
       <c r="AG104" s="8"/>
@@ -4753,878 +4750,509 @@
       <c r="BB104" s="8"/>
       <c r="BC104" s="9"/>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C105" s="10"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
-      <c r="Y105" s="11"/>
-      <c r="Z105" s="11"/>
-      <c r="AA105" s="11"/>
-      <c r="AB105" s="12"/>
-      <c r="AD105" s="10"/>
-      <c r="AE105" s="11"/>
-      <c r="AF105" s="11"/>
-      <c r="AG105" s="11"/>
-      <c r="AH105" s="11"/>
-      <c r="AI105" s="11"/>
-      <c r="AJ105" s="11"/>
-      <c r="AK105" s="11"/>
-      <c r="AL105" s="11"/>
-      <c r="AM105" s="11"/>
-      <c r="AN105" s="11"/>
-      <c r="AO105" s="11"/>
-      <c r="AP105" s="11"/>
-      <c r="AQ105" s="11"/>
-      <c r="AR105" s="11"/>
-      <c r="AS105" s="11"/>
-      <c r="AT105" s="11"/>
-      <c r="AU105" s="11"/>
-      <c r="AV105" s="11"/>
-      <c r="AW105" s="11"/>
-      <c r="AX105" s="11"/>
-      <c r="AY105" s="11"/>
-      <c r="AZ105" s="11"/>
-      <c r="BA105" s="11"/>
-      <c r="BB105" s="11"/>
-      <c r="BC105" s="12"/>
-    </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="B110" t="s">
+    <row r="105" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+      <c r="AB105" s="9"/>
+      <c r="AD105" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE105" s="8"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="8"/>
+      <c r="AH105" s="8"/>
+      <c r="AI105" s="8"/>
+      <c r="AJ105" s="8"/>
+      <c r="AK105" s="8"/>
+      <c r="AL105" s="8"/>
+      <c r="AM105" s="8"/>
+      <c r="AN105" s="8"/>
+      <c r="AO105" s="8"/>
+      <c r="AP105" s="8"/>
+      <c r="AQ105" s="8"/>
+      <c r="AR105" s="8"/>
+      <c r="AS105" s="8"/>
+      <c r="AT105" s="8"/>
+      <c r="AU105" s="8"/>
+      <c r="AV105" s="8"/>
+      <c r="AW105" s="8"/>
+      <c r="AX105" s="8"/>
+      <c r="AY105" s="8"/>
+      <c r="AZ105" s="8"/>
+      <c r="BA105" s="8"/>
+      <c r="BB105" s="8"/>
+      <c r="BC105" s="9"/>
+    </row>
+    <row r="106" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="8"/>
+      <c r="X106" s="8"/>
+      <c r="Y106" s="8"/>
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8"/>
+      <c r="AB106" s="9"/>
+      <c r="AD106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE106" s="8"/>
+      <c r="AF106" s="8"/>
+      <c r="AG106" s="8"/>
+      <c r="AH106" s="8"/>
+      <c r="AI106" s="8"/>
+      <c r="AJ106" s="8"/>
+      <c r="AK106" s="8"/>
+      <c r="AL106" s="8"/>
+      <c r="AM106" s="8"/>
+      <c r="AN106" s="8"/>
+      <c r="AO106" s="8"/>
+      <c r="AP106" s="8"/>
+      <c r="AQ106" s="8"/>
+      <c r="AR106" s="8"/>
+      <c r="AS106" s="8"/>
+      <c r="AT106" s="8"/>
+      <c r="AU106" s="8"/>
+      <c r="AV106" s="8"/>
+      <c r="AW106" s="8"/>
+      <c r="AX106" s="8"/>
+      <c r="AY106" s="8"/>
+      <c r="AZ106" s="8"/>
+      <c r="BA106" s="8"/>
+      <c r="BB106" s="8"/>
+      <c r="BC106" s="9"/>
+    </row>
+    <row r="107" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C107" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+      <c r="AB107" s="9"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="8"/>
+      <c r="AF107" s="8"/>
+      <c r="AG107" s="8"/>
+      <c r="AH107" s="8"/>
+      <c r="AI107" s="8"/>
+      <c r="AJ107" s="8"/>
+      <c r="AK107" s="8"/>
+      <c r="AL107" s="8"/>
+      <c r="AM107" s="8"/>
+      <c r="AN107" s="8"/>
+      <c r="AO107" s="8"/>
+      <c r="AP107" s="8"/>
+      <c r="AQ107" s="8"/>
+      <c r="AR107" s="8"/>
+      <c r="AS107" s="8"/>
+      <c r="AT107" s="8"/>
+      <c r="AU107" s="8"/>
+      <c r="AV107" s="8"/>
+      <c r="AW107" s="8"/>
+      <c r="AX107" s="8"/>
+      <c r="AY107" s="8"/>
+      <c r="AZ107" s="8"/>
+      <c r="BA107" s="8"/>
+      <c r="BB107" s="8"/>
+      <c r="BC107" s="9"/>
+    </row>
+    <row r="108" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C108" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="8"/>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+      <c r="AB108" s="9"/>
+      <c r="AD108" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE108" s="8"/>
+      <c r="AF108" s="8"/>
+      <c r="AG108" s="8"/>
+      <c r="AH108" s="8"/>
+      <c r="AI108" s="8"/>
+      <c r="AJ108" s="8"/>
+      <c r="AK108" s="8"/>
+      <c r="AL108" s="8"/>
+      <c r="AM108" s="8"/>
+      <c r="AN108" s="8"/>
+      <c r="AO108" s="8"/>
+      <c r="AP108" s="8"/>
+      <c r="AQ108" s="8"/>
+      <c r="AR108" s="8"/>
+      <c r="AS108" s="8"/>
+      <c r="AT108" s="8"/>
+      <c r="AU108" s="8"/>
+      <c r="AV108" s="8"/>
+      <c r="AW108" s="8"/>
+      <c r="AX108" s="8"/>
+      <c r="AY108" s="8"/>
+      <c r="AZ108" s="8"/>
+      <c r="BA108" s="8"/>
+      <c r="BB108" s="8"/>
+      <c r="BC108" s="9"/>
+    </row>
+    <row r="109" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C109" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AB109" s="9"/>
+      <c r="AD109" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE109" s="8"/>
+      <c r="AF109" s="8"/>
+      <c r="AG109" s="8"/>
+      <c r="AH109" s="8"/>
+      <c r="AI109" s="8"/>
+      <c r="AJ109" s="8"/>
+      <c r="AK109" s="8"/>
+      <c r="AL109" s="8"/>
+      <c r="AM109" s="8"/>
+      <c r="AN109" s="8"/>
+      <c r="AO109" s="8"/>
+      <c r="AP109" s="8"/>
+      <c r="AQ109" s="8"/>
+      <c r="AR109" s="8"/>
+      <c r="AS109" s="8"/>
+      <c r="AT109" s="8"/>
+      <c r="AU109" s="8"/>
+      <c r="AV109" s="8"/>
+      <c r="AW109" s="8"/>
+      <c r="AX109" s="8"/>
+      <c r="AY109" s="8"/>
+      <c r="AZ109" s="8"/>
+      <c r="BA109" s="8"/>
+      <c r="BB109" s="8"/>
+      <c r="BC109" s="9"/>
+    </row>
+    <row r="110" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C110" s="10"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+      <c r="R110" s="11"/>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11"/>
+      <c r="U110" s="11"/>
+      <c r="V110" s="11"/>
+      <c r="W110" s="11"/>
+      <c r="X110" s="11"/>
+      <c r="Y110" s="11"/>
+      <c r="Z110" s="11"/>
+      <c r="AA110" s="11"/>
+      <c r="AB110" s="12"/>
+      <c r="AD110" s="10"/>
+      <c r="AE110" s="11"/>
+      <c r="AF110" s="11"/>
+      <c r="AG110" s="11"/>
+      <c r="AH110" s="11"/>
+      <c r="AI110" s="11"/>
+      <c r="AJ110" s="11"/>
+      <c r="AK110" s="11"/>
+      <c r="AL110" s="11"/>
+      <c r="AM110" s="11"/>
+      <c r="AN110" s="11"/>
+      <c r="AO110" s="11"/>
+      <c r="AP110" s="11"/>
+      <c r="AQ110" s="11"/>
+      <c r="AR110" s="11"/>
+      <c r="AS110" s="11"/>
+      <c r="AT110" s="11"/>
+      <c r="AU110" s="11"/>
+      <c r="AV110" s="11"/>
+      <c r="AW110" s="11"/>
+      <c r="AX110" s="11"/>
+      <c r="AY110" s="11"/>
+      <c r="AZ110" s="11"/>
+      <c r="BA110" s="11"/>
+      <c r="BB110" s="11"/>
+      <c r="BC110" s="12"/>
+    </row>
+    <row r="112" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
         <v>1</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C122" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C112" s="26" t="s">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C124" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-      <c r="W112" s="5"/>
-      <c r="X112" s="5"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
-      <c r="AB112" s="6"/>
-      <c r="AD112" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE112" s="27"/>
-      <c r="AF112" s="27"/>
-      <c r="AG112" s="27"/>
-      <c r="AH112" s="27"/>
-      <c r="AI112" s="27"/>
-      <c r="AJ112" s="27"/>
-      <c r="AK112" s="27"/>
-      <c r="AL112" s="27"/>
-      <c r="AM112" s="27"/>
-      <c r="AN112" s="5"/>
-      <c r="AO112" s="5"/>
-      <c r="AP112" s="5"/>
-      <c r="AQ112" s="5"/>
-      <c r="AR112" s="5"/>
-      <c r="AS112" s="5"/>
-      <c r="AT112" s="5"/>
-      <c r="AU112" s="5"/>
-      <c r="AV112" s="5"/>
-      <c r="AW112" s="5"/>
-      <c r="AX112" s="5"/>
-      <c r="AY112" s="5"/>
-      <c r="AZ112" s="5"/>
-      <c r="BA112" s="5"/>
-      <c r="BB112" s="5"/>
-      <c r="BC112" s="6"/>
-    </row>
-    <row r="113" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C113" s="7"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="8"/>
-      <c r="X113" s="8"/>
-      <c r="Y113" s="8"/>
-      <c r="Z113" s="8"/>
-      <c r="AA113" s="8"/>
-      <c r="AB113" s="9"/>
-      <c r="AD113" s="7"/>
-      <c r="AE113" s="8"/>
-      <c r="AF113" s="8"/>
-      <c r="AG113" s="8"/>
-      <c r="AH113" s="8"/>
-      <c r="AI113" s="8"/>
-      <c r="AJ113" s="8"/>
-      <c r="AK113" s="8"/>
-      <c r="AL113" s="8"/>
-      <c r="AM113" s="8"/>
-      <c r="AN113" s="8"/>
-      <c r="AO113" s="8"/>
-      <c r="AP113" s="8"/>
-      <c r="AQ113" s="8"/>
-      <c r="AR113" s="8"/>
-      <c r="AS113" s="8"/>
-      <c r="AT113" s="8"/>
-      <c r="AU113" s="8"/>
-      <c r="AV113" s="8"/>
-      <c r="AW113" s="8"/>
-      <c r="AX113" s="8"/>
-      <c r="AY113" s="8"/>
-      <c r="AZ113" s="8"/>
-      <c r="BA113" s="8"/>
-      <c r="BB113" s="8"/>
-      <c r="BC113" s="9"/>
-    </row>
-    <row r="114" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C114" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
-      <c r="T114" s="19"/>
-      <c r="U114" s="19"/>
-      <c r="V114" s="19"/>
-      <c r="W114" s="19"/>
-      <c r="X114" s="19"/>
-      <c r="Y114" s="19"/>
-      <c r="Z114" s="19"/>
-      <c r="AA114" s="19"/>
-      <c r="AB114" s="20"/>
-      <c r="AD114" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE114" s="19"/>
-      <c r="AF114" s="19"/>
-      <c r="AG114" s="19"/>
-      <c r="AH114" s="19"/>
-      <c r="AI114" s="19"/>
-      <c r="AJ114" s="19"/>
-      <c r="AK114" s="19"/>
-      <c r="AL114" s="19"/>
-      <c r="AM114" s="19"/>
-      <c r="AN114" s="19"/>
-      <c r="AO114" s="19"/>
-      <c r="AP114" s="19"/>
-      <c r="AQ114" s="19"/>
-      <c r="AR114" s="19"/>
-      <c r="AS114" s="19"/>
-      <c r="AT114" s="19"/>
-      <c r="AU114" s="19"/>
-      <c r="AV114" s="19"/>
-      <c r="AW114" s="19"/>
-      <c r="AX114" s="19"/>
-      <c r="AY114" s="19"/>
-      <c r="AZ114" s="19"/>
-      <c r="BA114" s="19"/>
-      <c r="BB114" s="19"/>
-      <c r="BC114" s="20"/>
-    </row>
-    <row r="115" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C115" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="19"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="19"/>
-      <c r="R115" s="19"/>
-      <c r="S115" s="19"/>
-      <c r="T115" s="19"/>
-      <c r="U115" s="19"/>
-      <c r="V115" s="19"/>
-      <c r="W115" s="19"/>
-      <c r="X115" s="19"/>
-      <c r="Y115" s="19"/>
-      <c r="Z115" s="19"/>
-      <c r="AA115" s="19"/>
-      <c r="AB115" s="20"/>
-      <c r="AD115" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE115" s="19"/>
-      <c r="AF115" s="19"/>
-      <c r="AG115" s="19"/>
-      <c r="AH115" s="19"/>
-      <c r="AI115" s="19"/>
-      <c r="AJ115" s="19"/>
-      <c r="AK115" s="19"/>
-      <c r="AL115" s="19"/>
-      <c r="AM115" s="19"/>
-      <c r="AN115" s="19"/>
-      <c r="AO115" s="19"/>
-      <c r="AP115" s="19"/>
-      <c r="AQ115" s="19"/>
-      <c r="AR115" s="19"/>
-      <c r="AS115" s="19"/>
-      <c r="AT115" s="19"/>
-      <c r="AU115" s="19"/>
-      <c r="AV115" s="19"/>
-      <c r="AW115" s="19"/>
-      <c r="AX115" s="19"/>
-      <c r="AY115" s="19"/>
-      <c r="AZ115" s="19"/>
-      <c r="BA115" s="19"/>
-      <c r="BB115" s="19"/>
-      <c r="BC115" s="20"/>
-    </row>
-    <row r="116" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C116" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="19"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="19"/>
-      <c r="R116" s="19"/>
-      <c r="S116" s="19"/>
-      <c r="T116" s="19"/>
-      <c r="U116" s="19"/>
-      <c r="V116" s="19"/>
-      <c r="W116" s="19"/>
-      <c r="X116" s="19"/>
-      <c r="Y116" s="19"/>
-      <c r="Z116" s="19"/>
-      <c r="AA116" s="19"/>
-      <c r="AB116" s="20"/>
-      <c r="AD116" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE116" s="19"/>
-      <c r="AF116" s="19"/>
-      <c r="AG116" s="19"/>
-      <c r="AH116" s="19"/>
-      <c r="AI116" s="19"/>
-      <c r="AJ116" s="19"/>
-      <c r="AK116" s="19"/>
-      <c r="AL116" s="19"/>
-      <c r="AM116" s="19"/>
-      <c r="AN116" s="19"/>
-      <c r="AO116" s="19"/>
-      <c r="AP116" s="19"/>
-      <c r="AQ116" s="19"/>
-      <c r="AR116" s="19"/>
-      <c r="AS116" s="19"/>
-      <c r="AT116" s="19"/>
-      <c r="AU116" s="19"/>
-      <c r="AV116" s="19"/>
-      <c r="AW116" s="19"/>
-      <c r="AX116" s="19"/>
-      <c r="AY116" s="19"/>
-      <c r="AZ116" s="19"/>
-      <c r="BA116" s="19"/>
-      <c r="BB116" s="19"/>
-      <c r="BC116" s="20"/>
-    </row>
-    <row r="117" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C117" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="19"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="19"/>
-      <c r="R117" s="19"/>
-      <c r="S117" s="19"/>
-      <c r="T117" s="19"/>
-      <c r="U117" s="19"/>
-      <c r="V117" s="19"/>
-      <c r="W117" s="19"/>
-      <c r="X117" s="19"/>
-      <c r="Y117" s="19"/>
-      <c r="Z117" s="19"/>
-      <c r="AA117" s="19"/>
-      <c r="AB117" s="20"/>
-      <c r="AD117" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE117" s="19"/>
-      <c r="AF117" s="19"/>
-      <c r="AG117" s="19"/>
-      <c r="AH117" s="19"/>
-      <c r="AI117" s="19"/>
-      <c r="AJ117" s="19"/>
-      <c r="AK117" s="19"/>
-      <c r="AL117" s="19"/>
-      <c r="AM117" s="19"/>
-      <c r="AN117" s="19"/>
-      <c r="AO117" s="19"/>
-      <c r="AP117" s="19"/>
-      <c r="AQ117" s="19"/>
-      <c r="AR117" s="19"/>
-      <c r="AS117" s="19"/>
-      <c r="AT117" s="19"/>
-      <c r="AU117" s="19"/>
-      <c r="AV117" s="19"/>
-      <c r="AW117" s="19"/>
-      <c r="AX117" s="19"/>
-      <c r="AY117" s="19"/>
-      <c r="AZ117" s="19"/>
-      <c r="BA117" s="19"/>
-      <c r="BB117" s="19"/>
-      <c r="BC117" s="20"/>
-    </row>
-    <row r="118" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C118" s="18"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19"/>
-      <c r="S118" s="19"/>
-      <c r="T118" s="19"/>
-      <c r="U118" s="19"/>
-      <c r="V118" s="19"/>
-      <c r="W118" s="19"/>
-      <c r="X118" s="19"/>
-      <c r="Y118" s="19"/>
-      <c r="Z118" s="19"/>
-      <c r="AA118" s="19"/>
-      <c r="AB118" s="20"/>
-      <c r="AD118" s="18"/>
-      <c r="AE118" s="19"/>
-      <c r="AF118" s="19"/>
-      <c r="AG118" s="19"/>
-      <c r="AH118" s="19"/>
-      <c r="AI118" s="19"/>
-      <c r="AJ118" s="19"/>
-      <c r="AK118" s="19"/>
-      <c r="AL118" s="19"/>
-      <c r="AM118" s="19"/>
-      <c r="AN118" s="19"/>
-      <c r="AO118" s="19"/>
-      <c r="AP118" s="19"/>
-      <c r="AQ118" s="19"/>
-      <c r="AR118" s="19"/>
-      <c r="AS118" s="19"/>
-      <c r="AT118" s="19"/>
-      <c r="AU118" s="19"/>
-      <c r="AV118" s="19"/>
-      <c r="AW118" s="19"/>
-      <c r="AX118" s="19"/>
-      <c r="AY118" s="19"/>
-      <c r="AZ118" s="19"/>
-      <c r="BA118" s="19"/>
-      <c r="BB118" s="19"/>
-      <c r="BC118" s="20"/>
-    </row>
-    <row r="119" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C119" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="14"/>
-      <c r="T119" s="14"/>
-      <c r="U119" s="14"/>
-      <c r="V119" s="14"/>
-      <c r="W119" s="14"/>
-      <c r="X119" s="14"/>
-      <c r="Y119" s="14"/>
-      <c r="Z119" s="14"/>
-      <c r="AA119" s="14"/>
-      <c r="AB119" s="15"/>
-      <c r="AD119" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE119" s="14"/>
-      <c r="AF119" s="14"/>
-      <c r="AG119" s="14"/>
-      <c r="AH119" s="14"/>
-      <c r="AI119" s="14"/>
-      <c r="AJ119" s="14"/>
-      <c r="AK119" s="14"/>
-      <c r="AL119" s="14"/>
-      <c r="AM119" s="14"/>
-      <c r="AN119" s="14"/>
-      <c r="AO119" s="14"/>
-      <c r="AP119" s="14"/>
-      <c r="AQ119" s="14"/>
-      <c r="AR119" s="14"/>
-      <c r="AS119" s="14"/>
-      <c r="AT119" s="14"/>
-      <c r="AU119" s="14"/>
-      <c r="AV119" s="14"/>
-      <c r="AW119" s="14"/>
-      <c r="AX119" s="14"/>
-      <c r="AY119" s="14"/>
-      <c r="AZ119" s="14"/>
-      <c r="BA119" s="14"/>
-      <c r="BB119" s="14"/>
-      <c r="BC119" s="15"/>
-    </row>
-    <row r="120" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C120" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="19"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="19"/>
-      <c r="R120" s="19"/>
-      <c r="S120" s="19"/>
-      <c r="T120" s="19"/>
-      <c r="U120" s="19"/>
-      <c r="V120" s="19"/>
-      <c r="W120" s="19"/>
-      <c r="X120" s="19"/>
-      <c r="Y120" s="19"/>
-      <c r="Z120" s="19"/>
-      <c r="AA120" s="19"/>
-      <c r="AB120" s="20"/>
-      <c r="AD120" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE120" s="19"/>
-      <c r="AF120" s="19"/>
-      <c r="AG120" s="19"/>
-      <c r="AH120" s="19"/>
-      <c r="AI120" s="19"/>
-      <c r="AJ120" s="19"/>
-      <c r="AK120" s="19"/>
-      <c r="AL120" s="19"/>
-      <c r="AM120" s="19"/>
-      <c r="AN120" s="19"/>
-      <c r="AO120" s="19"/>
-      <c r="AP120" s="19"/>
-      <c r="AQ120" s="19"/>
-      <c r="AR120" s="19"/>
-      <c r="AS120" s="19"/>
-      <c r="AT120" s="19"/>
-      <c r="AU120" s="19"/>
-      <c r="AV120" s="19"/>
-      <c r="AW120" s="19"/>
-      <c r="AX120" s="19"/>
-      <c r="AY120" s="19"/>
-      <c r="AZ120" s="19"/>
-      <c r="BA120" s="19"/>
-      <c r="BB120" s="19"/>
-      <c r="BC120" s="20"/>
-    </row>
-    <row r="121" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C121" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
-      <c r="M121" s="19"/>
-      <c r="N121" s="19"/>
-      <c r="O121" s="19"/>
-      <c r="P121" s="19"/>
-      <c r="Q121" s="19"/>
-      <c r="R121" s="19"/>
-      <c r="S121" s="19"/>
-      <c r="T121" s="19"/>
-      <c r="U121" s="19"/>
-      <c r="V121" s="19"/>
-      <c r="W121" s="19"/>
-      <c r="X121" s="19"/>
-      <c r="Y121" s="19"/>
-      <c r="Z121" s="19"/>
-      <c r="AA121" s="19"/>
-      <c r="AB121" s="20"/>
-      <c r="AD121" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE121" s="19"/>
-      <c r="AF121" s="19"/>
-      <c r="AG121" s="19"/>
-      <c r="AH121" s="19"/>
-      <c r="AI121" s="19"/>
-      <c r="AJ121" s="19"/>
-      <c r="AK121" s="19"/>
-      <c r="AL121" s="19"/>
-      <c r="AM121" s="19"/>
-      <c r="AN121" s="19"/>
-      <c r="AO121" s="19"/>
-      <c r="AP121" s="19"/>
-      <c r="AQ121" s="19"/>
-      <c r="AR121" s="19"/>
-      <c r="AS121" s="19"/>
-      <c r="AT121" s="19"/>
-      <c r="AU121" s="19"/>
-      <c r="AV121" s="19"/>
-      <c r="AW121" s="19"/>
-      <c r="AX121" s="19"/>
-      <c r="AY121" s="19"/>
-      <c r="AZ121" s="19"/>
-      <c r="BA121" s="19"/>
-      <c r="BB121" s="19"/>
-      <c r="BC121" s="20"/>
-    </row>
-    <row r="122" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C122" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="14"/>
-      <c r="Q122" s="14"/>
-      <c r="R122" s="14"/>
-      <c r="S122" s="14"/>
-      <c r="T122" s="14"/>
-      <c r="U122" s="14"/>
-      <c r="V122" s="14"/>
-      <c r="W122" s="14"/>
-      <c r="X122" s="14"/>
-      <c r="Y122" s="14"/>
-      <c r="Z122" s="14"/>
-      <c r="AA122" s="14"/>
-      <c r="AB122" s="15"/>
-      <c r="AD122" s="18"/>
-      <c r="AE122" s="19"/>
-      <c r="AF122" s="19"/>
-      <c r="AG122" s="19"/>
-      <c r="AH122" s="19"/>
-      <c r="AI122" s="19"/>
-      <c r="AJ122" s="19"/>
-      <c r="AK122" s="19"/>
-      <c r="AL122" s="19"/>
-      <c r="AM122" s="19"/>
-      <c r="AN122" s="19"/>
-      <c r="AO122" s="19"/>
-      <c r="AP122" s="19"/>
-      <c r="AQ122" s="19"/>
-      <c r="AR122" s="19"/>
-      <c r="AS122" s="19"/>
-      <c r="AT122" s="19"/>
-      <c r="AU122" s="19"/>
-      <c r="AV122" s="19"/>
-      <c r="AW122" s="19"/>
-      <c r="AX122" s="19"/>
-      <c r="AY122" s="19"/>
-      <c r="AZ122" s="19"/>
-      <c r="BA122" s="19"/>
-      <c r="BB122" s="19"/>
-      <c r="BC122" s="20"/>
-    </row>
-    <row r="123" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C123" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19"/>
-      <c r="N123" s="19"/>
-      <c r="O123" s="19"/>
-      <c r="P123" s="19"/>
-      <c r="Q123" s="19"/>
-      <c r="R123" s="19"/>
-      <c r="S123" s="19"/>
-      <c r="T123" s="19"/>
-      <c r="U123" s="19"/>
-      <c r="V123" s="19"/>
-      <c r="W123" s="19"/>
-      <c r="X123" s="19"/>
-      <c r="Y123" s="19"/>
-      <c r="Z123" s="19"/>
-      <c r="AA123" s="19"/>
-      <c r="AB123" s="20"/>
-      <c r="AD123" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE123" s="19"/>
-      <c r="AF123" s="19"/>
-      <c r="AG123" s="19"/>
-      <c r="AH123" s="19"/>
-      <c r="AI123" s="19"/>
-      <c r="AJ123" s="19"/>
-      <c r="AK123" s="19"/>
-      <c r="AL123" s="19"/>
-      <c r="AM123" s="19"/>
-      <c r="AN123" s="19"/>
-      <c r="AO123" s="19"/>
-      <c r="AP123" s="19"/>
-      <c r="AQ123" s="19"/>
-      <c r="AR123" s="19"/>
-      <c r="AS123" s="19"/>
-      <c r="AT123" s="19"/>
-      <c r="AU123" s="19"/>
-      <c r="AV123" s="19"/>
-      <c r="AW123" s="19"/>
-      <c r="AX123" s="19"/>
-      <c r="AY123" s="19"/>
-      <c r="AZ123" s="19"/>
-      <c r="BA123" s="19"/>
-      <c r="BB123" s="19"/>
-      <c r="BC123" s="20"/>
-    </row>
-    <row r="124" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C124" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
-      <c r="N124" s="19"/>
-      <c r="O124" s="19"/>
-      <c r="P124" s="19"/>
-      <c r="Q124" s="19"/>
-      <c r="R124" s="19"/>
-      <c r="S124" s="19"/>
-      <c r="T124" s="19"/>
-      <c r="U124" s="19"/>
-      <c r="V124" s="19"/>
-      <c r="W124" s="19"/>
-      <c r="X124" s="19"/>
-      <c r="Y124" s="19"/>
-      <c r="Z124" s="19"/>
-      <c r="AA124" s="19"/>
-      <c r="AB124" s="20"/>
-      <c r="AD124" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE124" s="14"/>
-      <c r="AF124" s="14"/>
-      <c r="AG124" s="14"/>
-      <c r="AH124" s="14"/>
-      <c r="AI124" s="14"/>
-      <c r="AJ124" s="14"/>
-      <c r="AK124" s="14"/>
-      <c r="AL124" s="14"/>
-      <c r="AM124" s="14"/>
-      <c r="AN124" s="14"/>
-      <c r="AO124" s="14"/>
-      <c r="AP124" s="14"/>
-      <c r="AQ124" s="14"/>
-      <c r="AR124" s="14"/>
-      <c r="AS124" s="14"/>
-      <c r="AT124" s="14"/>
-      <c r="AU124" s="14"/>
-      <c r="AV124" s="14"/>
-      <c r="AW124" s="14"/>
-      <c r="AX124" s="14"/>
-      <c r="AY124" s="14"/>
-      <c r="AZ124" s="14"/>
-      <c r="BA124" s="14"/>
-      <c r="BB124" s="14"/>
-      <c r="BC124" s="15"/>
-    </row>
-    <row r="125" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C125" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19"/>
-      <c r="N125" s="19"/>
-      <c r="O125" s="19"/>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="19"/>
-      <c r="R125" s="19"/>
-      <c r="S125" s="19"/>
-      <c r="T125" s="19"/>
-      <c r="U125" s="19"/>
-      <c r="V125" s="19"/>
-      <c r="W125" s="19"/>
-      <c r="X125" s="19"/>
-      <c r="Y125" s="19"/>
-      <c r="Z125" s="19"/>
-      <c r="AA125" s="19"/>
-      <c r="AB125" s="20"/>
-      <c r="AD125" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE125" s="19"/>
-      <c r="AF125" s="19"/>
-      <c r="AG125" s="19"/>
-      <c r="AH125" s="19"/>
-      <c r="AI125" s="19"/>
-      <c r="AJ125" s="19"/>
-      <c r="AK125" s="19"/>
-      <c r="AL125" s="19"/>
-      <c r="AM125" s="19"/>
-      <c r="AN125" s="19"/>
-      <c r="AO125" s="19"/>
-      <c r="AP125" s="19"/>
-      <c r="AQ125" s="19"/>
-      <c r="AR125" s="19"/>
-      <c r="AS125" s="19"/>
-      <c r="AT125" s="19"/>
-      <c r="AU125" s="19"/>
-      <c r="AV125" s="19"/>
-      <c r="AW125" s="19"/>
-      <c r="AX125" s="19"/>
-      <c r="AY125" s="19"/>
-      <c r="AZ125" s="19"/>
-      <c r="BA125" s="19"/>
-      <c r="BB125" s="19"/>
-      <c r="BC125" s="20"/>
-    </row>
-    <row r="126" spans="3:55" x14ac:dyDescent="0.15">
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5"/>
+      <c r="X124" s="5"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="5"/>
+      <c r="AA124" s="5"/>
+      <c r="AB124" s="6"/>
+      <c r="AD124" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE124" s="27"/>
+      <c r="AF124" s="27"/>
+      <c r="AG124" s="27"/>
+      <c r="AH124" s="27"/>
+      <c r="AI124" s="27"/>
+      <c r="AJ124" s="27"/>
+      <c r="AK124" s="27"/>
+      <c r="AL124" s="27"/>
+      <c r="AM124" s="27"/>
+      <c r="AN124" s="5"/>
+      <c r="AO124" s="5"/>
+      <c r="AP124" s="5"/>
+      <c r="AQ124" s="5"/>
+      <c r="AR124" s="5"/>
+      <c r="AS124" s="5"/>
+      <c r="AT124" s="5"/>
+      <c r="AU124" s="5"/>
+      <c r="AV124" s="5"/>
+      <c r="AW124" s="5"/>
+      <c r="AX124" s="5"/>
+      <c r="AY124" s="5"/>
+      <c r="AZ124" s="5"/>
+      <c r="BA124" s="5"/>
+      <c r="BB124" s="5"/>
+      <c r="BC124" s="6"/>
+    </row>
+    <row r="125" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C125" s="7"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="8"/>
+      <c r="W125" s="8"/>
+      <c r="X125" s="8"/>
+      <c r="Y125" s="8"/>
+      <c r="Z125" s="8"/>
+      <c r="AA125" s="8"/>
+      <c r="AB125" s="9"/>
+      <c r="AD125" s="7"/>
+      <c r="AE125" s="8"/>
+      <c r="AF125" s="8"/>
+      <c r="AG125" s="8"/>
+      <c r="AH125" s="8"/>
+      <c r="AI125" s="8"/>
+      <c r="AJ125" s="8"/>
+      <c r="AK125" s="8"/>
+      <c r="AL125" s="8"/>
+      <c r="AM125" s="8"/>
+      <c r="AN125" s="8"/>
+      <c r="AO125" s="8"/>
+      <c r="AP125" s="8"/>
+      <c r="AQ125" s="8"/>
+      <c r="AR125" s="8"/>
+      <c r="AS125" s="8"/>
+      <c r="AT125" s="8"/>
+      <c r="AU125" s="8"/>
+      <c r="AV125" s="8"/>
+      <c r="AW125" s="8"/>
+      <c r="AX125" s="8"/>
+      <c r="AY125" s="8"/>
+      <c r="AZ125" s="8"/>
+      <c r="BA125" s="8"/>
+      <c r="BB125" s="8"/>
+      <c r="BC125" s="9"/>
+    </row>
+    <row r="126" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C126" s="18" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -5652,7 +5280,7 @@
       <c r="AA126" s="19"/>
       <c r="AB126" s="20"/>
       <c r="AD126" s="18" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AE126" s="19"/>
       <c r="AF126" s="19"/>
@@ -5680,9 +5308,9 @@
       <c r="BB126" s="19"/>
       <c r="BC126" s="20"/>
     </row>
-    <row r="127" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C127" s="18" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -5710,7 +5338,7 @@
       <c r="AA127" s="19"/>
       <c r="AB127" s="20"/>
       <c r="AD127" s="18" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="AE127" s="19"/>
       <c r="AF127" s="19"/>
@@ -5738,9 +5366,9 @@
       <c r="BB127" s="19"/>
       <c r="BC127" s="20"/>
     </row>
-    <row r="128" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C128" s="18" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
@@ -5768,7 +5396,7 @@
       <c r="AA128" s="19"/>
       <c r="AB128" s="20"/>
       <c r="AD128" s="18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AE128" s="19"/>
       <c r="AF128" s="19"/>
@@ -5796,37 +5424,37 @@
       <c r="BB128" s="19"/>
       <c r="BC128" s="20"/>
     </row>
-    <row r="129" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C129" s="18" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D129" s="19"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="16"/>
-      <c r="R129" s="16"/>
-      <c r="S129" s="16"/>
-      <c r="T129" s="16"/>
-      <c r="U129" s="16"/>
-      <c r="V129" s="16"/>
-      <c r="W129" s="16"/>
-      <c r="X129" s="16"/>
-      <c r="Y129" s="16"/>
-      <c r="Z129" s="16"/>
-      <c r="AA129" s="16"/>
-      <c r="AB129" s="17"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="19"/>
+      <c r="U129" s="19"/>
+      <c r="V129" s="19"/>
+      <c r="W129" s="19"/>
+      <c r="X129" s="19"/>
+      <c r="Y129" s="19"/>
+      <c r="Z129" s="19"/>
+      <c r="AA129" s="19"/>
+      <c r="AB129" s="20"/>
       <c r="AD129" s="18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AE129" s="19"/>
       <c r="AF129" s="19"/>
@@ -5854,7 +5482,7 @@
       <c r="BB129" s="19"/>
       <c r="BC129" s="20"/>
     </row>
-    <row r="130" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C130" s="18"/>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
@@ -5881,9 +5509,7 @@
       <c r="Z130" s="19"/>
       <c r="AA130" s="19"/>
       <c r="AB130" s="20"/>
-      <c r="AD130" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="AD130" s="18"/>
       <c r="AE130" s="19"/>
       <c r="AF130" s="19"/>
       <c r="AG130" s="19"/>
@@ -5910,95 +5536,95 @@
       <c r="BB130" s="19"/>
       <c r="BC130" s="20"/>
     </row>
-    <row r="131" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C131" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="24"/>
-      <c r="O131" s="24"/>
-      <c r="P131" s="24"/>
-      <c r="Q131" s="24"/>
-      <c r="R131" s="24"/>
-      <c r="S131" s="24"/>
-      <c r="T131" s="24"/>
-      <c r="U131" s="24"/>
-      <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-      <c r="Y131" s="24"/>
-      <c r="Z131" s="24"/>
-      <c r="AA131" s="24"/>
-      <c r="AB131" s="25"/>
-      <c r="AD131" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE131" s="19"/>
-      <c r="AF131" s="16"/>
-      <c r="AG131" s="16"/>
-      <c r="AH131" s="16"/>
-      <c r="AI131" s="16"/>
-      <c r="AJ131" s="16"/>
-      <c r="AK131" s="16"/>
-      <c r="AL131" s="16"/>
-      <c r="AM131" s="16"/>
-      <c r="AN131" s="16"/>
-      <c r="AO131" s="16"/>
-      <c r="AP131" s="16"/>
-      <c r="AQ131" s="16"/>
-      <c r="AR131" s="16"/>
-      <c r="AS131" s="16"/>
-      <c r="AT131" s="16"/>
-      <c r="AU131" s="16"/>
-      <c r="AV131" s="16"/>
-      <c r="AW131" s="16"/>
-      <c r="AX131" s="16"/>
-      <c r="AY131" s="16"/>
-      <c r="AZ131" s="16"/>
-      <c r="BA131" s="16"/>
-      <c r="BB131" s="16"/>
-      <c r="BC131" s="17"/>
-    </row>
-    <row r="132" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C131" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+      <c r="R131" s="14"/>
+      <c r="S131" s="14"/>
+      <c r="T131" s="14"/>
+      <c r="U131" s="14"/>
+      <c r="V131" s="14"/>
+      <c r="W131" s="14"/>
+      <c r="X131" s="14"/>
+      <c r="Y131" s="14"/>
+      <c r="Z131" s="14"/>
+      <c r="AA131" s="14"/>
+      <c r="AB131" s="15"/>
+      <c r="AD131" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE131" s="14"/>
+      <c r="AF131" s="14"/>
+      <c r="AG131" s="14"/>
+      <c r="AH131" s="14"/>
+      <c r="AI131" s="14"/>
+      <c r="AJ131" s="14"/>
+      <c r="AK131" s="14"/>
+      <c r="AL131" s="14"/>
+      <c r="AM131" s="14"/>
+      <c r="AN131" s="14"/>
+      <c r="AO131" s="14"/>
+      <c r="AP131" s="14"/>
+      <c r="AQ131" s="14"/>
+      <c r="AR131" s="14"/>
+      <c r="AS131" s="14"/>
+      <c r="AT131" s="14"/>
+      <c r="AU131" s="14"/>
+      <c r="AV131" s="14"/>
+      <c r="AW131" s="14"/>
+      <c r="AX131" s="14"/>
+      <c r="AY131" s="14"/>
+      <c r="AZ131" s="14"/>
+      <c r="BA131" s="14"/>
+      <c r="BB131" s="14"/>
+      <c r="BC131" s="15"/>
+    </row>
+    <row r="132" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C132" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="16"/>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="16"/>
-      <c r="R132" s="16"/>
-      <c r="S132" s="16"/>
-      <c r="T132" s="16"/>
-      <c r="U132" s="16"/>
-      <c r="V132" s="16"/>
-      <c r="W132" s="16"/>
-      <c r="X132" s="16"/>
-      <c r="Y132" s="16"/>
-      <c r="Z132" s="16"/>
-      <c r="AA132" s="16"/>
-      <c r="AB132" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="19"/>
+      <c r="U132" s="19"/>
+      <c r="V132" s="19"/>
+      <c r="W132" s="19"/>
+      <c r="X132" s="19"/>
+      <c r="Y132" s="19"/>
+      <c r="Z132" s="19"/>
+      <c r="AA132" s="19"/>
+      <c r="AB132" s="20"/>
       <c r="AD132" s="18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE132" s="19"/>
       <c r="AF132" s="19"/>
@@ -6026,9 +5652,12 @@
       <c r="BB132" s="19"/>
       <c r="BC132" s="20"/>
     </row>
-    <row r="133" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>93</v>
+      </c>
       <c r="C133" s="18" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
@@ -6055,7 +5684,9 @@
       <c r="Z133" s="19"/>
       <c r="AA133" s="19"/>
       <c r="AB133" s="20"/>
-      <c r="AD133" s="18"/>
+      <c r="AD133" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="AE133" s="19"/>
       <c r="AF133" s="19"/>
       <c r="AG133" s="19"/>
@@ -6082,38 +5713,39 @@
       <c r="BB133" s="19"/>
       <c r="BC133" s="20"/>
     </row>
-    <row r="134" spans="3:55" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
       <c r="C134" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="19"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="19"/>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="19"/>
-      <c r="W134" s="19"/>
-      <c r="X134" s="19"/>
-      <c r="Y134" s="19"/>
-      <c r="Z134" s="19"/>
-      <c r="AA134" s="19"/>
-      <c r="AB134" s="20"/>
-      <c r="AD134" s="18" t="s">
-        <v>44</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+      <c r="O134" s="14"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="14"/>
+      <c r="R134" s="14"/>
+      <c r="S134" s="14"/>
+      <c r="T134" s="14"/>
+      <c r="U134" s="14"/>
+      <c r="V134" s="14"/>
+      <c r="W134" s="14"/>
+      <c r="X134" s="14"/>
+      <c r="Y134" s="14"/>
+      <c r="Z134" s="14"/>
+      <c r="AA134" s="14"/>
+      <c r="AB134" s="15"/>
+      <c r="AD134" s="18"/>
       <c r="AE134" s="19"/>
       <c r="AF134" s="19"/>
       <c r="AG134" s="19"/>
@@ -6140,35 +5772,37 @@
       <c r="BB134" s="19"/>
       <c r="BC134" s="20"/>
     </row>
-    <row r="135" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C135" s="7"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-      <c r="Q135" s="8"/>
-      <c r="R135" s="8"/>
-      <c r="S135" s="8"/>
-      <c r="T135" s="8"/>
-      <c r="U135" s="8"/>
-      <c r="V135" s="8"/>
-      <c r="W135" s="8"/>
-      <c r="X135" s="8"/>
-      <c r="Y135" s="8"/>
-      <c r="Z135" s="8"/>
-      <c r="AA135" s="8"/>
-      <c r="AB135" s="9"/>
+    <row r="135" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C135" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="19"/>
+      <c r="U135" s="19"/>
+      <c r="V135" s="19"/>
+      <c r="W135" s="19"/>
+      <c r="X135" s="19"/>
+      <c r="Y135" s="19"/>
+      <c r="Z135" s="19"/>
+      <c r="AA135" s="19"/>
+      <c r="AB135" s="20"/>
       <c r="AD135" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE135" s="19"/>
       <c r="AF135" s="19"/>
@@ -6196,92 +5830,96 @@
       <c r="BB135" s="19"/>
       <c r="BC135" s="20"/>
     </row>
-    <row r="136" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C136" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
-      <c r="P136" s="8"/>
-      <c r="Q136" s="8"/>
-      <c r="R136" s="8"/>
-      <c r="S136" s="8"/>
-      <c r="T136" s="8"/>
-      <c r="U136" s="8"/>
-      <c r="V136" s="8"/>
-      <c r="W136" s="8"/>
-      <c r="X136" s="8"/>
-      <c r="Y136" s="8"/>
-      <c r="Z136" s="8"/>
-      <c r="AA136" s="8"/>
-      <c r="AB136" s="9"/>
-      <c r="AD136" s="18"/>
-      <c r="AE136" s="19"/>
-      <c r="AF136" s="19"/>
-      <c r="AG136" s="19"/>
-      <c r="AH136" s="19"/>
-      <c r="AI136" s="19"/>
-      <c r="AJ136" s="19"/>
-      <c r="AK136" s="19"/>
-      <c r="AL136" s="19"/>
-      <c r="AM136" s="19"/>
-      <c r="AN136" s="19"/>
-      <c r="AO136" s="19"/>
-      <c r="AP136" s="19"/>
-      <c r="AQ136" s="19"/>
-      <c r="AR136" s="19"/>
-      <c r="AS136" s="19"/>
-      <c r="AT136" s="19"/>
-      <c r="AU136" s="19"/>
-      <c r="AV136" s="19"/>
-      <c r="AW136" s="19"/>
-      <c r="AX136" s="19"/>
-      <c r="AY136" s="19"/>
-      <c r="AZ136" s="19"/>
-      <c r="BA136" s="19"/>
-      <c r="BB136" s="19"/>
-      <c r="BC136" s="20"/>
-    </row>
-    <row r="137" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C137" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="8"/>
-      <c r="S137" s="8"/>
-      <c r="T137" s="8"/>
-      <c r="U137" s="8"/>
-      <c r="V137" s="8"/>
-      <c r="W137" s="8"/>
-      <c r="X137" s="8"/>
-      <c r="Y137" s="8"/>
-      <c r="Z137" s="8"/>
-      <c r="AA137" s="8"/>
-      <c r="AB137" s="9"/>
-      <c r="AD137" s="18"/>
+    <row r="136" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C136" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="19"/>
+      <c r="U136" s="19"/>
+      <c r="V136" s="19"/>
+      <c r="W136" s="19"/>
+      <c r="X136" s="19"/>
+      <c r="Y136" s="19"/>
+      <c r="Z136" s="19"/>
+      <c r="AA136" s="19"/>
+      <c r="AB136" s="20"/>
+      <c r="AD136" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE136" s="14"/>
+      <c r="AF136" s="14"/>
+      <c r="AG136" s="14"/>
+      <c r="AH136" s="14"/>
+      <c r="AI136" s="14"/>
+      <c r="AJ136" s="14"/>
+      <c r="AK136" s="14"/>
+      <c r="AL136" s="14"/>
+      <c r="AM136" s="14"/>
+      <c r="AN136" s="14"/>
+      <c r="AO136" s="14"/>
+      <c r="AP136" s="14"/>
+      <c r="AQ136" s="14"/>
+      <c r="AR136" s="14"/>
+      <c r="AS136" s="14"/>
+      <c r="AT136" s="14"/>
+      <c r="AU136" s="14"/>
+      <c r="AV136" s="14"/>
+      <c r="AW136" s="14"/>
+      <c r="AX136" s="14"/>
+      <c r="AY136" s="14"/>
+      <c r="AZ136" s="14"/>
+      <c r="BA136" s="14"/>
+      <c r="BB136" s="14"/>
+      <c r="BC136" s="15"/>
+    </row>
+    <row r="137" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C137" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="19"/>
+      <c r="U137" s="19"/>
+      <c r="V137" s="19"/>
+      <c r="W137" s="19"/>
+      <c r="X137" s="19"/>
+      <c r="Y137" s="19"/>
+      <c r="Z137" s="19"/>
+      <c r="AA137" s="19"/>
+      <c r="AB137" s="20"/>
+      <c r="AD137" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="AE137" s="19"/>
       <c r="AF137" s="19"/>
       <c r="AG137" s="19"/>
@@ -6308,59 +5946,774 @@
       <c r="BB137" s="19"/>
       <c r="BC137" s="20"/>
     </row>
-    <row r="138" spans="3:55" x14ac:dyDescent="0.15">
-      <c r="C138" s="10"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="11"/>
-      <c r="O138" s="11"/>
-      <c r="P138" s="11"/>
-      <c r="Q138" s="11"/>
-      <c r="R138" s="11"/>
-      <c r="S138" s="11"/>
-      <c r="T138" s="11"/>
-      <c r="U138" s="11"/>
-      <c r="V138" s="11"/>
-      <c r="W138" s="11"/>
-      <c r="X138" s="11"/>
-      <c r="Y138" s="11"/>
-      <c r="Z138" s="11"/>
-      <c r="AA138" s="11"/>
-      <c r="AB138" s="12"/>
-      <c r="AD138" s="21"/>
-      <c r="AE138" s="22"/>
-      <c r="AF138" s="22"/>
-      <c r="AG138" s="22"/>
-      <c r="AH138" s="22"/>
-      <c r="AI138" s="22"/>
-      <c r="AJ138" s="22"/>
-      <c r="AK138" s="22"/>
-      <c r="AL138" s="22"/>
-      <c r="AM138" s="22"/>
-      <c r="AN138" s="22"/>
-      <c r="AO138" s="22"/>
-      <c r="AP138" s="22"/>
-      <c r="AQ138" s="22"/>
-      <c r="AR138" s="22"/>
-      <c r="AS138" s="22"/>
-      <c r="AT138" s="22"/>
-      <c r="AU138" s="22"/>
-      <c r="AV138" s="22"/>
-      <c r="AW138" s="22"/>
-      <c r="AX138" s="22"/>
-      <c r="AY138" s="22"/>
-      <c r="AZ138" s="22"/>
-      <c r="BA138" s="22"/>
-      <c r="BB138" s="22"/>
-      <c r="BC138" s="23"/>
+    <row r="138" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C138" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
+      <c r="S138" s="19"/>
+      <c r="T138" s="19"/>
+      <c r="U138" s="19"/>
+      <c r="V138" s="19"/>
+      <c r="W138" s="19"/>
+      <c r="X138" s="19"/>
+      <c r="Y138" s="19"/>
+      <c r="Z138" s="19"/>
+      <c r="AA138" s="19"/>
+      <c r="AB138" s="20"/>
+      <c r="AD138" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE138" s="19"/>
+      <c r="AF138" s="19"/>
+      <c r="AG138" s="19"/>
+      <c r="AH138" s="19"/>
+      <c r="AI138" s="19"/>
+      <c r="AJ138" s="19"/>
+      <c r="AK138" s="19"/>
+      <c r="AL138" s="19"/>
+      <c r="AM138" s="19"/>
+      <c r="AN138" s="19"/>
+      <c r="AO138" s="19"/>
+      <c r="AP138" s="19"/>
+      <c r="AQ138" s="19"/>
+      <c r="AR138" s="19"/>
+      <c r="AS138" s="19"/>
+      <c r="AT138" s="19"/>
+      <c r="AU138" s="19"/>
+      <c r="AV138" s="19"/>
+      <c r="AW138" s="19"/>
+      <c r="AX138" s="19"/>
+      <c r="AY138" s="19"/>
+      <c r="AZ138" s="19"/>
+      <c r="BA138" s="19"/>
+      <c r="BB138" s="19"/>
+      <c r="BC138" s="20"/>
+    </row>
+    <row r="139" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C139" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="19"/>
+      <c r="V139" s="19"/>
+      <c r="W139" s="19"/>
+      <c r="X139" s="19"/>
+      <c r="Y139" s="19"/>
+      <c r="Z139" s="19"/>
+      <c r="AA139" s="19"/>
+      <c r="AB139" s="20"/>
+      <c r="AD139" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE139" s="19"/>
+      <c r="AF139" s="19"/>
+      <c r="AG139" s="19"/>
+      <c r="AH139" s="19"/>
+      <c r="AI139" s="19"/>
+      <c r="AJ139" s="19"/>
+      <c r="AK139" s="19"/>
+      <c r="AL139" s="19"/>
+      <c r="AM139" s="19"/>
+      <c r="AN139" s="19"/>
+      <c r="AO139" s="19"/>
+      <c r="AP139" s="19"/>
+      <c r="AQ139" s="19"/>
+      <c r="AR139" s="19"/>
+      <c r="AS139" s="19"/>
+      <c r="AT139" s="19"/>
+      <c r="AU139" s="19"/>
+      <c r="AV139" s="19"/>
+      <c r="AW139" s="19"/>
+      <c r="AX139" s="19"/>
+      <c r="AY139" s="19"/>
+      <c r="AZ139" s="19"/>
+      <c r="BA139" s="19"/>
+      <c r="BB139" s="19"/>
+      <c r="BC139" s="20"/>
+    </row>
+    <row r="140" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C140" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
+      <c r="S140" s="19"/>
+      <c r="T140" s="19"/>
+      <c r="U140" s="19"/>
+      <c r="V140" s="19"/>
+      <c r="W140" s="19"/>
+      <c r="X140" s="19"/>
+      <c r="Y140" s="19"/>
+      <c r="Z140" s="19"/>
+      <c r="AA140" s="19"/>
+      <c r="AB140" s="20"/>
+      <c r="AD140" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE140" s="19"/>
+      <c r="AF140" s="19"/>
+      <c r="AG140" s="19"/>
+      <c r="AH140" s="19"/>
+      <c r="AI140" s="19"/>
+      <c r="AJ140" s="19"/>
+      <c r="AK140" s="19"/>
+      <c r="AL140" s="19"/>
+      <c r="AM140" s="19"/>
+      <c r="AN140" s="19"/>
+      <c r="AO140" s="19"/>
+      <c r="AP140" s="19"/>
+      <c r="AQ140" s="19"/>
+      <c r="AR140" s="19"/>
+      <c r="AS140" s="19"/>
+      <c r="AT140" s="19"/>
+      <c r="AU140" s="19"/>
+      <c r="AV140" s="19"/>
+      <c r="AW140" s="19"/>
+      <c r="AX140" s="19"/>
+      <c r="AY140" s="19"/>
+      <c r="AZ140" s="19"/>
+      <c r="BA140" s="19"/>
+      <c r="BB140" s="19"/>
+      <c r="BC140" s="20"/>
+    </row>
+    <row r="141" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C141" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D141" s="19"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
+      <c r="Q141" s="16"/>
+      <c r="R141" s="16"/>
+      <c r="S141" s="16"/>
+      <c r="T141" s="16"/>
+      <c r="U141" s="16"/>
+      <c r="V141" s="16"/>
+      <c r="W141" s="16"/>
+      <c r="X141" s="16"/>
+      <c r="Y141" s="16"/>
+      <c r="Z141" s="16"/>
+      <c r="AA141" s="16"/>
+      <c r="AB141" s="17"/>
+      <c r="AD141" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE141" s="19"/>
+      <c r="AF141" s="19"/>
+      <c r="AG141" s="19"/>
+      <c r="AH141" s="19"/>
+      <c r="AI141" s="19"/>
+      <c r="AJ141" s="19"/>
+      <c r="AK141" s="19"/>
+      <c r="AL141" s="19"/>
+      <c r="AM141" s="19"/>
+      <c r="AN141" s="19"/>
+      <c r="AO141" s="19"/>
+      <c r="AP141" s="19"/>
+      <c r="AQ141" s="19"/>
+      <c r="AR141" s="19"/>
+      <c r="AS141" s="19"/>
+      <c r="AT141" s="19"/>
+      <c r="AU141" s="19"/>
+      <c r="AV141" s="19"/>
+      <c r="AW141" s="19"/>
+      <c r="AX141" s="19"/>
+      <c r="AY141" s="19"/>
+      <c r="AZ141" s="19"/>
+      <c r="BA141" s="19"/>
+      <c r="BB141" s="19"/>
+      <c r="BC141" s="20"/>
+    </row>
+    <row r="142" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C142" s="18"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="19"/>
+      <c r="U142" s="19"/>
+      <c r="V142" s="19"/>
+      <c r="W142" s="19"/>
+      <c r="X142" s="19"/>
+      <c r="Y142" s="19"/>
+      <c r="Z142" s="19"/>
+      <c r="AA142" s="19"/>
+      <c r="AB142" s="20"/>
+      <c r="AD142" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE142" s="19"/>
+      <c r="AF142" s="19"/>
+      <c r="AG142" s="19"/>
+      <c r="AH142" s="19"/>
+      <c r="AI142" s="19"/>
+      <c r="AJ142" s="19"/>
+      <c r="AK142" s="19"/>
+      <c r="AL142" s="19"/>
+      <c r="AM142" s="19"/>
+      <c r="AN142" s="19"/>
+      <c r="AO142" s="19"/>
+      <c r="AP142" s="19"/>
+      <c r="AQ142" s="19"/>
+      <c r="AR142" s="19"/>
+      <c r="AS142" s="19"/>
+      <c r="AT142" s="19"/>
+      <c r="AU142" s="19"/>
+      <c r="AV142" s="19"/>
+      <c r="AW142" s="19"/>
+      <c r="AX142" s="19"/>
+      <c r="AY142" s="19"/>
+      <c r="AZ142" s="19"/>
+      <c r="BA142" s="19"/>
+      <c r="BB142" s="19"/>
+      <c r="BC142" s="20"/>
+    </row>
+    <row r="143" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>95</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="24"/>
+      <c r="O143" s="24"/>
+      <c r="P143" s="24"/>
+      <c r="Q143" s="24"/>
+      <c r="R143" s="24"/>
+      <c r="S143" s="24"/>
+      <c r="T143" s="24"/>
+      <c r="U143" s="24"/>
+      <c r="V143" s="24"/>
+      <c r="W143" s="24"/>
+      <c r="X143" s="24"/>
+      <c r="Y143" s="24"/>
+      <c r="Z143" s="24"/>
+      <c r="AA143" s="24"/>
+      <c r="AB143" s="25"/>
+      <c r="AD143" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE143" s="19"/>
+      <c r="AF143" s="16"/>
+      <c r="AG143" s="16"/>
+      <c r="AH143" s="16"/>
+      <c r="AI143" s="16"/>
+      <c r="AJ143" s="16"/>
+      <c r="AK143" s="16"/>
+      <c r="AL143" s="16"/>
+      <c r="AM143" s="16"/>
+      <c r="AN143" s="16"/>
+      <c r="AO143" s="16"/>
+      <c r="AP143" s="16"/>
+      <c r="AQ143" s="16"/>
+      <c r="AR143" s="16"/>
+      <c r="AS143" s="16"/>
+      <c r="AT143" s="16"/>
+      <c r="AU143" s="16"/>
+      <c r="AV143" s="16"/>
+      <c r="AW143" s="16"/>
+      <c r="AX143" s="16"/>
+      <c r="AY143" s="16"/>
+      <c r="AZ143" s="16"/>
+      <c r="BA143" s="16"/>
+      <c r="BB143" s="16"/>
+      <c r="BC143" s="17"/>
+    </row>
+    <row r="144" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B144" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
+      <c r="N144" s="16"/>
+      <c r="O144" s="16"/>
+      <c r="P144" s="16"/>
+      <c r="Q144" s="16"/>
+      <c r="R144" s="16"/>
+      <c r="S144" s="16"/>
+      <c r="T144" s="16"/>
+      <c r="U144" s="16"/>
+      <c r="V144" s="16"/>
+      <c r="W144" s="16"/>
+      <c r="X144" s="16"/>
+      <c r="Y144" s="16"/>
+      <c r="Z144" s="16"/>
+      <c r="AA144" s="16"/>
+      <c r="AB144" s="17"/>
+      <c r="AD144" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE144" s="19"/>
+      <c r="AF144" s="19"/>
+      <c r="AG144" s="19"/>
+      <c r="AH144" s="19"/>
+      <c r="AI144" s="19"/>
+      <c r="AJ144" s="19"/>
+      <c r="AK144" s="19"/>
+      <c r="AL144" s="19"/>
+      <c r="AM144" s="19"/>
+      <c r="AN144" s="19"/>
+      <c r="AO144" s="19"/>
+      <c r="AP144" s="19"/>
+      <c r="AQ144" s="19"/>
+      <c r="AR144" s="19"/>
+      <c r="AS144" s="19"/>
+      <c r="AT144" s="19"/>
+      <c r="AU144" s="19"/>
+      <c r="AV144" s="19"/>
+      <c r="AW144" s="19"/>
+      <c r="AX144" s="19"/>
+      <c r="AY144" s="19"/>
+      <c r="AZ144" s="19"/>
+      <c r="BA144" s="19"/>
+      <c r="BB144" s="19"/>
+      <c r="BC144" s="20"/>
+    </row>
+    <row r="145" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B145" t="s">
+        <v>97</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="19"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="19"/>
+      <c r="P145" s="19"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="19"/>
+      <c r="S145" s="19"/>
+      <c r="T145" s="19"/>
+      <c r="U145" s="19"/>
+      <c r="V145" s="19"/>
+      <c r="W145" s="19"/>
+      <c r="X145" s="19"/>
+      <c r="Y145" s="19"/>
+      <c r="Z145" s="19"/>
+      <c r="AA145" s="19"/>
+      <c r="AB145" s="20"/>
+      <c r="AD145" s="18"/>
+      <c r="AE145" s="19"/>
+      <c r="AF145" s="19"/>
+      <c r="AG145" s="19"/>
+      <c r="AH145" s="19"/>
+      <c r="AI145" s="19"/>
+      <c r="AJ145" s="19"/>
+      <c r="AK145" s="19"/>
+      <c r="AL145" s="19"/>
+      <c r="AM145" s="19"/>
+      <c r="AN145" s="19"/>
+      <c r="AO145" s="19"/>
+      <c r="AP145" s="19"/>
+      <c r="AQ145" s="19"/>
+      <c r="AR145" s="19"/>
+      <c r="AS145" s="19"/>
+      <c r="AT145" s="19"/>
+      <c r="AU145" s="19"/>
+      <c r="AV145" s="19"/>
+      <c r="AW145" s="19"/>
+      <c r="AX145" s="19"/>
+      <c r="AY145" s="19"/>
+      <c r="AZ145" s="19"/>
+      <c r="BA145" s="19"/>
+      <c r="BB145" s="19"/>
+      <c r="BC145" s="20"/>
+    </row>
+    <row r="146" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C146" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="19"/>
+      <c r="S146" s="19"/>
+      <c r="T146" s="19"/>
+      <c r="U146" s="19"/>
+      <c r="V146" s="19"/>
+      <c r="W146" s="19"/>
+      <c r="X146" s="19"/>
+      <c r="Y146" s="19"/>
+      <c r="Z146" s="19"/>
+      <c r="AA146" s="19"/>
+      <c r="AB146" s="20"/>
+      <c r="AD146" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE146" s="19"/>
+      <c r="AF146" s="19"/>
+      <c r="AG146" s="19"/>
+      <c r="AH146" s="19"/>
+      <c r="AI146" s="19"/>
+      <c r="AJ146" s="19"/>
+      <c r="AK146" s="19"/>
+      <c r="AL146" s="19"/>
+      <c r="AM146" s="19"/>
+      <c r="AN146" s="19"/>
+      <c r="AO146" s="19"/>
+      <c r="AP146" s="19"/>
+      <c r="AQ146" s="19"/>
+      <c r="AR146" s="19"/>
+      <c r="AS146" s="19"/>
+      <c r="AT146" s="19"/>
+      <c r="AU146" s="19"/>
+      <c r="AV146" s="19"/>
+      <c r="AW146" s="19"/>
+      <c r="AX146" s="19"/>
+      <c r="AY146" s="19"/>
+      <c r="AZ146" s="19"/>
+      <c r="BA146" s="19"/>
+      <c r="BB146" s="19"/>
+      <c r="BC146" s="20"/>
+    </row>
+    <row r="147" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C147" s="7"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="8"/>
+      <c r="W147" s="8"/>
+      <c r="X147" s="8"/>
+      <c r="Y147" s="8"/>
+      <c r="Z147" s="8"/>
+      <c r="AA147" s="8"/>
+      <c r="AB147" s="9"/>
+      <c r="AD147" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE147" s="19"/>
+      <c r="AF147" s="19"/>
+      <c r="AG147" s="19"/>
+      <c r="AH147" s="19"/>
+      <c r="AI147" s="19"/>
+      <c r="AJ147" s="19"/>
+      <c r="AK147" s="19"/>
+      <c r="AL147" s="19"/>
+      <c r="AM147" s="19"/>
+      <c r="AN147" s="19"/>
+      <c r="AO147" s="19"/>
+      <c r="AP147" s="19"/>
+      <c r="AQ147" s="19"/>
+      <c r="AR147" s="19"/>
+      <c r="AS147" s="19"/>
+      <c r="AT147" s="19"/>
+      <c r="AU147" s="19"/>
+      <c r="AV147" s="19"/>
+      <c r="AW147" s="19"/>
+      <c r="AX147" s="19"/>
+      <c r="AY147" s="19"/>
+      <c r="AZ147" s="19"/>
+      <c r="BA147" s="19"/>
+      <c r="BB147" s="19"/>
+      <c r="BC147" s="20"/>
+    </row>
+    <row r="148" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C148" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+      <c r="U148" s="8"/>
+      <c r="V148" s="8"/>
+      <c r="W148" s="8"/>
+      <c r="X148" s="8"/>
+      <c r="Y148" s="8"/>
+      <c r="Z148" s="8"/>
+      <c r="AA148" s="8"/>
+      <c r="AB148" s="9"/>
+      <c r="AD148" s="18"/>
+      <c r="AE148" s="19"/>
+      <c r="AF148" s="19"/>
+      <c r="AG148" s="19"/>
+      <c r="AH148" s="19"/>
+      <c r="AI148" s="19"/>
+      <c r="AJ148" s="19"/>
+      <c r="AK148" s="19"/>
+      <c r="AL148" s="19"/>
+      <c r="AM148" s="19"/>
+      <c r="AN148" s="19"/>
+      <c r="AO148" s="19"/>
+      <c r="AP148" s="19"/>
+      <c r="AQ148" s="19"/>
+      <c r="AR148" s="19"/>
+      <c r="AS148" s="19"/>
+      <c r="AT148" s="19"/>
+      <c r="AU148" s="19"/>
+      <c r="AV148" s="19"/>
+      <c r="AW148" s="19"/>
+      <c r="AX148" s="19"/>
+      <c r="AY148" s="19"/>
+      <c r="AZ148" s="19"/>
+      <c r="BA148" s="19"/>
+      <c r="BB148" s="19"/>
+      <c r="BC148" s="20"/>
+    </row>
+    <row r="149" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C149" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="8"/>
+      <c r="W149" s="8"/>
+      <c r="X149" s="8"/>
+      <c r="Y149" s="8"/>
+      <c r="Z149" s="8"/>
+      <c r="AA149" s="8"/>
+      <c r="AB149" s="9"/>
+      <c r="AD149" s="18"/>
+      <c r="AE149" s="19"/>
+      <c r="AF149" s="19"/>
+      <c r="AG149" s="19"/>
+      <c r="AH149" s="19"/>
+      <c r="AI149" s="19"/>
+      <c r="AJ149" s="19"/>
+      <c r="AK149" s="19"/>
+      <c r="AL149" s="19"/>
+      <c r="AM149" s="19"/>
+      <c r="AN149" s="19"/>
+      <c r="AO149" s="19"/>
+      <c r="AP149" s="19"/>
+      <c r="AQ149" s="19"/>
+      <c r="AR149" s="19"/>
+      <c r="AS149" s="19"/>
+      <c r="AT149" s="19"/>
+      <c r="AU149" s="19"/>
+      <c r="AV149" s="19"/>
+      <c r="AW149" s="19"/>
+      <c r="AX149" s="19"/>
+      <c r="AY149" s="19"/>
+      <c r="AZ149" s="19"/>
+      <c r="BA149" s="19"/>
+      <c r="BB149" s="19"/>
+      <c r="BC149" s="20"/>
+    </row>
+    <row r="150" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C150" s="10"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="11"/>
+      <c r="U150" s="11"/>
+      <c r="V150" s="11"/>
+      <c r="W150" s="11"/>
+      <c r="X150" s="11"/>
+      <c r="Y150" s="11"/>
+      <c r="Z150" s="11"/>
+      <c r="AA150" s="11"/>
+      <c r="AB150" s="12"/>
+      <c r="AD150" s="21"/>
+      <c r="AE150" s="22"/>
+      <c r="AF150" s="22"/>
+      <c r="AG150" s="22"/>
+      <c r="AH150" s="22"/>
+      <c r="AI150" s="22"/>
+      <c r="AJ150" s="22"/>
+      <c r="AK150" s="22"/>
+      <c r="AL150" s="22"/>
+      <c r="AM150" s="22"/>
+      <c r="AN150" s="22"/>
+      <c r="AO150" s="22"/>
+      <c r="AP150" s="22"/>
+      <c r="AQ150" s="22"/>
+      <c r="AR150" s="22"/>
+      <c r="AS150" s="22"/>
+      <c r="AT150" s="22"/>
+      <c r="AU150" s="22"/>
+      <c r="AV150" s="22"/>
+      <c r="AW150" s="22"/>
+      <c r="AX150" s="22"/>
+      <c r="AY150" s="22"/>
+      <c r="AZ150" s="22"/>
+      <c r="BA150" s="22"/>
+      <c r="BB150" s="22"/>
+      <c r="BC150" s="23"/>
+    </row>
+    <row r="152" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="153" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C153" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="154" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C154" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="155" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C155" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/◆At_Coder_メモ帳◆.xlsx
+++ b/◆At_Coder_メモ帳◆.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="125">
   <si>
     <t>初期化</t>
     <rPh sb="0" eb="3">
@@ -823,13 +823,7 @@
     <t xml:space="preserve">    for (nFoward = nBgn + 1; nFoward &lt; sColor.size(); nFoward++)</t>
   </si>
   <si>
-    <t xml:space="preserve">    while (nFoward &lt; sColor.size() &amp;&amp;</t>
-  </si>
-  <si>
     <t xml:space="preserve">      if (cColor != sColor[nFoward]) break;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           cColor == sColor[nFoward] )</t>
   </si>
   <si>
     <t xml:space="preserve">      nFoward++;</t>
@@ -901,16 +895,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①,②の命令を行う</t>
-    <rPh sb="4" eb="6">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(④のネスト中の if文の break 条件を while 条件に変更する)</t>
     <rPh sb="6" eb="7">
       <t>チュウ</t>
@@ -987,6 +971,51 @@
       <t>メイレイ</t>
     </rPh>
     <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    while ( nFoward &lt; sColor.size()  &amp;&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            sColor[nBgn] == sColor[nFoward] )</t>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <t>①の命令は不要のため廃止</t>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②の命令を行う</t>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③で nFoward の初期設定を行う</t>
+    <rPh sb="12" eb="14">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1557,11 +1586,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE155"/>
+  <dimension ref="A1:BE157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2714,7 +2741,7 @@
     </row>
     <row r="26" spans="2:55" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>75</v>
@@ -3011,17 +3038,17 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:30" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4309,9 +4336,7 @@
       <c r="Z97" s="8"/>
       <c r="AA97" s="8"/>
       <c r="AB97" s="9"/>
-      <c r="AD97" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="AD97" s="7"/>
       <c r="AE97" s="8"/>
       <c r="AF97" s="8"/>
       <c r="AG97" s="8"/>
@@ -4400,7 +4425,12 @@
       <c r="BC98" s="9"/>
     </row>
     <row r="99" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C99" s="7"/>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -4426,7 +4456,9 @@
       <c r="Z99" s="8"/>
       <c r="AA99" s="8"/>
       <c r="AB99" s="9"/>
-      <c r="AD99" s="7"/>
+      <c r="AD99" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="AE99" s="8"/>
       <c r="AF99" s="8"/>
       <c r="AG99" s="8"/>
@@ -4454,12 +4486,7 @@
       <c r="BC99" s="9"/>
     </row>
     <row r="100" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="C100" s="7"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -4485,9 +4512,7 @@
       <c r="Z100" s="8"/>
       <c r="AA100" s="8"/>
       <c r="AB100" s="9"/>
-      <c r="AD100" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="AD100" s="7"/>
       <c r="AE100" s="8"/>
       <c r="AF100" s="8"/>
       <c r="AG100" s="8"/>
@@ -4547,7 +4572,7 @@
       <c r="AA101" s="14"/>
       <c r="AB101" s="15"/>
       <c r="AD101" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AE101" s="14"/>
       <c r="AF101" s="14"/>
@@ -4577,7 +4602,7 @@
     </row>
     <row r="102" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C102" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="16"/>
@@ -4605,7 +4630,7 @@
       <c r="AA102" s="16"/>
       <c r="AB102" s="17"/>
       <c r="AD102" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AE102" s="14"/>
       <c r="AF102" s="14"/>
@@ -4663,7 +4688,7 @@
       <c r="AA103" s="8"/>
       <c r="AB103" s="9"/>
       <c r="AD103" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AE103" s="8"/>
       <c r="AF103" s="8"/>
@@ -4696,7 +4721,7 @@
         <v>97</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -4755,7 +4780,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4783,7 +4808,7 @@
       <c r="AA105" s="8"/>
       <c r="AB105" s="9"/>
       <c r="AD105" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AE105" s="8"/>
       <c r="AF105" s="8"/>
@@ -4871,7 +4896,7 @@
     </row>
     <row r="107" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C107" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4898,7 +4923,9 @@
       <c r="Z107" s="8"/>
       <c r="AA107" s="8"/>
       <c r="AB107" s="9"/>
-      <c r="AD107" s="7"/>
+      <c r="AD107" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="AE107" s="8"/>
       <c r="AF107" s="8"/>
       <c r="AG107" s="8"/>
@@ -4927,7 +4954,7 @@
     </row>
     <row r="108" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C108" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4955,7 +4982,7 @@
       <c r="AA108" s="8"/>
       <c r="AB108" s="9"/>
       <c r="AD108" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE108" s="8"/>
       <c r="AF108" s="8"/>
@@ -4984,9 +5011,7 @@
       <c r="BC108" s="9"/>
     </row>
     <row r="109" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C109" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C109" s="7"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
@@ -5012,9 +5037,7 @@
       <c r="Z109" s="8"/>
       <c r="AA109" s="8"/>
       <c r="AB109" s="9"/>
-      <c r="AD109" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="AD109" s="7"/>
       <c r="AE109" s="8"/>
       <c r="AF109" s="8"/>
       <c r="AG109" s="8"/>
@@ -5097,278 +5120,172 @@
     </row>
     <row r="112" spans="2:55" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C115" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C116" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C119" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
         <v>1</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C124" s="26" t="s">
+    <row r="126" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="C126" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5"/>
-      <c r="V124" s="5"/>
-      <c r="W124" s="5"/>
-      <c r="X124" s="5"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
-      <c r="AA124" s="5"/>
-      <c r="AB124" s="6"/>
-      <c r="AD124" s="26" t="s">
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="6"/>
+      <c r="AD126" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AE124" s="27"/>
-      <c r="AF124" s="27"/>
-      <c r="AG124" s="27"/>
-      <c r="AH124" s="27"/>
-      <c r="AI124" s="27"/>
-      <c r="AJ124" s="27"/>
-      <c r="AK124" s="27"/>
-      <c r="AL124" s="27"/>
-      <c r="AM124" s="27"/>
-      <c r="AN124" s="5"/>
-      <c r="AO124" s="5"/>
-      <c r="AP124" s="5"/>
-      <c r="AQ124" s="5"/>
-      <c r="AR124" s="5"/>
-      <c r="AS124" s="5"/>
-      <c r="AT124" s="5"/>
-      <c r="AU124" s="5"/>
-      <c r="AV124" s="5"/>
-      <c r="AW124" s="5"/>
-      <c r="AX124" s="5"/>
-      <c r="AY124" s="5"/>
-      <c r="AZ124" s="5"/>
-      <c r="BA124" s="5"/>
-      <c r="BB124" s="5"/>
-      <c r="BC124" s="6"/>
-    </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C125" s="7"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="8"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="8"/>
-      <c r="W125" s="8"/>
-      <c r="X125" s="8"/>
-      <c r="Y125" s="8"/>
-      <c r="Z125" s="8"/>
-      <c r="AA125" s="8"/>
-      <c r="AB125" s="9"/>
-      <c r="AD125" s="7"/>
-      <c r="AE125" s="8"/>
-      <c r="AF125" s="8"/>
-      <c r="AG125" s="8"/>
-      <c r="AH125" s="8"/>
-      <c r="AI125" s="8"/>
-      <c r="AJ125" s="8"/>
-      <c r="AK125" s="8"/>
-      <c r="AL125" s="8"/>
-      <c r="AM125" s="8"/>
-      <c r="AN125" s="8"/>
-      <c r="AO125" s="8"/>
-      <c r="AP125" s="8"/>
-      <c r="AQ125" s="8"/>
-      <c r="AR125" s="8"/>
-      <c r="AS125" s="8"/>
-      <c r="AT125" s="8"/>
-      <c r="AU125" s="8"/>
-      <c r="AV125" s="8"/>
-      <c r="AW125" s="8"/>
-      <c r="AX125" s="8"/>
-      <c r="AY125" s="8"/>
-      <c r="AZ125" s="8"/>
-      <c r="BA125" s="8"/>
-      <c r="BB125" s="8"/>
-      <c r="BC125" s="9"/>
-    </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C126" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
-      <c r="S126" s="19"/>
-      <c r="T126" s="19"/>
-      <c r="U126" s="19"/>
-      <c r="V126" s="19"/>
-      <c r="W126" s="19"/>
-      <c r="X126" s="19"/>
-      <c r="Y126" s="19"/>
-      <c r="Z126" s="19"/>
-      <c r="AA126" s="19"/>
-      <c r="AB126" s="20"/>
-      <c r="AD126" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE126" s="19"/>
-      <c r="AF126" s="19"/>
-      <c r="AG126" s="19"/>
-      <c r="AH126" s="19"/>
-      <c r="AI126" s="19"/>
-      <c r="AJ126" s="19"/>
-      <c r="AK126" s="19"/>
-      <c r="AL126" s="19"/>
-      <c r="AM126" s="19"/>
-      <c r="AN126" s="19"/>
-      <c r="AO126" s="19"/>
-      <c r="AP126" s="19"/>
-      <c r="AQ126" s="19"/>
-      <c r="AR126" s="19"/>
-      <c r="AS126" s="19"/>
-      <c r="AT126" s="19"/>
-      <c r="AU126" s="19"/>
-      <c r="AV126" s="19"/>
-      <c r="AW126" s="19"/>
-      <c r="AX126" s="19"/>
-      <c r="AY126" s="19"/>
-      <c r="AZ126" s="19"/>
-      <c r="BA126" s="19"/>
-      <c r="BB126" s="19"/>
-      <c r="BC126" s="20"/>
+      <c r="AE126" s="27"/>
+      <c r="AF126" s="27"/>
+      <c r="AG126" s="27"/>
+      <c r="AH126" s="27"/>
+      <c r="AI126" s="27"/>
+      <c r="AJ126" s="27"/>
+      <c r="AK126" s="27"/>
+      <c r="AL126" s="27"/>
+      <c r="AM126" s="27"/>
+      <c r="AN126" s="5"/>
+      <c r="AO126" s="5"/>
+      <c r="AP126" s="5"/>
+      <c r="AQ126" s="5"/>
+      <c r="AR126" s="5"/>
+      <c r="AS126" s="5"/>
+      <c r="AT126" s="5"/>
+      <c r="AU126" s="5"/>
+      <c r="AV126" s="5"/>
+      <c r="AW126" s="5"/>
+      <c r="AX126" s="5"/>
+      <c r="AY126" s="5"/>
+      <c r="AZ126" s="5"/>
+      <c r="BA126" s="5"/>
+      <c r="BB126" s="5"/>
+      <c r="BC126" s="6"/>
     </row>
     <row r="127" spans="1:55" x14ac:dyDescent="0.15">
-      <c r="C127" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
-      <c r="N127" s="19"/>
-      <c r="O127" s="19"/>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="19"/>
-      <c r="R127" s="19"/>
-      <c r="S127" s="19"/>
-      <c r="T127" s="19"/>
-      <c r="U127" s="19"/>
-      <c r="V127" s="19"/>
-      <c r="W127" s="19"/>
-      <c r="X127" s="19"/>
-      <c r="Y127" s="19"/>
-      <c r="Z127" s="19"/>
-      <c r="AA127" s="19"/>
-      <c r="AB127" s="20"/>
-      <c r="AD127" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE127" s="19"/>
-      <c r="AF127" s="19"/>
-      <c r="AG127" s="19"/>
-      <c r="AH127" s="19"/>
-      <c r="AI127" s="19"/>
-      <c r="AJ127" s="19"/>
-      <c r="AK127" s="19"/>
-      <c r="AL127" s="19"/>
-      <c r="AM127" s="19"/>
-      <c r="AN127" s="19"/>
-      <c r="AO127" s="19"/>
-      <c r="AP127" s="19"/>
-      <c r="AQ127" s="19"/>
-      <c r="AR127" s="19"/>
-      <c r="AS127" s="19"/>
-      <c r="AT127" s="19"/>
-      <c r="AU127" s="19"/>
-      <c r="AV127" s="19"/>
-      <c r="AW127" s="19"/>
-      <c r="AX127" s="19"/>
-      <c r="AY127" s="19"/>
-      <c r="AZ127" s="19"/>
-      <c r="BA127" s="19"/>
-      <c r="BB127" s="19"/>
-      <c r="BC127" s="20"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+      <c r="U127" s="8"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="8"/>
+      <c r="Z127" s="8"/>
+      <c r="AA127" s="8"/>
+      <c r="AB127" s="9"/>
+      <c r="AD127" s="7"/>
+      <c r="AE127" s="8"/>
+      <c r="AF127" s="8"/>
+      <c r="AG127" s="8"/>
+      <c r="AH127" s="8"/>
+      <c r="AI127" s="8"/>
+      <c r="AJ127" s="8"/>
+      <c r="AK127" s="8"/>
+      <c r="AL127" s="8"/>
+      <c r="AM127" s="8"/>
+      <c r="AN127" s="8"/>
+      <c r="AO127" s="8"/>
+      <c r="AP127" s="8"/>
+      <c r="AQ127" s="8"/>
+      <c r="AR127" s="8"/>
+      <c r="AS127" s="8"/>
+      <c r="AT127" s="8"/>
+      <c r="AU127" s="8"/>
+      <c r="AV127" s="8"/>
+      <c r="AW127" s="8"/>
+      <c r="AX127" s="8"/>
+      <c r="AY127" s="8"/>
+      <c r="AZ127" s="8"/>
+      <c r="BA127" s="8"/>
+      <c r="BB127" s="8"/>
+      <c r="BC127" s="9"/>
     </row>
     <row r="128" spans="1:55" x14ac:dyDescent="0.15">
       <c r="C128" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
@@ -5396,7 +5313,7 @@
       <c r="AA128" s="19"/>
       <c r="AB128" s="20"/>
       <c r="AD128" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE128" s="19"/>
       <c r="AF128" s="19"/>
@@ -5426,7 +5343,7 @@
     </row>
     <row r="129" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C129" s="18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
@@ -5454,7 +5371,7 @@
       <c r="AA129" s="19"/>
       <c r="AB129" s="20"/>
       <c r="AD129" s="18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AE129" s="19"/>
       <c r="AF129" s="19"/>
@@ -5483,7 +5400,9 @@
       <c r="BC129" s="20"/>
     </row>
     <row r="130" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C130" s="18"/>
+      <c r="C130" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
@@ -5509,7 +5428,9 @@
       <c r="Z130" s="19"/>
       <c r="AA130" s="19"/>
       <c r="AB130" s="20"/>
-      <c r="AD130" s="18"/>
+      <c r="AD130" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="AE130" s="19"/>
       <c r="AF130" s="19"/>
       <c r="AG130" s="19"/>
@@ -5537,67 +5458,65 @@
       <c r="BC130" s="20"/>
     </row>
     <row r="131" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C131" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
-      <c r="L131" s="14"/>
-      <c r="M131" s="14"/>
-      <c r="N131" s="14"/>
-      <c r="O131" s="14"/>
-      <c r="P131" s="14"/>
-      <c r="Q131" s="14"/>
-      <c r="R131" s="14"/>
-      <c r="S131" s="14"/>
-      <c r="T131" s="14"/>
-      <c r="U131" s="14"/>
-      <c r="V131" s="14"/>
-      <c r="W131" s="14"/>
-      <c r="X131" s="14"/>
-      <c r="Y131" s="14"/>
-      <c r="Z131" s="14"/>
-      <c r="AA131" s="14"/>
-      <c r="AB131" s="15"/>
-      <c r="AD131" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE131" s="14"/>
-      <c r="AF131" s="14"/>
-      <c r="AG131" s="14"/>
-      <c r="AH131" s="14"/>
-      <c r="AI131" s="14"/>
-      <c r="AJ131" s="14"/>
-      <c r="AK131" s="14"/>
-      <c r="AL131" s="14"/>
-      <c r="AM131" s="14"/>
-      <c r="AN131" s="14"/>
-      <c r="AO131" s="14"/>
-      <c r="AP131" s="14"/>
-      <c r="AQ131" s="14"/>
-      <c r="AR131" s="14"/>
-      <c r="AS131" s="14"/>
-      <c r="AT131" s="14"/>
-      <c r="AU131" s="14"/>
-      <c r="AV131" s="14"/>
-      <c r="AW131" s="14"/>
-      <c r="AX131" s="14"/>
-      <c r="AY131" s="14"/>
-      <c r="AZ131" s="14"/>
-      <c r="BA131" s="14"/>
-      <c r="BB131" s="14"/>
-      <c r="BC131" s="15"/>
+      <c r="C131" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
+      <c r="S131" s="19"/>
+      <c r="T131" s="19"/>
+      <c r="U131" s="19"/>
+      <c r="V131" s="19"/>
+      <c r="W131" s="19"/>
+      <c r="X131" s="19"/>
+      <c r="Y131" s="19"/>
+      <c r="Z131" s="19"/>
+      <c r="AA131" s="19"/>
+      <c r="AB131" s="20"/>
+      <c r="AD131" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE131" s="19"/>
+      <c r="AF131" s="19"/>
+      <c r="AG131" s="19"/>
+      <c r="AH131" s="19"/>
+      <c r="AI131" s="19"/>
+      <c r="AJ131" s="19"/>
+      <c r="AK131" s="19"/>
+      <c r="AL131" s="19"/>
+      <c r="AM131" s="19"/>
+      <c r="AN131" s="19"/>
+      <c r="AO131" s="19"/>
+      <c r="AP131" s="19"/>
+      <c r="AQ131" s="19"/>
+      <c r="AR131" s="19"/>
+      <c r="AS131" s="19"/>
+      <c r="AT131" s="19"/>
+      <c r="AU131" s="19"/>
+      <c r="AV131" s="19"/>
+      <c r="AW131" s="19"/>
+      <c r="AX131" s="19"/>
+      <c r="AY131" s="19"/>
+      <c r="AZ131" s="19"/>
+      <c r="BA131" s="19"/>
+      <c r="BB131" s="19"/>
+      <c r="BC131" s="20"/>
     </row>
     <row r="132" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C132" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="C132" s="18"/>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
@@ -5623,9 +5542,7 @@
       <c r="Z132" s="19"/>
       <c r="AA132" s="19"/>
       <c r="AB132" s="20"/>
-      <c r="AD132" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD132" s="18"/>
       <c r="AE132" s="19"/>
       <c r="AF132" s="19"/>
       <c r="AG132" s="19"/>
@@ -5653,99 +5570,95 @@
       <c r="BC132" s="20"/>
     </row>
     <row r="133" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="B133" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
-      <c r="O133" s="19"/>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="19"/>
-      <c r="R133" s="19"/>
-      <c r="S133" s="19"/>
-      <c r="T133" s="19"/>
-      <c r="U133" s="19"/>
-      <c r="V133" s="19"/>
-      <c r="W133" s="19"/>
-      <c r="X133" s="19"/>
-      <c r="Y133" s="19"/>
-      <c r="Z133" s="19"/>
-      <c r="AA133" s="19"/>
-      <c r="AB133" s="20"/>
-      <c r="AD133" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE133" s="19"/>
-      <c r="AF133" s="19"/>
-      <c r="AG133" s="19"/>
-      <c r="AH133" s="19"/>
-      <c r="AI133" s="19"/>
-      <c r="AJ133" s="19"/>
-      <c r="AK133" s="19"/>
-      <c r="AL133" s="19"/>
-      <c r="AM133" s="19"/>
-      <c r="AN133" s="19"/>
-      <c r="AO133" s="19"/>
-      <c r="AP133" s="19"/>
-      <c r="AQ133" s="19"/>
-      <c r="AR133" s="19"/>
-      <c r="AS133" s="19"/>
-      <c r="AT133" s="19"/>
-      <c r="AU133" s="19"/>
-      <c r="AV133" s="19"/>
-      <c r="AW133" s="19"/>
-      <c r="AX133" s="19"/>
-      <c r="AY133" s="19"/>
-      <c r="AZ133" s="19"/>
-      <c r="BA133" s="19"/>
-      <c r="BB133" s="19"/>
-      <c r="BC133" s="20"/>
+      <c r="C133" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+      <c r="R133" s="14"/>
+      <c r="S133" s="14"/>
+      <c r="T133" s="14"/>
+      <c r="U133" s="14"/>
+      <c r="V133" s="14"/>
+      <c r="W133" s="14"/>
+      <c r="X133" s="14"/>
+      <c r="Y133" s="14"/>
+      <c r="Z133" s="14"/>
+      <c r="AA133" s="14"/>
+      <c r="AB133" s="15"/>
+      <c r="AD133" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE133" s="14"/>
+      <c r="AF133" s="14"/>
+      <c r="AG133" s="14"/>
+      <c r="AH133" s="14"/>
+      <c r="AI133" s="14"/>
+      <c r="AJ133" s="14"/>
+      <c r="AK133" s="14"/>
+      <c r="AL133" s="14"/>
+      <c r="AM133" s="14"/>
+      <c r="AN133" s="14"/>
+      <c r="AO133" s="14"/>
+      <c r="AP133" s="14"/>
+      <c r="AQ133" s="14"/>
+      <c r="AR133" s="14"/>
+      <c r="AS133" s="14"/>
+      <c r="AT133" s="14"/>
+      <c r="AU133" s="14"/>
+      <c r="AV133" s="14"/>
+      <c r="AW133" s="14"/>
+      <c r="AX133" s="14"/>
+      <c r="AY133" s="14"/>
+      <c r="AZ133" s="14"/>
+      <c r="BA133" s="14"/>
+      <c r="BB133" s="14"/>
+      <c r="BC133" s="15"/>
     </row>
     <row r="134" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="B134" t="s">
-        <v>94</v>
-      </c>
       <c r="C134" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-      <c r="K134" s="14"/>
-      <c r="L134" s="14"/>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
-      <c r="O134" s="14"/>
-      <c r="P134" s="14"/>
-      <c r="Q134" s="14"/>
-      <c r="R134" s="14"/>
-      <c r="S134" s="14"/>
-      <c r="T134" s="14"/>
-      <c r="U134" s="14"/>
-      <c r="V134" s="14"/>
-      <c r="W134" s="14"/>
-      <c r="X134" s="14"/>
-      <c r="Y134" s="14"/>
-      <c r="Z134" s="14"/>
-      <c r="AA134" s="14"/>
-      <c r="AB134" s="15"/>
-      <c r="AD134" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
+      <c r="V134" s="19"/>
+      <c r="W134" s="19"/>
+      <c r="X134" s="19"/>
+      <c r="Y134" s="19"/>
+      <c r="Z134" s="19"/>
+      <c r="AA134" s="19"/>
+      <c r="AB134" s="20"/>
+      <c r="AD134" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="AE134" s="19"/>
       <c r="AF134" s="19"/>
       <c r="AG134" s="19"/>
@@ -5773,8 +5686,11 @@
       <c r="BC134" s="20"/>
     </row>
     <row r="135" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>93</v>
+      </c>
       <c r="C135" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
@@ -5802,7 +5718,7 @@
       <c r="AA135" s="19"/>
       <c r="AB135" s="20"/>
       <c r="AD135" s="18" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AE135" s="19"/>
       <c r="AF135" s="19"/>
@@ -5831,66 +5747,67 @@
       <c r="BC135" s="20"/>
     </row>
     <row r="136" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>94</v>
+      </c>
       <c r="C136" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
-      <c r="S136" s="19"/>
-      <c r="T136" s="19"/>
-      <c r="U136" s="19"/>
-      <c r="V136" s="19"/>
-      <c r="W136" s="19"/>
-      <c r="X136" s="19"/>
-      <c r="Y136" s="19"/>
-      <c r="Z136" s="19"/>
-      <c r="AA136" s="19"/>
-      <c r="AB136" s="20"/>
-      <c r="AD136" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AE136" s="14"/>
-      <c r="AF136" s="14"/>
-      <c r="AG136" s="14"/>
-      <c r="AH136" s="14"/>
-      <c r="AI136" s="14"/>
-      <c r="AJ136" s="14"/>
-      <c r="AK136" s="14"/>
-      <c r="AL136" s="14"/>
-      <c r="AM136" s="14"/>
-      <c r="AN136" s="14"/>
-      <c r="AO136" s="14"/>
-      <c r="AP136" s="14"/>
-      <c r="AQ136" s="14"/>
-      <c r="AR136" s="14"/>
-      <c r="AS136" s="14"/>
-      <c r="AT136" s="14"/>
-      <c r="AU136" s="14"/>
-      <c r="AV136" s="14"/>
-      <c r="AW136" s="14"/>
-      <c r="AX136" s="14"/>
-      <c r="AY136" s="14"/>
-      <c r="AZ136" s="14"/>
-      <c r="BA136" s="14"/>
-      <c r="BB136" s="14"/>
-      <c r="BC136" s="15"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14"/>
+      <c r="Q136" s="14"/>
+      <c r="R136" s="14"/>
+      <c r="S136" s="14"/>
+      <c r="T136" s="14"/>
+      <c r="U136" s="14"/>
+      <c r="V136" s="14"/>
+      <c r="W136" s="14"/>
+      <c r="X136" s="14"/>
+      <c r="Y136" s="14"/>
+      <c r="Z136" s="14"/>
+      <c r="AA136" s="14"/>
+      <c r="AB136" s="15"/>
+      <c r="AD136" s="18"/>
+      <c r="AE136" s="19"/>
+      <c r="AF136" s="19"/>
+      <c r="AG136" s="19"/>
+      <c r="AH136" s="19"/>
+      <c r="AI136" s="19"/>
+      <c r="AJ136" s="19"/>
+      <c r="AK136" s="19"/>
+      <c r="AL136" s="19"/>
+      <c r="AM136" s="19"/>
+      <c r="AN136" s="19"/>
+      <c r="AO136" s="19"/>
+      <c r="AP136" s="19"/>
+      <c r="AQ136" s="19"/>
+      <c r="AR136" s="19"/>
+      <c r="AS136" s="19"/>
+      <c r="AT136" s="19"/>
+      <c r="AU136" s="19"/>
+      <c r="AV136" s="19"/>
+      <c r="AW136" s="19"/>
+      <c r="AX136" s="19"/>
+      <c r="AY136" s="19"/>
+      <c r="AZ136" s="19"/>
+      <c r="BA136" s="19"/>
+      <c r="BB136" s="19"/>
+      <c r="BC136" s="20"/>
     </row>
     <row r="137" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C137" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
@@ -5918,7 +5835,7 @@
       <c r="AA137" s="19"/>
       <c r="AB137" s="20"/>
       <c r="AD137" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE137" s="19"/>
       <c r="AF137" s="19"/>
@@ -5948,7 +5865,7 @@
     </row>
     <row r="138" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C138" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
@@ -5976,37 +5893,37 @@
       <c r="AA138" s="19"/>
       <c r="AB138" s="20"/>
       <c r="AD138" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE138" s="19"/>
-      <c r="AF138" s="19"/>
-      <c r="AG138" s="19"/>
-      <c r="AH138" s="19"/>
-      <c r="AI138" s="19"/>
-      <c r="AJ138" s="19"/>
-      <c r="AK138" s="19"/>
-      <c r="AL138" s="19"/>
-      <c r="AM138" s="19"/>
-      <c r="AN138" s="19"/>
-      <c r="AO138" s="19"/>
-      <c r="AP138" s="19"/>
-      <c r="AQ138" s="19"/>
-      <c r="AR138" s="19"/>
-      <c r="AS138" s="19"/>
-      <c r="AT138" s="19"/>
-      <c r="AU138" s="19"/>
-      <c r="AV138" s="19"/>
-      <c r="AW138" s="19"/>
-      <c r="AX138" s="19"/>
-      <c r="AY138" s="19"/>
-      <c r="AZ138" s="19"/>
-      <c r="BA138" s="19"/>
-      <c r="BB138" s="19"/>
-      <c r="BC138" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="AE138" s="14"/>
+      <c r="AF138" s="14"/>
+      <c r="AG138" s="14"/>
+      <c r="AH138" s="14"/>
+      <c r="AI138" s="14"/>
+      <c r="AJ138" s="14"/>
+      <c r="AK138" s="14"/>
+      <c r="AL138" s="14"/>
+      <c r="AM138" s="14"/>
+      <c r="AN138" s="14"/>
+      <c r="AO138" s="14"/>
+      <c r="AP138" s="14"/>
+      <c r="AQ138" s="14"/>
+      <c r="AR138" s="14"/>
+      <c r="AS138" s="14"/>
+      <c r="AT138" s="14"/>
+      <c r="AU138" s="14"/>
+      <c r="AV138" s="14"/>
+      <c r="AW138" s="14"/>
+      <c r="AX138" s="14"/>
+      <c r="AY138" s="14"/>
+      <c r="AZ138" s="14"/>
+      <c r="BA138" s="14"/>
+      <c r="BB138" s="14"/>
+      <c r="BC138" s="15"/>
     </row>
     <row r="139" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C139" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
@@ -6034,7 +5951,7 @@
       <c r="AA139" s="19"/>
       <c r="AB139" s="20"/>
       <c r="AD139" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE139" s="19"/>
       <c r="AF139" s="19"/>
@@ -6064,7 +5981,7 @@
     </row>
     <row r="140" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C140" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
@@ -6092,7 +6009,7 @@
       <c r="AA140" s="19"/>
       <c r="AB140" s="20"/>
       <c r="AD140" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE140" s="19"/>
       <c r="AF140" s="19"/>
@@ -6122,35 +6039,35 @@
     </row>
     <row r="141" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C141" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D141" s="19"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="16"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="16"/>
-      <c r="O141" s="16"/>
-      <c r="P141" s="16"/>
-      <c r="Q141" s="16"/>
-      <c r="R141" s="16"/>
-      <c r="S141" s="16"/>
-      <c r="T141" s="16"/>
-      <c r="U141" s="16"/>
-      <c r="V141" s="16"/>
-      <c r="W141" s="16"/>
-      <c r="X141" s="16"/>
-      <c r="Y141" s="16"/>
-      <c r="Z141" s="16"/>
-      <c r="AA141" s="16"/>
-      <c r="AB141" s="17"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="19"/>
+      <c r="U141" s="19"/>
+      <c r="V141" s="19"/>
+      <c r="W141" s="19"/>
+      <c r="X141" s="19"/>
+      <c r="Y141" s="19"/>
+      <c r="Z141" s="19"/>
+      <c r="AA141" s="19"/>
+      <c r="AB141" s="20"/>
       <c r="AD141" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE141" s="19"/>
       <c r="AF141" s="19"/>
@@ -6179,7 +6096,9 @@
       <c r="BC141" s="20"/>
     </row>
     <row r="142" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C142" s="18"/>
+      <c r="C142" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
@@ -6206,7 +6125,7 @@
       <c r="AA142" s="19"/>
       <c r="AB142" s="20"/>
       <c r="AD142" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE142" s="19"/>
       <c r="AF142" s="19"/>
@@ -6235,100 +6154,92 @@
       <c r="BC142" s="20"/>
     </row>
     <row r="143" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="B143" t="s">
-        <v>95</v>
-      </c>
       <c r="C143" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="24"/>
-      <c r="J143" s="24"/>
-      <c r="K143" s="24"/>
-      <c r="L143" s="24"/>
-      <c r="M143" s="24"/>
-      <c r="N143" s="24"/>
-      <c r="O143" s="24"/>
-      <c r="P143" s="24"/>
-      <c r="Q143" s="24"/>
-      <c r="R143" s="24"/>
-      <c r="S143" s="24"/>
-      <c r="T143" s="24"/>
-      <c r="U143" s="24"/>
-      <c r="V143" s="24"/>
-      <c r="W143" s="24"/>
-      <c r="X143" s="24"/>
-      <c r="Y143" s="24"/>
-      <c r="Z143" s="24"/>
-      <c r="AA143" s="24"/>
-      <c r="AB143" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="16"/>
+      <c r="O143" s="16"/>
+      <c r="P143" s="16"/>
+      <c r="Q143" s="16"/>
+      <c r="R143" s="16"/>
+      <c r="S143" s="16"/>
+      <c r="T143" s="16"/>
+      <c r="U143" s="16"/>
+      <c r="V143" s="16"/>
+      <c r="W143" s="16"/>
+      <c r="X143" s="16"/>
+      <c r="Y143" s="16"/>
+      <c r="Z143" s="16"/>
+      <c r="AA143" s="16"/>
+      <c r="AB143" s="17"/>
       <c r="AD143" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AE143" s="19"/>
-      <c r="AF143" s="16"/>
-      <c r="AG143" s="16"/>
-      <c r="AH143" s="16"/>
-      <c r="AI143" s="16"/>
-      <c r="AJ143" s="16"/>
-      <c r="AK143" s="16"/>
-      <c r="AL143" s="16"/>
-      <c r="AM143" s="16"/>
-      <c r="AN143" s="16"/>
-      <c r="AO143" s="16"/>
-      <c r="AP143" s="16"/>
-      <c r="AQ143" s="16"/>
-      <c r="AR143" s="16"/>
-      <c r="AS143" s="16"/>
-      <c r="AT143" s="16"/>
-      <c r="AU143" s="16"/>
-      <c r="AV143" s="16"/>
-      <c r="AW143" s="16"/>
-      <c r="AX143" s="16"/>
-      <c r="AY143" s="16"/>
-      <c r="AZ143" s="16"/>
-      <c r="BA143" s="16"/>
-      <c r="BB143" s="16"/>
-      <c r="BC143" s="17"/>
+      <c r="AF143" s="19"/>
+      <c r="AG143" s="19"/>
+      <c r="AH143" s="19"/>
+      <c r="AI143" s="19"/>
+      <c r="AJ143" s="19"/>
+      <c r="AK143" s="19"/>
+      <c r="AL143" s="19"/>
+      <c r="AM143" s="19"/>
+      <c r="AN143" s="19"/>
+      <c r="AO143" s="19"/>
+      <c r="AP143" s="19"/>
+      <c r="AQ143" s="19"/>
+      <c r="AR143" s="19"/>
+      <c r="AS143" s="19"/>
+      <c r="AT143" s="19"/>
+      <c r="AU143" s="19"/>
+      <c r="AV143" s="19"/>
+      <c r="AW143" s="19"/>
+      <c r="AX143" s="19"/>
+      <c r="AY143" s="19"/>
+      <c r="AZ143" s="19"/>
+      <c r="BA143" s="19"/>
+      <c r="BB143" s="19"/>
+      <c r="BC143" s="20"/>
     </row>
     <row r="144" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="B144" t="s">
-        <v>96</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="16"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="16"/>
-      <c r="L144" s="16"/>
-      <c r="M144" s="16"/>
-      <c r="N144" s="16"/>
-      <c r="O144" s="16"/>
-      <c r="P144" s="16"/>
-      <c r="Q144" s="16"/>
-      <c r="R144" s="16"/>
-      <c r="S144" s="16"/>
-      <c r="T144" s="16"/>
-      <c r="U144" s="16"/>
-      <c r="V144" s="16"/>
-      <c r="W144" s="16"/>
-      <c r="X144" s="16"/>
-      <c r="Y144" s="16"/>
-      <c r="Z144" s="16"/>
-      <c r="AA144" s="16"/>
-      <c r="AB144" s="17"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="19"/>
+      <c r="N144" s="19"/>
+      <c r="O144" s="19"/>
+      <c r="P144" s="19"/>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="19"/>
+      <c r="S144" s="19"/>
+      <c r="T144" s="19"/>
+      <c r="U144" s="19"/>
+      <c r="V144" s="19"/>
+      <c r="W144" s="19"/>
+      <c r="X144" s="19"/>
+      <c r="Y144" s="19"/>
+      <c r="Z144" s="19"/>
+      <c r="AA144" s="19"/>
+      <c r="AB144" s="20"/>
       <c r="AD144" s="18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AE144" s="19"/>
       <c r="AF144" s="19"/>
@@ -6358,94 +6269,99 @@
     </row>
     <row r="145" spans="2:55" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
-      <c r="O145" s="19"/>
-      <c r="P145" s="19"/>
-      <c r="Q145" s="19"/>
-      <c r="R145" s="19"/>
-      <c r="S145" s="19"/>
-      <c r="T145" s="19"/>
-      <c r="U145" s="19"/>
-      <c r="V145" s="19"/>
-      <c r="W145" s="19"/>
-      <c r="X145" s="19"/>
-      <c r="Y145" s="19"/>
-      <c r="Z145" s="19"/>
-      <c r="AA145" s="19"/>
-      <c r="AB145" s="20"/>
-      <c r="AD145" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="24"/>
+      <c r="O145" s="24"/>
+      <c r="P145" s="24"/>
+      <c r="Q145" s="24"/>
+      <c r="R145" s="24"/>
+      <c r="S145" s="24"/>
+      <c r="T145" s="24"/>
+      <c r="U145" s="24"/>
+      <c r="V145" s="24"/>
+      <c r="W145" s="24"/>
+      <c r="X145" s="24"/>
+      <c r="Y145" s="24"/>
+      <c r="Z145" s="24"/>
+      <c r="AA145" s="24"/>
+      <c r="AB145" s="25"/>
+      <c r="AD145" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="AE145" s="19"/>
-      <c r="AF145" s="19"/>
-      <c r="AG145" s="19"/>
-      <c r="AH145" s="19"/>
-      <c r="AI145" s="19"/>
-      <c r="AJ145" s="19"/>
-      <c r="AK145" s="19"/>
-      <c r="AL145" s="19"/>
-      <c r="AM145" s="19"/>
-      <c r="AN145" s="19"/>
-      <c r="AO145" s="19"/>
-      <c r="AP145" s="19"/>
-      <c r="AQ145" s="19"/>
-      <c r="AR145" s="19"/>
-      <c r="AS145" s="19"/>
-      <c r="AT145" s="19"/>
-      <c r="AU145" s="19"/>
-      <c r="AV145" s="19"/>
-      <c r="AW145" s="19"/>
-      <c r="AX145" s="19"/>
-      <c r="AY145" s="19"/>
-      <c r="AZ145" s="19"/>
-      <c r="BA145" s="19"/>
-      <c r="BB145" s="19"/>
-      <c r="BC145" s="20"/>
+      <c r="AF145" s="16"/>
+      <c r="AG145" s="16"/>
+      <c r="AH145" s="16"/>
+      <c r="AI145" s="16"/>
+      <c r="AJ145" s="16"/>
+      <c r="AK145" s="16"/>
+      <c r="AL145" s="16"/>
+      <c r="AM145" s="16"/>
+      <c r="AN145" s="16"/>
+      <c r="AO145" s="16"/>
+      <c r="AP145" s="16"/>
+      <c r="AQ145" s="16"/>
+      <c r="AR145" s="16"/>
+      <c r="AS145" s="16"/>
+      <c r="AT145" s="16"/>
+      <c r="AU145" s="16"/>
+      <c r="AV145" s="16"/>
+      <c r="AW145" s="16"/>
+      <c r="AX145" s="16"/>
+      <c r="AY145" s="16"/>
+      <c r="AZ145" s="16"/>
+      <c r="BA145" s="16"/>
+      <c r="BB145" s="16"/>
+      <c r="BC145" s="17"/>
     </row>
     <row r="146" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>96</v>
+      </c>
       <c r="C146" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="16"/>
+      <c r="P146" s="16"/>
+      <c r="Q146" s="16"/>
+      <c r="R146" s="16"/>
+      <c r="S146" s="16"/>
+      <c r="T146" s="16"/>
+      <c r="U146" s="16"/>
+      <c r="V146" s="16"/>
+      <c r="W146" s="16"/>
+      <c r="X146" s="16"/>
+      <c r="Y146" s="16"/>
+      <c r="Z146" s="16"/>
+      <c r="AA146" s="16"/>
+      <c r="AB146" s="17"/>
+      <c r="AD146" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19"/>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
-      <c r="Z146" s="19"/>
-      <c r="AA146" s="19"/>
-      <c r="AB146" s="20"/>
-      <c r="AD146" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="AE146" s="19"/>
       <c r="AF146" s="19"/>
@@ -6474,35 +6390,38 @@
       <c r="BC146" s="20"/>
     </row>
     <row r="147" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C147" s="7"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-      <c r="Q147" s="8"/>
-      <c r="R147" s="8"/>
-      <c r="S147" s="8"/>
-      <c r="T147" s="8"/>
-      <c r="U147" s="8"/>
-      <c r="V147" s="8"/>
-      <c r="W147" s="8"/>
-      <c r="X147" s="8"/>
-      <c r="Y147" s="8"/>
-      <c r="Z147" s="8"/>
-      <c r="AA147" s="8"/>
-      <c r="AB147" s="9"/>
-      <c r="AD147" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="B147" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="19"/>
+      <c r="AA147" s="19"/>
+      <c r="AB147" s="20"/>
+      <c r="AD147" s="18"/>
       <c r="AE147" s="19"/>
       <c r="AF147" s="19"/>
       <c r="AG147" s="19"/>
@@ -6530,35 +6449,37 @@
       <c r="BC147" s="20"/>
     </row>
     <row r="148" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="19"/>
+      <c r="T148" s="19"/>
+      <c r="U148" s="19"/>
+      <c r="V148" s="19"/>
+      <c r="W148" s="19"/>
+      <c r="X148" s="19"/>
+      <c r="Y148" s="19"/>
+      <c r="Z148" s="19"/>
+      <c r="AA148" s="19"/>
+      <c r="AB148" s="20"/>
+      <c r="AD148" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="8"/>
-      <c r="O148" s="8"/>
-      <c r="P148" s="8"/>
-      <c r="Q148" s="8"/>
-      <c r="R148" s="8"/>
-      <c r="S148" s="8"/>
-      <c r="T148" s="8"/>
-      <c r="U148" s="8"/>
-      <c r="V148" s="8"/>
-      <c r="W148" s="8"/>
-      <c r="X148" s="8"/>
-      <c r="Y148" s="8"/>
-      <c r="Z148" s="8"/>
-      <c r="AA148" s="8"/>
-      <c r="AB148" s="9"/>
-      <c r="AD148" s="18"/>
       <c r="AE148" s="19"/>
       <c r="AF148" s="19"/>
       <c r="AG148" s="19"/>
@@ -6586,9 +6507,7 @@
       <c r="BC148" s="20"/>
     </row>
     <row r="149" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C149" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C149" s="7"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
@@ -6614,7 +6533,9 @@
       <c r="Z149" s="8"/>
       <c r="AA149" s="8"/>
       <c r="AB149" s="9"/>
-      <c r="AD149" s="18"/>
+      <c r="AD149" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="AE149" s="19"/>
       <c r="AF149" s="19"/>
       <c r="AG149" s="19"/>
@@ -6642,76 +6563,188 @@
       <c r="BC149" s="20"/>
     </row>
     <row r="150" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C150" s="10"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="11"/>
-      <c r="L150" s="11"/>
-      <c r="M150" s="11"/>
-      <c r="N150" s="11"/>
-      <c r="O150" s="11"/>
-      <c r="P150" s="11"/>
-      <c r="Q150" s="11"/>
-      <c r="R150" s="11"/>
-      <c r="S150" s="11"/>
-      <c r="T150" s="11"/>
-      <c r="U150" s="11"/>
-      <c r="V150" s="11"/>
-      <c r="W150" s="11"/>
-      <c r="X150" s="11"/>
-      <c r="Y150" s="11"/>
-      <c r="Z150" s="11"/>
-      <c r="AA150" s="11"/>
-      <c r="AB150" s="12"/>
-      <c r="AD150" s="21"/>
-      <c r="AE150" s="22"/>
-      <c r="AF150" s="22"/>
-      <c r="AG150" s="22"/>
-      <c r="AH150" s="22"/>
-      <c r="AI150" s="22"/>
-      <c r="AJ150" s="22"/>
-      <c r="AK150" s="22"/>
-      <c r="AL150" s="22"/>
-      <c r="AM150" s="22"/>
-      <c r="AN150" s="22"/>
-      <c r="AO150" s="22"/>
-      <c r="AP150" s="22"/>
-      <c r="AQ150" s="22"/>
-      <c r="AR150" s="22"/>
-      <c r="AS150" s="22"/>
-      <c r="AT150" s="22"/>
-      <c r="AU150" s="22"/>
-      <c r="AV150" s="22"/>
-      <c r="AW150" s="22"/>
-      <c r="AX150" s="22"/>
-      <c r="AY150" s="22"/>
-      <c r="AZ150" s="22"/>
-      <c r="BA150" s="22"/>
-      <c r="BB150" s="22"/>
-      <c r="BC150" s="23"/>
+      <c r="C150" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="8"/>
+      <c r="R150" s="8"/>
+      <c r="S150" s="8"/>
+      <c r="T150" s="8"/>
+      <c r="U150" s="8"/>
+      <c r="V150" s="8"/>
+      <c r="W150" s="8"/>
+      <c r="X150" s="8"/>
+      <c r="Y150" s="8"/>
+      <c r="Z150" s="8"/>
+      <c r="AA150" s="8"/>
+      <c r="AB150" s="9"/>
+      <c r="AD150" s="18"/>
+      <c r="AE150" s="19"/>
+      <c r="AF150" s="19"/>
+      <c r="AG150" s="19"/>
+      <c r="AH150" s="19"/>
+      <c r="AI150" s="19"/>
+      <c r="AJ150" s="19"/>
+      <c r="AK150" s="19"/>
+      <c r="AL150" s="19"/>
+      <c r="AM150" s="19"/>
+      <c r="AN150" s="19"/>
+      <c r="AO150" s="19"/>
+      <c r="AP150" s="19"/>
+      <c r="AQ150" s="19"/>
+      <c r="AR150" s="19"/>
+      <c r="AS150" s="19"/>
+      <c r="AT150" s="19"/>
+      <c r="AU150" s="19"/>
+      <c r="AV150" s="19"/>
+      <c r="AW150" s="19"/>
+      <c r="AX150" s="19"/>
+      <c r="AY150" s="19"/>
+      <c r="AZ150" s="19"/>
+      <c r="BA150" s="19"/>
+      <c r="BB150" s="19"/>
+      <c r="BC150" s="20"/>
+    </row>
+    <row r="151" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C151" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="8"/>
+      <c r="U151" s="8"/>
+      <c r="V151" s="8"/>
+      <c r="W151" s="8"/>
+      <c r="X151" s="8"/>
+      <c r="Y151" s="8"/>
+      <c r="Z151" s="8"/>
+      <c r="AA151" s="8"/>
+      <c r="AB151" s="9"/>
+      <c r="AD151" s="18"/>
+      <c r="AE151" s="19"/>
+      <c r="AF151" s="19"/>
+      <c r="AG151" s="19"/>
+      <c r="AH151" s="19"/>
+      <c r="AI151" s="19"/>
+      <c r="AJ151" s="19"/>
+      <c r="AK151" s="19"/>
+      <c r="AL151" s="19"/>
+      <c r="AM151" s="19"/>
+      <c r="AN151" s="19"/>
+      <c r="AO151" s="19"/>
+      <c r="AP151" s="19"/>
+      <c r="AQ151" s="19"/>
+      <c r="AR151" s="19"/>
+      <c r="AS151" s="19"/>
+      <c r="AT151" s="19"/>
+      <c r="AU151" s="19"/>
+      <c r="AV151" s="19"/>
+      <c r="AW151" s="19"/>
+      <c r="AX151" s="19"/>
+      <c r="AY151" s="19"/>
+      <c r="AZ151" s="19"/>
+      <c r="BA151" s="19"/>
+      <c r="BB151" s="19"/>
+      <c r="BC151" s="20"/>
     </row>
     <row r="152" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="B152" t="s">
+      <c r="C152" s="10"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="U152" s="11"/>
+      <c r="V152" s="11"/>
+      <c r="W152" s="11"/>
+      <c r="X152" s="11"/>
+      <c r="Y152" s="11"/>
+      <c r="Z152" s="11"/>
+      <c r="AA152" s="11"/>
+      <c r="AB152" s="12"/>
+      <c r="AD152" s="21"/>
+      <c r="AE152" s="22"/>
+      <c r="AF152" s="22"/>
+      <c r="AG152" s="22"/>
+      <c r="AH152" s="22"/>
+      <c r="AI152" s="22"/>
+      <c r="AJ152" s="22"/>
+      <c r="AK152" s="22"/>
+      <c r="AL152" s="22"/>
+      <c r="AM152" s="22"/>
+      <c r="AN152" s="22"/>
+      <c r="AO152" s="22"/>
+      <c r="AP152" s="22"/>
+      <c r="AQ152" s="22"/>
+      <c r="AR152" s="22"/>
+      <c r="AS152" s="22"/>
+      <c r="AT152" s="22"/>
+      <c r="AU152" s="22"/>
+      <c r="AV152" s="22"/>
+      <c r="AW152" s="22"/>
+      <c r="AX152" s="22"/>
+      <c r="AY152" s="22"/>
+      <c r="AZ152" s="22"/>
+      <c r="BA152" s="22"/>
+      <c r="BB152" s="22"/>
+      <c r="BC152" s="23"/>
+    </row>
+    <row r="154" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="153" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C153" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="154" spans="2:55" x14ac:dyDescent="0.15">
-      <c r="C154" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="155" spans="2:55" x14ac:dyDescent="0.15">
       <c r="C155" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="2:55" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
         <v>100</v>
       </c>
     </row>

--- a/◆At_Coder_メモ帳◆.xlsx
+++ b/◆At_Coder_メモ帳◆.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshi_000.000\MyImp\MyOwn\Develop\C++\At_Coder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82B34D-27FC-4357-A91B-0D14599A29B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8262EB53-053D-4B65-831F-6A3A07AD7740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C++メモ帳" sheetId="1" r:id="rId1"/>
+    <sheet name="メモ内容" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="134">
   <si>
     <t>初期化</t>
     <rPh sb="0" eb="3">
@@ -994,6 +995,91 @@
     <rPh sb="22" eb="23">
       <t>シャ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモ内容</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何故解けなかったか、原因を記載する</t>
+    <rPh sb="0" eb="2">
+      <t>ナゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＵｎＧｏａｌ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分の解き方と模範解答の解き方の相違点を短くまとめる</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モハン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ソウイテン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｓｏｌｕｔｉｏｎ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当問題の難しかったポイントを自分の言葉でまとめる</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コトバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ｓｕｍｍａｒｙ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3457,7 +3543,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:39" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:39" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -11784,4 +11870,66 @@
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="72" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81E6BD3-49BF-4071-A68C-B49BB0D95183}">
+  <dimension ref="B2:AB8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/◆At_Coder_メモ帳◆.xlsx
+++ b/◆At_Coder_メモ帳◆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roshi_000.000\MyImp\MyOwn\Develop\C++\At_Coder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8262EB53-053D-4B65-831F-6A3A07AD7740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E812BB5-F7D7-4E1C-AB64-1C0D696D690B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1021,10 +1021,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ＵｎＧｏａｌ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>自分の解き方と模範解答の解き方の相違点を短くまとめる</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -1080,6 +1076,10 @@
   </si>
   <si>
     <t>Ｓｕｍｍａｒｙ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＦｏｒＧｏａｌ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1714,8 +1714,8 @@
   <dimension ref="A1:BL435"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ167" sqref="AJ167"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11896,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="AB4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.15">
@@ -11904,13 +11904,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA6" t="s">
         <v>1</v>
       </c>
       <c r="AB6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.15">
@@ -11918,13 +11918,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA8" t="s">
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
